--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="339">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -997,6 +997,60 @@
   </si>
   <si>
     <t>As a developer, I want my game to meet TRC Requirements.</t>
+  </si>
+  <si>
+    <t>does it load levels quickly and correctly?</t>
+  </si>
+  <si>
+    <t>do units not walk into blocked areas?</t>
+  </si>
+  <si>
+    <t>do units take an effiecient path of some sort?</t>
+  </si>
+  <si>
+    <t>does it load premade pathing data?</t>
+  </si>
+  <si>
+    <t>does it show the duration and cooldown graphically and clearly?</t>
+  </si>
+  <si>
+    <t>does it show a graphical effect on the unit?</t>
+  </si>
+  <si>
+    <t>does it integrate an art effect?</t>
+  </si>
+  <si>
+    <t>As a player, I want tooltips that display specific information.</t>
+  </si>
+  <si>
+    <t>can the profile be named and associated with specific save files?</t>
+  </si>
+  <si>
+    <t>can the profile be accessed from the main menu?</t>
+  </si>
+  <si>
+    <t>does the map have more substance?</t>
+  </si>
+  <si>
+    <t>does it use particles?</t>
+  </si>
+  <si>
+    <t>do bosses use abilites?</t>
+  </si>
+  <si>
+    <t>do bosses have good ai?</t>
+  </si>
+  <si>
+    <t>do we have a successful install file?</t>
+  </si>
+  <si>
+    <t>do they specify what abilities and items do, including name, effect, cooldown and duration</t>
+  </si>
+  <si>
+    <t>does it meet all trc requirements?</t>
+  </si>
+  <si>
+    <t>As a player, I want to see a loading screen whenever the game is loading something.</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1356,6 +1410,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1368,7 +1453,7 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1537,7 +1622,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,40 +1670,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1603,13 +1688,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,7 +1715,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2852,14 +2946,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2868,12 +2962,12 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
@@ -2918,12 +3012,12 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
@@ -2968,12 +3062,12 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
@@ -3006,12 +3100,12 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
@@ -3032,12 +3126,12 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="100"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
@@ -3082,12 +3176,12 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="106"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
@@ -3156,12 +3250,12 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="106"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
@@ -3254,12 +3348,12 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="106"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
@@ -3304,12 +3398,12 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="106"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="100"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
@@ -3354,12 +3448,12 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="106"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="100"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
@@ -3380,12 +3474,12 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="104"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="106"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="100"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
@@ -3430,12 +3524,12 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="104"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="106"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="100"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
@@ -3480,12 +3574,12 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="104"/>
-      <c r="D73" s="105"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="106"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="100"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
@@ -3530,12 +3624,12 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="104"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="106"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="100"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
@@ -3568,56 +3662,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="106"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="100"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="97"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="106"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="95" t="s">
+      <c r="C82" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="96"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="97"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="106"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="98" t="s">
+      <c r="C83" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="100"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -3630,50 +3763,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -4541,12 +4635,12 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="116"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="68"/>
@@ -4563,26 +4657,26 @@
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="112"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
       <c r="A37" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="118"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="112"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1">
       <c r="A38" s="68"/>
@@ -4653,22 +4747,22 @@
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="111" t="s">
+      <c r="E41" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="111" t="s">
+      <c r="F41" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="112" t="s">
+      <c r="H41" s="118" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4677,12 +4771,12 @@
         <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="118"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="112"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="68"/>
@@ -4775,22 +4869,22 @@
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="110" t="s">
+      <c r="C47" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="111" t="s">
+      <c r="D47" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="111" t="s">
+      <c r="E47" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="111" t="s">
+      <c r="F47" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="111" t="s">
+      <c r="G47" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="112" t="s">
+      <c r="H47" s="118" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4799,32 +4893,32 @@
         <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="118"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="112"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="110" t="s">
+      <c r="C49" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="111" t="s">
+      <c r="D49" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="111" t="s">
+      <c r="E49" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="111" t="s">
+      <c r="F49" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="111" t="s">
+      <c r="G49" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="112" t="s">
+      <c r="H49" s="118" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4833,12 +4927,12 @@
         <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="118"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="112"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="68"/>
@@ -4893,12 +4987,12 @@
         <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="118"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="112"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="68"/>
@@ -4949,12 +5043,12 @@
         <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="118"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="112"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="68"/>
@@ -5069,22 +5163,22 @@
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="110" t="s">
+      <c r="C64" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="111" t="s">
+      <c r="E64" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="111" t="s">
+      <c r="F64" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="111" t="s">
+      <c r="G64" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="112" t="s">
+      <c r="H64" s="118" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5093,12 +5187,12 @@
         <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="118"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="112"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="68"/>
@@ -5147,22 +5241,22 @@
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="110" t="s">
+      <c r="C68" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="111" t="s">
+      <c r="D68" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="111" t="s">
+      <c r="E68" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="111" t="s">
+      <c r="F68" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="111" t="s">
+      <c r="G68" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="112" t="s">
+      <c r="H68" s="118" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5171,24 +5265,24 @@
         <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="118"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="112"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1">
       <c r="A70" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="118"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="112"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="68"/>
@@ -5281,22 +5375,22 @@
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="110" t="s">
+      <c r="C75" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="111" t="s">
+      <c r="D75" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="111" t="s">
+      <c r="E75" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="111" t="s">
+      <c r="F75" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="111" t="s">
+      <c r="G75" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="H75" s="112" t="s">
+      <c r="H75" s="118" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5305,12 +5399,12 @@
         <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="118"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="112"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="68"/>
@@ -5337,22 +5431,22 @@
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="110" t="s">
+      <c r="C78" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="111" t="s">
+      <c r="D78" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="111" t="s">
+      <c r="E78" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="111" t="s">
+      <c r="F78" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="111" t="s">
+      <c r="G78" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="112" t="s">
+      <c r="H78" s="118" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5361,12 +5455,12 @@
         <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="117"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="117"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="118"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="112"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="68"/>
@@ -5459,22 +5553,22 @@
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="110" t="s">
+      <c r="C84" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="111" t="s">
+      <c r="D84" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="111" t="s">
+      <c r="E84" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="111" t="s">
+      <c r="F84" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="G84" s="111" t="s">
+      <c r="G84" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="112" t="s">
+      <c r="H84" s="118" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5483,12 +5577,12 @@
         <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="116"/>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="118"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="112"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="68"/>
@@ -5559,22 +5653,22 @@
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="110" t="s">
+      <c r="C89" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="111" t="s">
+      <c r="D89" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="111" t="s">
+      <c r="E89" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="111" t="s">
+      <c r="F89" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="111" t="s">
+      <c r="G89" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="H89" s="112" t="s">
+      <c r="H89" s="118" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5583,24 +5677,24 @@
         <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="116"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="118"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1">
       <c r="A91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="116"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="117"/>
-      <c r="H91" s="118"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="68"/>
@@ -5671,22 +5765,22 @@
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="110" t="s">
+      <c r="C95" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="111" t="s">
+      <c r="D95" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="111" t="s">
+      <c r="E95" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="111" t="s">
+      <c r="F95" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="111" t="s">
+      <c r="G95" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="112" t="s">
+      <c r="H95" s="118" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5695,12 +5789,12 @@
         <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="118"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="111"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="112"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="68"/>
@@ -5815,22 +5909,22 @@
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="110" t="s">
+      <c r="C102" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="111" t="s">
+      <c r="D102" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="111" t="s">
+      <c r="E102" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="111" t="s">
+      <c r="F102" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="G102" s="111" t="s">
+      <c r="G102" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="112" t="s">
+      <c r="H102" s="118" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5839,12 +5933,12 @@
         <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="116"/>
-      <c r="D103" s="117"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="117"/>
-      <c r="G103" s="117"/>
-      <c r="H103" s="118"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="112"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="68"/>
@@ -5893,22 +5987,22 @@
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="110" t="s">
+      <c r="C106" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="111" t="s">
+      <c r="D106" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="111" t="s">
+      <c r="E106" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="111" t="s">
+      <c r="F106" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="111" t="s">
+      <c r="G106" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="H106" s="112" t="s">
+      <c r="H106" s="118" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5917,12 +6011,12 @@
         <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="116"/>
-      <c r="D107" s="117"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
-      <c r="G107" s="117"/>
-      <c r="H107" s="118"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="111"/>
+      <c r="E107" s="111"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="111"/>
+      <c r="H107" s="112"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="68"/>
@@ -5993,22 +6087,22 @@
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="110" t="s">
+      <c r="C111" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="111" t="s">
+      <c r="D111" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="111" t="s">
+      <c r="E111" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="111" t="s">
+      <c r="F111" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="111" t="s">
+      <c r="G111" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="112" t="s">
+      <c r="H111" s="118" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6017,12 +6111,12 @@
         <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="116"/>
-      <c r="D112" s="117"/>
-      <c r="E112" s="117"/>
-      <c r="F112" s="117"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="118"/>
+      <c r="C112" s="110"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="112"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="68"/>
@@ -6115,22 +6209,22 @@
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="110" t="s">
+      <c r="C117" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="111" t="s">
+      <c r="D117" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="111" t="s">
+      <c r="E117" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="111" t="s">
+      <c r="F117" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="G117" s="111" t="s">
+      <c r="G117" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="H117" s="112" t="s">
+      <c r="H117" s="118" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6139,12 +6233,12 @@
         <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="116"/>
-      <c r="D118" s="117"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="117"/>
-      <c r="G118" s="117"/>
-      <c r="H118" s="118"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="112"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="68"/>
@@ -6171,22 +6265,22 @@
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="110" t="s">
+      <c r="C120" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="111" t="s">
+      <c r="D120" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="111" t="s">
+      <c r="E120" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="111" t="s">
+      <c r="F120" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="111" t="s">
+      <c r="G120" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="112" t="s">
+      <c r="H120" s="118" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6195,12 +6289,12 @@
         <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="116"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="117"/>
-      <c r="H121" s="118"/>
+      <c r="C121" s="110"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="111"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="112"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A122" s="68"/>
@@ -6229,12 +6323,12 @@
         <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="116"/>
-      <c r="D123" s="117"/>
-      <c r="E123" s="117"/>
-      <c r="F123" s="117"/>
-      <c r="G123" s="117"/>
-      <c r="H123" s="118"/>
+      <c r="C123" s="110"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="111"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="112"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="68"/>
@@ -6263,12 +6357,12 @@
         <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="116"/>
-      <c r="D125" s="117"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="117"/>
-      <c r="G125" s="117"/>
-      <c r="H125" s="118"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="112"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A126" s="68"/>
@@ -6361,22 +6455,22 @@
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="110" t="s">
+      <c r="C130" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="111" t="s">
+      <c r="D130" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="111" t="s">
+      <c r="E130" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="111" t="s">
+      <c r="F130" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="111" t="s">
+      <c r="G130" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H130" s="112" t="s">
+      <c r="H130" s="118" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6385,12 +6479,12 @@
         <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="116"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="117"/>
-      <c r="G131" s="117"/>
-      <c r="H131" s="118"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
+      <c r="G131" s="111"/>
+      <c r="H131" s="112"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="68"/>
@@ -6461,22 +6555,22 @@
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="110" t="s">
+      <c r="C135" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="111" t="s">
+      <c r="D135" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="111" t="s">
+      <c r="E135" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="111" t="s">
+      <c r="F135" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="111" t="s">
+      <c r="G135" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="112" t="s">
+      <c r="H135" s="118" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6485,12 +6579,12 @@
         <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="116"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="117"/>
-      <c r="F136" s="117"/>
-      <c r="G136" s="117"/>
-      <c r="H136" s="118"/>
+      <c r="C136" s="110"/>
+      <c r="D136" s="111"/>
+      <c r="E136" s="111"/>
+      <c r="F136" s="111"/>
+      <c r="G136" s="111"/>
+      <c r="H136" s="112"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A137" s="68"/>
@@ -6561,45 +6655,93 @@
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="110" t="s">
+      <c r="C140" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="D140" s="111" t="s">
+      <c r="D140" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="111" t="s">
+      <c r="E140" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="F140" s="111" t="s">
+      <c r="F140" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="G140" s="111" t="s">
+      <c r="G140" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="112" t="s">
+      <c r="H140" s="118" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C90:H90"/>
     <mergeCell ref="C91:H91"/>
@@ -6624,72 +6766,24 @@
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6700,7 +6794,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6709,7 +6803,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -7440,14 +7534,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="str">
@@ -7455,12 +7549,12 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="100"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
@@ -7504,12 +7598,12 @@
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="str">
@@ -7517,12 +7611,12 @@
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="100"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
@@ -7614,12 +7708,12 @@
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="106"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4"/>
@@ -7675,12 +7769,12 @@
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="100"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4"/>
@@ -7724,12 +7818,12 @@
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="106"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="100"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
@@ -7749,12 +7843,12 @@
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="106"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="6"/>
@@ -7774,12 +7868,12 @@
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="106"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="100"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4"/>
@@ -7835,12 +7929,12 @@
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="106"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="100"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6"/>
@@ -7884,12 +7978,12 @@
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="106"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="100"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="21" t="str">
@@ -7897,12 +7991,12 @@
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="106"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="100"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
@@ -7922,12 +8016,12 @@
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="106"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="100"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="21" t="str">
@@ -7935,12 +8029,12 @@
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="106"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="100"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
@@ -7996,12 +8090,12 @@
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="106"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="100"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6"/>
@@ -8033,12 +8127,12 @@
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="106"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="100"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="21" t="str">
@@ -8046,12 +8140,12 @@
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="106"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="100"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6"/>
@@ -8095,12 +8189,12 @@
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="104"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="106"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="100"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="21" t="str">
@@ -8108,12 +8202,12 @@
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="104"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="106"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="100"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4"/>
@@ -8157,12 +8251,12 @@
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="106"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="100"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="4"/>
@@ -8194,12 +8288,12 @@
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="106"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="100"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="4"/>
@@ -8231,12 +8325,12 @@
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="106"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="100"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6"/>
@@ -8268,51 +8362,106 @@
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="104"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="106"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="100"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="95" t="s">
+      <c r="C98" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="96"/>
-      <c r="E98" s="96"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="97"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="106"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="95" t="s">
+      <c r="C99" s="104" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="97"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="106"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="98" t="s">
+      <c r="C100" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="99"/>
-      <c r="H100" s="100"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C60:H60"/>
@@ -8329,61 +8478,6 @@
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">
@@ -8422,10 +8516,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8491,7 +8585,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="94" t="s">
         <v>303</v>
       </c>
       <c r="B3" s="4"/>
@@ -8745,177 +8839,193 @@
       <c r="J19" s="5"/>
       <c r="K19" s="61"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A21" s="55" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A23" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C22" s="54" t="s">
+    <row r="24" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C24" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C23" s="15" t="str">
-        <f t="shared" ref="C23:H23" si="0">C2</f>
+    <row r="25" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C25" s="15" t="str">
+        <f t="shared" ref="C25:H25" si="0">C2</f>
         <v>Charles Stoll</v>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Daniel Makin</v>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Nick Kemner</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="54" t="s">
+      <c r="J25" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" thickBot="1">
-      <c r="C24" s="9">
-        <f>SUMIF(K3:K20,C23,J3:J20)</f>
+    <row r="26" spans="1:11" ht="13.5" thickBot="1">
+      <c r="C26" s="9">
+        <f>SUMIF(K3:K22,C25,J3:J22)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="9">
-        <f>SUMIF(K3:K20,D23,J3:J20)</f>
+      <c r="D26" s="9">
+        <f>SUMIF(K3:K22,D25,J3:J22)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="9">
-        <f>SUMIF(K3:K20,E23,J3:J20)</f>
+      <c r="E26" s="9">
+        <f>SUMIF(K3:K22,E25,J3:J22)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <f>SUMIF(K3:K20,F23,J3:J20)</f>
+      <c r="F26" s="9">
+        <f>SUMIF(K3:K22,F25,J3:J22)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUMIF(K3:K20,G23,J3:J20)</f>
+      <c r="G26" s="9">
+        <f>SUMIF(K3:K22,G25,J3:J22)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="1">
-        <f>SUMIF(K3:K20,H23,J3:J20)</f>
+      <c r="H26" s="1">
+        <f>SUMIF(K3:K22,H25,J3:J22)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="1">
-        <f>SUM(J3:J20)</f>
+      <c r="J26" s="1">
+        <f>SUM(J3:J22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="26" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A26" s="38" t="s">
+    <row r="27" spans="1:11" ht="13.5" thickBot="1"/>
+    <row r="28" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C28" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="25" t="str">
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="97"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="25" t="str">
         <f>A3</f>
         <v>As a developer, I want the game to generate pathing data faster.</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.5" thickBot="1">
+      <c r="B29" s="25"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="100"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="101"/>
+      <c r="C30" s="101" t="s">
+        <v>321</v>
+      </c>
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
       <c r="G30" s="102"/>
       <c r="H30" s="103"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="25" t="str">
+    <row r="31" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="25" t="str">
         <f>A4</f>
         <v>As a player, I want pathing to be more efficient and natural looking.</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="101"/>
+      <c r="C33" s="101" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" s="102"/>
       <c r="E33" s="102"/>
       <c r="F33" s="102"/>
@@ -8925,69 +9035,74 @@
     <row r="34" spans="1:11" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="101"/>
+      <c r="C34" s="101" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" s="102"/>
       <c r="E34" s="102"/>
       <c r="F34" s="102"/>
       <c r="G34" s="102"/>
       <c r="H34" s="103"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="13.5" thickBot="1">
       <c r="A35" s="25" t="str">
         <f>A5</f>
         <v>As a player, I want balanced unit stats.</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106"/>
-    </row>
-    <row r="36" spans="1:11" s="17" customFormat="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
-      <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
-      <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:11" s="17" customFormat="1">
-      <c r="A38" s="25" t="str">
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A36" s="25" t="str">
         <f>A6</f>
         <v>As a player, I want balanced unit ability durations and cooldowns.</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="106"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="100"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="25" t="str">
+        <f>A7</f>
+        <v>As a player, I want to see unit ability durations and cooldown times.</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="100"/>
+    </row>
+    <row r="38" spans="1:11" s="17" customFormat="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="103"/>
       <c r="J38"/>
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="101"/>
+      <c r="C39" s="101" t="s">
+        <v>326</v>
+      </c>
       <c r="D39" s="102"/>
       <c r="E39" s="102"/>
       <c r="F39" s="102"/>
@@ -8997,24 +9112,26 @@
       <c r="K39"/>
     </row>
     <row r="40" spans="1:11" s="17" customFormat="1">
-      <c r="A40" s="25" t="str">
-        <f>A7</f>
-        <v>As a player, I want to see unit ability durations and cooldown times.</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="106"/>
+      <c r="A40" s="21" t="str">
+        <f>A8</f>
+        <v>As a player, I want the button image for the ability to show the ability.</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="100"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" s="17" customFormat="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="101"/>
+    <row r="41" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="101" t="s">
+        <v>327</v>
+      </c>
       <c r="D41" s="102"/>
       <c r="E41" s="102"/>
       <c r="F41" s="102"/>
@@ -9024,21 +9141,26 @@
       <c r="K41"/>
     </row>
     <row r="42" spans="1:11" s="17" customFormat="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
+      <c r="A42" s="21" t="str">
+        <f>A9</f>
+        <v>As a player, I want inventory items to have unique images.</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="101"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="101" t="s">
+        <v>327</v>
+      </c>
       <c r="D43" s="102"/>
       <c r="E43" s="102"/>
       <c r="F43" s="102"/>
@@ -9048,24 +9170,26 @@
       <c r="K43"/>
     </row>
     <row r="44" spans="1:11" s="17" customFormat="1">
-      <c r="A44" s="21" t="str">
-        <f>A8</f>
-        <v>As a player, I want the button image for the ability to show the ability.</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="106"/>
+      <c r="A44" s="25" t="str">
+        <f>A10</f>
+        <v>As a player, I want to be able to create different profiles and save to them.</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" s="17" customFormat="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="101"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="101" t="s">
+        <v>329</v>
+      </c>
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -9074,10 +9198,12 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" s="17" customFormat="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="101"/>
+    <row r="46" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="101" t="s">
+        <v>330</v>
+      </c>
       <c r="D46" s="102"/>
       <c r="E46" s="102"/>
       <c r="F46" s="102"/>
@@ -9086,34 +9212,42 @@
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" s="17" customFormat="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="103"/>
+    <row r="47" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A47" s="21" t="str">
+        <f>A11</f>
+        <v>As a player, I want all of the units to have appropriate animation.</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
     <row r="48" spans="1:11" s="17" customFormat="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
+      <c r="A48" s="21" t="str">
+        <f>A12</f>
+        <v>As a player, I want visually interesting maps.</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="100"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
     <row r="49" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="101"/>
+      <c r="C49" s="101" t="s">
+        <v>331</v>
+      </c>
       <c r="D49" s="102"/>
       <c r="E49" s="102"/>
       <c r="F49" s="102"/>
@@ -9122,37 +9256,42 @@
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1">
+    <row r="50" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A50" s="21" t="str">
-        <f>A9</f>
-        <v>As a player, I want inventory items to have unique images.</v>
+        <f>A13</f>
+        <v>As a player, I want maps with interesting layouts.</v>
       </c>
       <c r="B50" s="21"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
     <row r="51" spans="1:11" s="17" customFormat="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103"/>
+      <c r="A51" s="21" t="str">
+        <f>A14</f>
+        <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="100"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" s="17" customFormat="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="101"/>
+    <row r="52" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="101" t="s">
+        <v>332</v>
+      </c>
       <c r="D52" s="102"/>
       <c r="E52" s="102"/>
       <c r="F52" s="102"/>
@@ -9161,34 +9300,42 @@
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" s="17" customFormat="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
+    <row r="53" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A53" s="21" t="str">
+        <f>A15</f>
+        <v>As a developer, I don't want to use drawline.</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="100"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
     <row r="54" spans="1:11" s="17" customFormat="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="103"/>
+      <c r="A54" s="21" t="str">
+        <f>A16</f>
+        <v>As a player, I want to face a boss at the end of every level.</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="100"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
     <row r="55" spans="1:11" s="17" customFormat="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="101"/>
+      <c r="C55" s="101" t="s">
+        <v>333</v>
+      </c>
       <c r="D55" s="102"/>
       <c r="E55" s="102"/>
       <c r="F55" s="102"/>
@@ -9197,10 +9344,12 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" s="17" customFormat="1">
+    <row r="56" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="101"/>
+      <c r="C56" s="101" t="s">
+        <v>334</v>
+      </c>
       <c r="D56" s="102"/>
       <c r="E56" s="102"/>
       <c r="F56" s="102"/>
@@ -9209,25 +9358,27 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
+    <row r="57" spans="1:11" s="17" customFormat="1">
+      <c r="A57" s="21" t="str">
+        <f>A17</f>
+        <v>As a player, I want to be able to install this game.</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="100"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:11" s="17" customFormat="1">
-      <c r="A58" s="25" t="str">
-        <f>A10</f>
-        <v>As a player, I want to be able to create different profiles and save to them.</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="104"/>
+    <row r="58" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A58" s="93"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="104" t="s">
+        <v>335</v>
+      </c>
       <c r="D58" s="105"/>
       <c r="E58" s="105"/>
       <c r="F58" s="105"/>
@@ -9236,49 +9387,57 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" s="17" customFormat="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="103"/>
+    <row r="59" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A59" s="21" t="str">
+        <f>A18</f>
+        <v>As a developer, I want to be able to run the game at 60 fps.</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="100"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" s="17" customFormat="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="103"/>
+    <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A60" s="21" t="str">
+        <f>A19</f>
+        <v>As a developer, I want my game to run in release mode.</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="100"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
+    <row r="61" spans="1:11" s="17" customFormat="1">
+      <c r="A61" s="21" t="str">
+        <f>A20</f>
+        <v>As a player, I want tooltips that display specific information.</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="100"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" s="17" customFormat="1">
-      <c r="A62" s="21" t="str">
-        <f>A11</f>
-        <v>As a player, I want all of the units to have appropriate animation.</v>
-      </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="104"/>
+    <row r="62" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A62" s="93"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="104" t="s">
+        <v>336</v>
+      </c>
       <c r="D62" s="105"/>
       <c r="E62" s="105"/>
       <c r="F62" s="105"/>
@@ -9288,506 +9447,323 @@
       <c r="K62"/>
     </row>
     <row r="63" spans="1:11" s="17" customFormat="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103"/>
+      <c r="A63" s="21" t="str">
+        <f>A22</f>
+        <v>As a developer, I want my game to meet TRC Requirements.</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="100"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" s="17" customFormat="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103"/>
+    <row r="64" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="126" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="128"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103"/>
-      <c r="J65"/>
-      <c r="K65"/>
+    <row r="65" spans="1:11" s="17" customFormat="1">
+      <c r="B65"/>
+      <c r="C65"/>
     </row>
     <row r="66" spans="1:11" s="17" customFormat="1">
-      <c r="A66" s="21" t="str">
-        <f>A12</f>
-        <v>As a player, I want visually interesting maps.</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="106"/>
-      <c r="J66"/>
-      <c r="K66"/>
-    </row>
-    <row r="67" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="103"/>
-      <c r="J67"/>
-      <c r="K67"/>
-    </row>
-    <row r="68" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A68" s="21" t="str">
-        <f>A13</f>
-        <v>As a player, I want maps with interesting layouts.</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="106"/>
-      <c r="J68"/>
-      <c r="K68"/>
-    </row>
-    <row r="69" spans="1:11" s="17" customFormat="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="103"/>
-      <c r="J69"/>
-      <c r="K69"/>
-    </row>
-    <row r="70" spans="1:11" s="17" customFormat="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="103"/>
+      <c r="B66"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:11" s="17" customFormat="1">
+      <c r="A67" s="19"/>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:11" s="17" customFormat="1">
+      <c r="A68" s="19"/>
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A69" s="19"/>
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A70" s="19"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="102"/>
-      <c r="H71" s="103"/>
+    <row r="71" spans="1:11" s="17" customFormat="1">
+      <c r="A71" s="19"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
     <row r="72" spans="1:11" s="17" customFormat="1">
-      <c r="A72" s="21" t="str">
-        <f>A14</f>
-        <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="106"/>
+      <c r="A72" s="19"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
     <row r="73" spans="1:11" s="17" customFormat="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="103"/>
+      <c r="A73" s="19"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
     <row r="74" spans="1:11" s="17" customFormat="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
+      <c r="A74" s="19"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="103"/>
+    <row r="75" spans="1:11" s="17" customFormat="1">
+      <c r="A75" s="19"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
     <row r="76" spans="1:11" s="17" customFormat="1">
-      <c r="A76" s="21" t="str">
-        <f>A15</f>
-        <v>As a developer, I don't want to use drawline.</v>
-      </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
+      <c r="A76" s="19"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
       <c r="J76"/>
       <c r="K76"/>
     </row>
     <row r="77" spans="1:11" s="17" customFormat="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="103"/>
+      <c r="A77" s="19"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
       <c r="J77"/>
       <c r="K77"/>
     </row>
     <row r="78" spans="1:11" s="17" customFormat="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="103"/>
+      <c r="A78" s="19"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="103"/>
+    <row r="79" spans="1:11" s="17" customFormat="1">
+      <c r="A79" s="19"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
       <c r="J79"/>
       <c r="K79"/>
     </row>
     <row r="80" spans="1:11" s="17" customFormat="1">
-      <c r="A80" s="21" t="str">
-        <f>A16</f>
-        <v>As a player, I want to face a boss at the end of every level.</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="106"/>
+      <c r="A80" s="19"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
       <c r="J80"/>
       <c r="K80"/>
     </row>
     <row r="81" spans="1:11" s="17" customFormat="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="102"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="103"/>
+      <c r="A81" s="19"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="103"/>
+    <row r="82" spans="1:11" s="17" customFormat="1">
+      <c r="A82" s="19"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
       <c r="J82"/>
       <c r="K82"/>
     </row>
     <row r="83" spans="1:11" s="17" customFormat="1">
-      <c r="A83" s="21" t="str">
-        <f>A17</f>
-        <v>As a player, I want to be able to install this game.</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="104"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="106"/>
+      <c r="A83" s="19"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
       <c r="J83"/>
       <c r="K83"/>
     </row>
     <row r="84" spans="1:11" s="17" customFormat="1">
-      <c r="A84" s="93"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="97"/>
+      <c r="A84" s="19"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
       <c r="J84"/>
       <c r="K84"/>
     </row>
     <row r="85" spans="1:11" s="17" customFormat="1">
-      <c r="A85" s="93"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="97"/>
+      <c r="A85" s="19"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A86" s="94"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="98"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99"/>
-      <c r="H86" s="100"/>
+    <row r="86" spans="1:11" s="17" customFormat="1">
+      <c r="A86" s="19"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="21" t="str">
-        <f>A18</f>
-        <v>As a developer, I want to be able to run the game at 60 fps.</v>
-      </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="106"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="102"/>
-      <c r="E88" s="102"/>
-      <c r="F88" s="102"/>
-      <c r="G88" s="102"/>
-      <c r="H88" s="103"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="102"/>
-      <c r="E89" s="102"/>
-      <c r="F89" s="102"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="103"/>
-    </row>
-    <row r="90" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="102"/>
-      <c r="E90" s="102"/>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="103"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="21" t="str">
-        <f>A19</f>
-        <v>As a developer, I want my game to run in release mode.</v>
-      </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="106"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="102"/>
-      <c r="G92" s="102"/>
-      <c r="H92" s="103"/>
-    </row>
-    <row r="93" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="103"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="21" t="str">
-        <f>A20</f>
-        <v>As a developer, I want my game to meet TRC Requirements.</v>
-      </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="104"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="106"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="93"/>
-      <c r="B95" s="93"/>
-      <c r="C95" s="95"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="97"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="93"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="96"/>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="97"/>
-    </row>
-    <row r="97" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A97" s="94"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="100"/>
+    <row r="87" spans="1:11" s="17" customFormat="1">
+      <c r="A87" s="19"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11" s="17" customFormat="1">
+      <c r="A88" s="19"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="J88"/>
+      <c r="K88"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C62:H62"/>
+  <mergeCells count="37">
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
     <mergeCell ref="C56:H56"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="C59:H59"/>
     <mergeCell ref="C60:H60"/>
     <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C62:H62"/>
   </mergeCells>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -9797,10 +9773,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J20 C3:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J22 C3:H22">
       <formula1>value_in_hours</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K22">
       <formula1>student_names</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="341">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>can the profile be accessed from the main menu?</t>
   </si>
   <si>
-    <t>does the map have more substance?</t>
-  </si>
-  <si>
     <t>does it use particles?</t>
   </si>
   <si>
@@ -1051,6 +1048,15 @@
   </si>
   <si>
     <t>As a player, I want to see a loading screen whenever the game is loading something.</t>
+  </si>
+  <si>
+    <t>is the third map a recreation of ROG Captain's Log?</t>
+  </si>
+  <si>
+    <t>is the first map remade with more detail and a different tile set?</t>
+  </si>
+  <si>
+    <t>is the second map remade with more detail and a different tile set?</t>
   </si>
 </sst>
 </file>
@@ -1625,31 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,13 +1652,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,13 +1697,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1714,9 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2946,14 +2952,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2962,48 +2968,48 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
@@ -3012,48 +3018,48 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="s">
@@ -3062,36 +3068,36 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25" t="s">
@@ -3100,24 +3106,24 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
@@ -3126,48 +3132,48 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="100"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="107"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="104"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="104"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="104"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="21" t="s">
@@ -3176,72 +3182,72 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="107"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="104"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="21" t="s">
@@ -3250,96 +3256,96 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="107"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="104"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="104"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="101" t="s">
+      <c r="C51" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="104"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="101" t="s">
+      <c r="C52" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="104"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="101" t="s">
+      <c r="C53" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="104"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
@@ -3348,48 +3354,48 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="98"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="100"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="101" t="s">
+      <c r="C56" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="104"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="104"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="101" t="s">
+      <c r="C58" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="104"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
@@ -3398,48 +3404,48 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="100"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="107"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="101" t="s">
+      <c r="C60" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="101" t="s">
+      <c r="C61" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="104"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="104"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="21" t="s">
@@ -3448,24 +3454,24 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="100"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="107"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="104"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" customHeight="1">
       <c r="A65" s="21" t="s">
@@ -3474,48 +3480,48 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="98"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="100"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="107"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="104"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="101" t="s">
+      <c r="C67" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="104"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="21" t="s">
@@ -3524,48 +3530,48 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="98"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="100"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="107"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="101" t="s">
+      <c r="C70" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="103"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="104"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="101" t="s">
+      <c r="C71" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="102"/>
-      <c r="H71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="104"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="104"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="21" t="s">
@@ -3574,48 +3580,48 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="98"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="100"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="107"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="104"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="101" t="s">
+      <c r="C75" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="104"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="101" t="s">
+      <c r="C76" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="104"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="21" t="s">
@@ -3624,36 +3630,36 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="98"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="100"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="107"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="101" t="s">
+      <c r="C78" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="104"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="101" t="s">
+      <c r="C79" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="103"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="104"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="21" t="s">
@@ -3662,59 +3668,92 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="98"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="100"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="107"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="104" t="s">
+      <c r="C81" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="106"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="98"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="104" t="s">
+      <c r="C82" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="106"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="98"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="107" t="s">
+      <c r="C83" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="109"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
@@ -3727,47 +3766,14 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -4619,14 +4625,14 @@
       <c r="B33" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
     </row>
     <row r="34" spans="1:8" s="40" customFormat="1">
       <c r="A34" s="69" t="s">
@@ -4635,134 +4641,134 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="112"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="116"/>
     </row>
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="113"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
       <c r="A37" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="112"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1">
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="114" t="s">
+      <c r="E38" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G38" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="H38" s="115" t="s">
+      <c r="H38" s="116" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="113" t="s">
+      <c r="C39" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="114" t="s">
+      <c r="E39" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="114" t="s">
+      <c r="G39" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="H39" s="115" t="s">
+      <c r="H39" s="116" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="F40" s="114" t="s">
+      <c r="F40" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="114" t="s">
+      <c r="G40" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="115" t="s">
+      <c r="H40" s="116" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="117" t="s">
+      <c r="E41" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="117" t="s">
+      <c r="F41" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="118" t="s">
+      <c r="H41" s="113" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4771,120 +4777,120 @@
         <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="112"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="113" t="s">
+      <c r="C43" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="114" t="s">
+      <c r="E43" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="114" t="s">
+      <c r="G43" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="115" t="s">
+      <c r="H43" s="116" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="114" t="s">
+      <c r="E44" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="G44" s="114" t="s">
+      <c r="G44" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="H44" s="115" t="s">
+      <c r="H44" s="116" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="114" t="s">
+      <c r="E45" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="114" t="s">
+      <c r="F45" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G45" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="115" t="s">
+      <c r="H45" s="116" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="68"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="114" t="s">
+      <c r="E46" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="F46" s="114" t="s">
+      <c r="F46" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="G46" s="114" t="s">
+      <c r="G46" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="H46" s="115" t="s">
+      <c r="H46" s="116" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="117" t="s">
+      <c r="D47" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="117" t="s">
+      <c r="E47" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="117" t="s">
+      <c r="F47" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="117" t="s">
+      <c r="G47" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="118" t="s">
+      <c r="H47" s="113" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4893,32 +4899,32 @@
         <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="112"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="116" t="s">
+      <c r="C49" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E49" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="118" t="s">
+      <c r="H49" s="113" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4927,114 +4933,114 @@
         <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="112"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="119"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="113" t="s">
+      <c r="C51" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
     </row>
     <row r="52" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
     </row>
     <row r="53" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="116"/>
     </row>
     <row r="54" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="113" t="s">
+      <c r="C54" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="115"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="116"/>
     </row>
     <row r="55" spans="1:8" s="40" customFormat="1">
       <c r="A55" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="112"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D56" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="114" t="s">
+      <c r="E56" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="114" t="s">
+      <c r="G56" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="H56" s="115" t="s">
+      <c r="H56" s="116" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="114" t="s">
+      <c r="E57" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="F57" s="114" t="s">
+      <c r="F57" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="114" t="s">
+      <c r="G57" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="115" t="s">
+      <c r="H57" s="116" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5043,142 +5049,142 @@
         <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="112"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="119"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D59" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="114" t="s">
+      <c r="E59" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="114" t="s">
+      <c r="F59" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="G59" s="114" t="s">
+      <c r="G59" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="H59" s="115" t="s">
+      <c r="H59" s="116" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="114" t="s">
+      <c r="E60" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="G60" s="114" t="s">
+      <c r="G60" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="115" t="s">
+      <c r="H60" s="116" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="68"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="113" t="s">
+      <c r="C61" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="114" t="s">
+      <c r="D61" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="114" t="s">
+      <c r="E61" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="114" t="s">
+      <c r="G61" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="115" t="s">
+      <c r="H61" s="116" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="113" t="s">
+      <c r="C62" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="114" t="s">
+      <c r="E62" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="114" t="s">
+      <c r="F62" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="G62" s="114" t="s">
+      <c r="G62" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="H62" s="115" t="s">
+      <c r="H62" s="116" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
-      <c r="C63" s="113" t="s">
+      <c r="C63" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="114" t="s">
+      <c r="E63" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="G63" s="114" t="s">
+      <c r="G63" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="H63" s="115" t="s">
+      <c r="H63" s="116" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="116" t="s">
+      <c r="C64" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="117" t="s">
+      <c r="G64" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="118" t="s">
+      <c r="H64" s="113" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5187,76 +5193,76 @@
         <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="68"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="113" t="s">
+      <c r="C66" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="114" t="s">
+      <c r="E66" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="H66" s="115" t="s">
+      <c r="H66" s="116" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="114" t="s">
+      <c r="E67" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="G67" s="114" t="s">
+      <c r="G67" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="H67" s="115" t="s">
+      <c r="H67" s="116" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="117" t="s">
+      <c r="D68" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="117" t="s">
+      <c r="E68" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="117" t="s">
+      <c r="F68" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="117" t="s">
+      <c r="G68" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="118" t="s">
+      <c r="H68" s="113" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5265,132 +5271,132 @@
         <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="112"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1">
       <c r="A70" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="112"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="113" t="s">
+      <c r="C71" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="E71" s="114" t="s">
+      <c r="E71" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="F71" s="114" t="s">
+      <c r="F71" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="G71" s="114" t="s">
+      <c r="G71" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="H71" s="115" t="s">
+      <c r="H71" s="116" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="113" t="s">
+      <c r="C72" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="114" t="s">
+      <c r="D72" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="114" t="s">
+      <c r="E72" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="114" t="s">
+      <c r="F72" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="114" t="s">
+      <c r="G72" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="H72" s="115" t="s">
+      <c r="H72" s="116" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="68"/>
       <c r="B73" s="68"/>
-      <c r="C73" s="113" t="s">
+      <c r="C73" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="E73" s="114" t="s">
+      <c r="E73" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="114" t="s">
+      <c r="F73" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="G73" s="114" t="s">
+      <c r="G73" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="H73" s="115" t="s">
+      <c r="H73" s="116" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
-      <c r="C74" s="113" t="s">
+      <c r="C74" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="114" t="s">
+      <c r="G74" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="115" t="s">
+      <c r="H74" s="116" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="116" t="s">
+      <c r="C75" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="117" t="s">
+      <c r="D75" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="117" t="s">
+      <c r="E75" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="117" t="s">
+      <c r="F75" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="117" t="s">
+      <c r="G75" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="H75" s="118" t="s">
+      <c r="H75" s="113" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5399,54 +5405,54 @@
         <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="112"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="119"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="113" t="s">
+      <c r="C77" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="114" t="s">
+      <c r="D77" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="E77" s="114" t="s">
+      <c r="E77" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="114" t="s">
+      <c r="G77" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="H77" s="115" t="s">
+      <c r="H77" s="116" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="116" t="s">
+      <c r="C78" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="117" t="s">
+      <c r="D78" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="117" t="s">
+      <c r="E78" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="117" t="s">
+      <c r="F78" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="117" t="s">
+      <c r="G78" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="118" t="s">
+      <c r="H78" s="113" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5455,120 +5461,120 @@
         <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="112"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="119"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
-      <c r="C80" s="113" t="s">
+      <c r="C80" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="E80" s="114" t="s">
+      <c r="E80" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="F80" s="114" t="s">
+      <c r="F80" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="G80" s="114" t="s">
+      <c r="G80" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="H80" s="115" t="s">
+      <c r="H80" s="116" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A81" s="68"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="113" t="s">
+      <c r="C81" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="114" t="s">
+      <c r="D81" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="114" t="s">
+      <c r="E81" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="F81" s="114" t="s">
+      <c r="F81" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="114" t="s">
+      <c r="G81" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="H81" s="115" t="s">
+      <c r="H81" s="116" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
-      <c r="C82" s="113" t="s">
+      <c r="C82" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="114" t="s">
+      <c r="E82" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="F82" s="114" t="s">
+      <c r="F82" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="G82" s="114" t="s">
+      <c r="G82" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="115" t="s">
+      <c r="H82" s="116" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
-      <c r="C83" s="113" t="s">
+      <c r="C83" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="114" t="s">
+      <c r="E83" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="114" t="s">
+      <c r="F83" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="114" t="s">
+      <c r="G83" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="H83" s="115" t="s">
+      <c r="H83" s="116" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="116" t="s">
+      <c r="C84" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="117" t="s">
+      <c r="D84" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="117" t="s">
+      <c r="E84" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="117" t="s">
+      <c r="F84" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="G84" s="117" t="s">
+      <c r="G84" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="118" t="s">
+      <c r="H84" s="113" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5577,98 +5583,98 @@
         <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="110"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="111"/>
-      <c r="H85" s="112"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="119"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="113" t="s">
+      <c r="C86" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="114" t="s">
+      <c r="F86" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="G86" s="114" t="s">
+      <c r="G86" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="H86" s="115" t="s">
+      <c r="H86" s="116" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="68"/>
       <c r="B87" s="68"/>
-      <c r="C87" s="113" t="s">
+      <c r="C87" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="114" t="s">
+      <c r="E87" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="114" t="s">
+      <c r="F87" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="G87" s="114" t="s">
+      <c r="G87" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="H87" s="115" t="s">
+      <c r="H87" s="116" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="68"/>
       <c r="B88" s="68"/>
-      <c r="C88" s="113" t="s">
+      <c r="C88" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="114" t="s">
+      <c r="D88" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="114" t="s">
+      <c r="E88" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="114" t="s">
+      <c r="F88" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="G88" s="114" t="s">
+      <c r="G88" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="115" t="s">
+      <c r="H88" s="116" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="116" t="s">
+      <c r="C89" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="117" t="s">
+      <c r="D89" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="117" t="s">
+      <c r="E89" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="117" t="s">
+      <c r="F89" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="117" t="s">
+      <c r="G89" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="H89" s="118" t="s">
+      <c r="H89" s="113" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5677,110 +5683,110 @@
         <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="110"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="111"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="111"/>
-      <c r="H90" s="112"/>
+      <c r="C90" s="117"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="119"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1">
       <c r="A91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="112"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="119"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="68"/>
       <c r="B92" s="68"/>
-      <c r="C92" s="113" t="s">
+      <c r="C92" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="D92" s="114" t="s">
+      <c r="D92" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="114" t="s">
+      <c r="E92" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="114" t="s">
+      <c r="F92" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="G92" s="114" t="s">
+      <c r="G92" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="H92" s="115" t="s">
+      <c r="H92" s="116" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="68"/>
       <c r="B93" s="68"/>
-      <c r="C93" s="113" t="s">
+      <c r="C93" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="D93" s="114" t="s">
+      <c r="D93" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="114" t="s">
+      <c r="E93" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="F93" s="114" t="s">
+      <c r="F93" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="G93" s="114" t="s">
+      <c r="G93" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="H93" s="115" t="s">
+      <c r="H93" s="116" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="68"/>
       <c r="B94" s="68"/>
-      <c r="C94" s="113" t="s">
+      <c r="C94" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="114" t="s">
+      <c r="D94" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="E94" s="114" t="s">
+      <c r="E94" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="F94" s="114" t="s">
+      <c r="F94" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="G94" s="114" t="s">
+      <c r="G94" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="H94" s="115" t="s">
+      <c r="H94" s="116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="116" t="s">
+      <c r="C95" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="117" t="s">
+      <c r="D95" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="117" t="s">
+      <c r="E95" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="117" t="s">
+      <c r="F95" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="117" t="s">
+      <c r="G95" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="118" t="s">
+      <c r="H95" s="113" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5789,142 +5795,142 @@
         <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="110"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="112"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="118"/>
+      <c r="E96" s="118"/>
+      <c r="F96" s="118"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="119"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="68"/>
       <c r="B97" s="68"/>
-      <c r="C97" s="113" t="s">
+      <c r="C97" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="114" t="s">
+      <c r="D97" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="114" t="s">
+      <c r="E97" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="114" t="s">
+      <c r="F97" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="G97" s="114" t="s">
+      <c r="G97" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="H97" s="115" t="s">
+      <c r="H97" s="116" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="113" t="s">
+      <c r="C98" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="114" t="s">
+      <c r="D98" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="E98" s="114" t="s">
+      <c r="E98" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="F98" s="114" t="s">
+      <c r="F98" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="G98" s="114" t="s">
+      <c r="G98" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="H98" s="115" t="s">
+      <c r="H98" s="116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="68"/>
       <c r="B99" s="68"/>
-      <c r="C99" s="113" t="s">
+      <c r="C99" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="114" t="s">
+      <c r="D99" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="E99" s="114" t="s">
+      <c r="E99" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="F99" s="114" t="s">
+      <c r="F99" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="G99" s="114" t="s">
+      <c r="G99" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="H99" s="115" t="s">
+      <c r="H99" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="68"/>
       <c r="B100" s="68"/>
-      <c r="C100" s="113" t="s">
+      <c r="C100" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="114" t="s">
+      <c r="D100" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="E100" s="114" t="s">
+      <c r="E100" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="F100" s="114" t="s">
+      <c r="F100" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="G100" s="114" t="s">
+      <c r="G100" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H100" s="115" t="s">
+      <c r="H100" s="116" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="68"/>
       <c r="B101" s="68"/>
-      <c r="C101" s="113" t="s">
+      <c r="C101" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="D101" s="114" t="s">
+      <c r="D101" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="114" t="s">
+      <c r="E101" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="F101" s="114" t="s">
+      <c r="F101" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="G101" s="114" t="s">
+      <c r="G101" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="H101" s="115" t="s">
+      <c r="H101" s="116" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="116" t="s">
+      <c r="C102" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="117" t="s">
+      <c r="D102" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="117" t="s">
+      <c r="E102" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="117" t="s">
+      <c r="F102" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="G102" s="117" t="s">
+      <c r="G102" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="118" t="s">
+      <c r="H102" s="113" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5933,76 +5939,76 @@
         <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="112"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="118"/>
+      <c r="H103" s="119"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="68"/>
       <c r="B104" s="68"/>
-      <c r="C104" s="113" t="s">
+      <c r="C104" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D104" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E104" s="114" t="s">
+      <c r="E104" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="F104" s="114" t="s">
+      <c r="F104" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="114" t="s">
+      <c r="G104" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="115" t="s">
+      <c r="H104" s="116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="68"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="113" t="s">
+      <c r="C105" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="114" t="s">
+      <c r="D105" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="114" t="s">
+      <c r="E105" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="F105" s="114" t="s">
+      <c r="F105" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="G105" s="114" t="s">
+      <c r="G105" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="H105" s="115" t="s">
+      <c r="H105" s="116" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="116" t="s">
+      <c r="C106" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="117" t="s">
+      <c r="D106" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="117" t="s">
+      <c r="E106" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="117" t="s">
+      <c r="F106" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="117" t="s">
+      <c r="G106" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="H106" s="118" t="s">
+      <c r="H106" s="113" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6011,98 +6017,98 @@
         <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="111"/>
-      <c r="E107" s="111"/>
-      <c r="F107" s="111"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="112"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="118"/>
+      <c r="F107" s="118"/>
+      <c r="G107" s="118"/>
+      <c r="H107" s="119"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="68"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="113" t="s">
+      <c r="C108" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="114" t="s">
+      <c r="D108" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="114" t="s">
+      <c r="E108" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="F108" s="114" t="s">
+      <c r="F108" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="G108" s="114" t="s">
+      <c r="G108" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="H108" s="115" t="s">
+      <c r="H108" s="116" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="68"/>
       <c r="B109" s="68"/>
-      <c r="C109" s="113" t="s">
+      <c r="C109" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="114" t="s">
+      <c r="D109" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="114" t="s">
+      <c r="E109" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="114" t="s">
+      <c r="F109" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="114" t="s">
+      <c r="G109" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="H109" s="115" t="s">
+      <c r="H109" s="116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A110" s="68"/>
       <c r="B110" s="68"/>
-      <c r="C110" s="113" t="s">
+      <c r="C110" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="D110" s="114" t="s">
+      <c r="D110" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="E110" s="114" t="s">
+      <c r="E110" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="F110" s="114" t="s">
+      <c r="F110" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="G110" s="114" t="s">
+      <c r="G110" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="H110" s="115" t="s">
+      <c r="H110" s="116" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="116" t="s">
+      <c r="C111" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="117" t="s">
+      <c r="D111" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="117" t="s">
+      <c r="E111" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="117" t="s">
+      <c r="F111" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="117" t="s">
+      <c r="G111" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="118" t="s">
+      <c r="H111" s="113" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6111,120 +6117,120 @@
         <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="110"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="112"/>
+      <c r="C112" s="117"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
+      <c r="F112" s="118"/>
+      <c r="G112" s="118"/>
+      <c r="H112" s="119"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="68"/>
       <c r="B113" s="68"/>
-      <c r="C113" s="113" t="s">
+      <c r="C113" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="114" t="s">
+      <c r="D113" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="E113" s="114" t="s">
+      <c r="E113" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="F113" s="114" t="s">
+      <c r="F113" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="114" t="s">
+      <c r="G113" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="H113" s="115" t="s">
+      <c r="H113" s="116" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="68"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="113" t="s">
+      <c r="C114" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="D114" s="114" t="s">
+      <c r="D114" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="G114" s="114" t="s">
+      <c r="G114" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="H114" s="115" t="s">
+      <c r="H114" s="116" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="68"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="113" t="s">
+      <c r="C115" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="114" t="s">
+      <c r="D115" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="E115" s="114" t="s">
+      <c r="E115" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="F115" s="114" t="s">
+      <c r="F115" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="G115" s="114" t="s">
+      <c r="G115" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="H115" s="115" t="s">
+      <c r="H115" s="116" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="68"/>
       <c r="B116" s="68"/>
-      <c r="C116" s="113" t="s">
+      <c r="C116" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="114" t="s">
+      <c r="D116" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="E116" s="114" t="s">
+      <c r="E116" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F116" s="114" t="s">
+      <c r="F116" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="G116" s="114" t="s">
+      <c r="G116" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="H116" s="115" t="s">
+      <c r="H116" s="116" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="116" t="s">
+      <c r="C117" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="117" t="s">
+      <c r="D117" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="117" t="s">
+      <c r="E117" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="117" t="s">
+      <c r="F117" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G117" s="117" t="s">
+      <c r="G117" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="H117" s="118" t="s">
+      <c r="H117" s="113" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6233,54 +6239,54 @@
         <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="110"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="111"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="112"/>
+      <c r="C118" s="117"/>
+      <c r="D118" s="118"/>
+      <c r="E118" s="118"/>
+      <c r="F118" s="118"/>
+      <c r="G118" s="118"/>
+      <c r="H118" s="119"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="68"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="113" t="s">
+      <c r="C119" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D119" s="114" t="s">
+      <c r="D119" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="E119" s="114" t="s">
+      <c r="E119" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="F119" s="114" t="s">
+      <c r="F119" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="G119" s="114" t="s">
+      <c r="G119" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="H119" s="115" t="s">
+      <c r="H119" s="116" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="116" t="s">
+      <c r="C120" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="117" t="s">
+      <c r="D120" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="117" t="s">
+      <c r="E120" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="117" t="s">
+      <c r="F120" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="117" t="s">
+      <c r="G120" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="118" t="s">
+      <c r="H120" s="113" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6289,32 +6295,32 @@
         <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="110"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="111"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="112"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="118"/>
+      <c r="F121" s="118"/>
+      <c r="G121" s="118"/>
+      <c r="H121" s="119"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A122" s="68"/>
       <c r="B122" s="68"/>
-      <c r="C122" s="113" t="s">
+      <c r="C122" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D122" s="114" t="s">
+      <c r="D122" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E122" s="114" t="s">
+      <c r="E122" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="F122" s="114" t="s">
+      <c r="F122" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="G122" s="114" t="s">
+      <c r="G122" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="H122" s="115" t="s">
+      <c r="H122" s="116" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6323,32 +6329,32 @@
         <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="110"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="111"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="112"/>
+      <c r="C123" s="117"/>
+      <c r="D123" s="118"/>
+      <c r="E123" s="118"/>
+      <c r="F123" s="118"/>
+      <c r="G123" s="118"/>
+      <c r="H123" s="119"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="68"/>
       <c r="B124" s="68"/>
-      <c r="C124" s="113" t="s">
+      <c r="C124" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="D124" s="114" t="s">
+      <c r="D124" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E124" s="114" t="s">
+      <c r="E124" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="114" t="s">
+      <c r="F124" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="G124" s="114" t="s">
+      <c r="G124" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="H124" s="115" t="s">
+      <c r="H124" s="116" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6357,120 +6363,120 @@
         <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="110"/>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="112"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="118"/>
+      <c r="G125" s="118"/>
+      <c r="H125" s="119"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A126" s="68"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="113" t="s">
+      <c r="C126" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="114" t="s">
+      <c r="D126" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="F126" s="114" t="s">
+      <c r="F126" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="G126" s="114" t="s">
+      <c r="G126" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="H126" s="115" t="s">
+      <c r="H126" s="116" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A127" s="68"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="113" t="s">
+      <c r="C127" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="D127" s="114" t="s">
+      <c r="D127" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="114" t="s">
+      <c r="E127" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="F127" s="114" t="s">
+      <c r="F127" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="G127" s="114" t="s">
+      <c r="G127" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="H127" s="115" t="s">
+      <c r="H127" s="116" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A128" s="68"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="113" t="s">
+      <c r="C128" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="D128" s="114" t="s">
+      <c r="D128" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="114" t="s">
+      <c r="E128" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="F128" s="114" t="s">
+      <c r="F128" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="G128" s="114" t="s">
+      <c r="G128" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="H128" s="115" t="s">
+      <c r="H128" s="116" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="68"/>
       <c r="B129" s="68"/>
-      <c r="C129" s="113" t="s">
+      <c r="C129" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="114" t="s">
+      <c r="D129" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="E129" s="114" t="s">
+      <c r="E129" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="F129" s="114" t="s">
+      <c r="F129" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="G129" s="114" t="s">
+      <c r="G129" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="H129" s="115" t="s">
+      <c r="H129" s="116" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="116" t="s">
+      <c r="C130" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="117" t="s">
+      <c r="D130" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="117" t="s">
+      <c r="E130" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="117" t="s">
+      <c r="F130" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="117" t="s">
+      <c r="G130" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="H130" s="118" t="s">
+      <c r="H130" s="113" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6479,98 +6485,98 @@
         <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="110"/>
-      <c r="D131" s="111"/>
-      <c r="E131" s="111"/>
-      <c r="F131" s="111"/>
-      <c r="G131" s="111"/>
-      <c r="H131" s="112"/>
+      <c r="C131" s="117"/>
+      <c r="D131" s="118"/>
+      <c r="E131" s="118"/>
+      <c r="F131" s="118"/>
+      <c r="G131" s="118"/>
+      <c r="H131" s="119"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="68"/>
       <c r="B132" s="68"/>
-      <c r="C132" s="113" t="s">
+      <c r="C132" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="114" t="s">
+      <c r="D132" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="F132" s="114" t="s">
+      <c r="F132" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="G132" s="114" t="s">
+      <c r="G132" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="H132" s="115" t="s">
+      <c r="H132" s="116" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A133" s="68"/>
       <c r="B133" s="68"/>
-      <c r="C133" s="113" t="s">
+      <c r="C133" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="114" t="s">
+      <c r="D133" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="114" t="s">
+      <c r="E133" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="F133" s="114" t="s">
+      <c r="F133" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="G133" s="114" t="s">
+      <c r="G133" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="H133" s="115" t="s">
+      <c r="H133" s="116" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A134" s="68"/>
       <c r="B134" s="68"/>
-      <c r="C134" s="113" t="s">
+      <c r="C134" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="D134" s="114" t="s">
+      <c r="D134" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="E134" s="114" t="s">
+      <c r="E134" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="F134" s="114" t="s">
+      <c r="F134" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="G134" s="114" t="s">
+      <c r="G134" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="H134" s="115" t="s">
+      <c r="H134" s="116" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="116" t="s">
+      <c r="C135" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="117" t="s">
+      <c r="D135" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="117" t="s">
+      <c r="E135" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="117" t="s">
+      <c r="F135" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="117" t="s">
+      <c r="G135" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="118" t="s">
+      <c r="H135" s="113" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6579,103 +6585,187 @@
         <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="110"/>
-      <c r="D136" s="111"/>
-      <c r="E136" s="111"/>
-      <c r="F136" s="111"/>
-      <c r="G136" s="111"/>
-      <c r="H136" s="112"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="118"/>
+      <c r="E136" s="118"/>
+      <c r="F136" s="118"/>
+      <c r="G136" s="118"/>
+      <c r="H136" s="119"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A137" s="68"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="113" t="s">
+      <c r="C137" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="114" t="s">
+      <c r="D137" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="E137" s="114" t="s">
+      <c r="E137" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="F137" s="114" t="s">
+      <c r="F137" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="G137" s="114" t="s">
+      <c r="G137" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="H137" s="115" t="s">
+      <c r="H137" s="116" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="68"/>
       <c r="B138" s="68"/>
-      <c r="C138" s="113" t="s">
+      <c r="C138" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="114" t="s">
+      <c r="D138" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="E138" s="114" t="s">
+      <c r="E138" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="F138" s="114" t="s">
+      <c r="F138" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="114" t="s">
+      <c r="G138" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="H138" s="115" t="s">
+      <c r="H138" s="116" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A139" s="68"/>
       <c r="B139" s="68"/>
-      <c r="C139" s="113" t="s">
+      <c r="C139" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="D139" s="114" t="s">
+      <c r="D139" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="E139" s="114" t="s">
+      <c r="E139" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="F139" s="114" t="s">
+      <c r="F139" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="G139" s="114" t="s">
+      <c r="G139" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="H139" s="115" t="s">
+      <c r="H139" s="116" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="116" t="s">
+      <c r="C140" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D140" s="117" t="s">
+      <c r="D140" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="117" t="s">
+      <c r="E140" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="F140" s="117" t="s">
+      <c r="F140" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="G140" s="117" t="s">
+      <c r="G140" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="118" t="s">
+      <c r="H140" s="113" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="C135:H135"/>
@@ -6700,90 +6790,6 @@
     <mergeCell ref="C55:H55"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6794,7 +6800,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6803,7 +6809,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -7534,14 +7540,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="97"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="str">
@@ -7549,48 +7555,48 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1">
       <c r="A35" s="21" t="str">
@@ -7598,12 +7604,12 @@
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="str">
@@ -7611,96 +7617,96 @@
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="100"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="107"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="104"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="125"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="122" t="s">
+      <c r="C42" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
     </row>
     <row r="43" spans="1:8" ht="13.5" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="125"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="25" t="str">
@@ -7708,60 +7714,60 @@
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="100"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="107"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="102" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="101" t="s">
+      <c r="C47" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:8" ht="13.5" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="104"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="25" t="str">
@@ -7769,48 +7775,48 @@
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="100"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="104"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="101" t="s">
+      <c r="C51" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="104"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="101" t="s">
+      <c r="C52" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="104"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="21" t="str">
@@ -7818,24 +7824,24 @@
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="100"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="107"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
@@ -7843,24 +7849,24 @@
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="100"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="101" t="s">
+      <c r="C56" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="104"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="25" t="str">
@@ -7868,60 +7874,60 @@
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="100"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="107"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="101" t="s">
+      <c r="C58" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="104"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="101" t="s">
+      <c r="C59" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="104"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="101" t="s">
+      <c r="C60" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="104"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="101" t="s">
+      <c r="C61" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="104"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="21" t="str">
@@ -7929,48 +7935,48 @@
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="100"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="107"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="101" t="s">
+      <c r="C63" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="104"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="104"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="101" t="s">
+      <c r="C65" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="104"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1">
       <c r="A66" s="21" t="str">
@@ -7978,12 +7984,12 @@
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="100"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="107"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="21" t="str">
@@ -7991,24 +7997,24 @@
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="100"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="107"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="104"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" thickBot="1">
       <c r="A69" s="21" t="str">
@@ -8016,12 +8022,12 @@
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="100"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="107"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="21" t="str">
@@ -8029,60 +8035,60 @@
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="100"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="107"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="101" t="s">
+      <c r="C71" s="102" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="102"/>
-      <c r="H71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="104"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="104"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="101" t="s">
+      <c r="C73" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="104"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="104"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="21" t="str">
@@ -8090,36 +8096,36 @@
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="100"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="107"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="101" t="s">
+      <c r="C76" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="104"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" thickBot="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="101" t="s">
+      <c r="C77" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="104"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1">
       <c r="A78" s="21" t="str">
@@ -8127,12 +8133,12 @@
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="100"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="107"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="21" t="str">
@@ -8140,48 +8146,48 @@
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="100"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="106"/>
+      <c r="E79" s="106"/>
+      <c r="F79" s="106"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="107"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="101" t="s">
+      <c r="C80" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="102"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
+      <c r="H80" s="104"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="101" t="s">
+      <c r="C81" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="102"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="104"/>
     </row>
     <row r="82" spans="1:8" ht="13.5" thickBot="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="101" t="s">
+      <c r="C82" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="103"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="104"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="21" t="str">
@@ -8189,12 +8195,12 @@
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="100"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="107"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="21" t="str">
@@ -8202,48 +8208,48 @@
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="100"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="106"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="107"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="101" t="s">
+      <c r="C85" s="102" t="s">
         <v>290</v>
       </c>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="103"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="103"/>
+      <c r="H85" s="104"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="101" t="s">
+      <c r="C86" s="102" t="s">
         <v>291</v>
       </c>
-      <c r="D86" s="102"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="103"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="103"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="103"/>
+      <c r="H86" s="104"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="101" t="s">
+      <c r="C87" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="D87" s="102"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102"/>
-      <c r="H87" s="103"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="103"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="104"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="21" t="str">
@@ -8251,36 +8257,36 @@
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="100"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="106"/>
+      <c r="F88" s="106"/>
+      <c r="G88" s="106"/>
+      <c r="H88" s="107"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="101" t="s">
+      <c r="C89" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="D89" s="102"/>
-      <c r="E89" s="102"/>
-      <c r="F89" s="102"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="103"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="103"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="104"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="101" t="s">
+      <c r="C90" s="102" t="s">
         <v>294</v>
       </c>
-      <c r="D90" s="102"/>
-      <c r="E90" s="102"/>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="103"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="103"/>
+      <c r="H90" s="104"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
@@ -8288,36 +8294,36 @@
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="98"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="100"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="106"/>
+      <c r="H91" s="107"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="101" t="s">
+      <c r="C92" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="102"/>
-      <c r="G92" s="102"/>
-      <c r="H92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="104"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="101" t="s">
+      <c r="C93" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="103"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="104"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="21" t="str">
@@ -8325,36 +8331,36 @@
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="100"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106"/>
+      <c r="H94" s="107"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="101" t="s">
+      <c r="C95" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="D95" s="102"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="102"/>
-      <c r="G95" s="102"/>
-      <c r="H95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="103"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="104"/>
     </row>
     <row r="96" spans="1:8" ht="13.5" thickBot="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="101" t="s">
+      <c r="C96" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="102"/>
-      <c r="G96" s="102"/>
-      <c r="H96" s="103"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="104"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="21" t="str">
@@ -8362,69 +8368,88 @@
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="100"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="107"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="104" t="s">
+      <c r="C98" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="106"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="98"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="105"/>
-      <c r="E99" s="105"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="106"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="98"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="107" t="s">
+      <c r="C100" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="108"/>
-      <c r="E100" s="108"/>
-      <c r="F100" s="108"/>
-      <c r="G100" s="108"/>
-      <c r="H100" s="109"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="100"/>
+      <c r="F100" s="100"/>
+      <c r="G100" s="100"/>
+      <c r="H100" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
@@ -8441,43 +8466,24 @@
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">
@@ -8516,10 +8522,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8856,7 +8862,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -8961,14 +8967,14 @@
       <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="25" t="str">
@@ -8976,36 +8982,36 @@
         <v>As a developer, I want the game to generate pathing data faster.</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="100"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="102" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="str">
@@ -9013,36 +9019,36 @@
         <v>As a player, I want pathing to be more efficient and natural looking.</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="104"/>
     </row>
     <row r="35" spans="1:11" ht="13.5" thickBot="1">
       <c r="A35" s="25" t="str">
@@ -9050,12 +9056,12 @@
         <v>As a player, I want balanced unit stats.</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
     </row>
     <row r="36" spans="1:11" ht="13.5" thickBot="1">
       <c r="A36" s="25" t="str">
@@ -9063,12 +9069,12 @@
         <v>As a player, I want balanced unit ability durations and cooldowns.</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="100"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="107"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="25" t="str">
@@ -9076,38 +9082,38 @@
         <v>As a player, I want to see unit ability durations and cooldown times.</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="100"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="107"/>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="102" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="104"/>
       <c r="J38"/>
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="102" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="104"/>
       <c r="J39"/>
       <c r="K39"/>
     </row>
@@ -9117,26 +9123,26 @@
         <v>As a player, I want the button image for the ability to show the ability.</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="100"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="107"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="101" t="s">
+      <c r="C41" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="104"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
@@ -9146,26 +9152,26 @@
         <v>As a player, I want inventory items to have unique images.</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="107"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="104"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
@@ -9175,40 +9181,40 @@
         <v>As a player, I want to be able to create different profiles and save to them.</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="100"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="107"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" s="17" customFormat="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="102" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="104"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
@@ -9218,12 +9224,12 @@
         <v>As a player, I want all of the units to have appropriate animation.</v>
       </c>
       <c r="B47" s="21"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="107"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
@@ -9233,293 +9239,297 @@
         <v>As a player, I want visually interesting maps.</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="100"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="49" spans="1:11" s="17" customFormat="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="101" t="s">
-        <v>331</v>
-      </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
+      <c r="C49" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="104"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A50" s="21" t="str">
+    <row r="50" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="104"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="104"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A52" s="21" t="str">
         <f>A13</f>
         <v>As a player, I want maps with interesting layouts.</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="100"/>
-      <c r="J50"/>
-      <c r="K50"/>
-    </row>
-    <row r="51" spans="1:11" s="17" customFormat="1">
-      <c r="A51" s="21" t="str">
+      <c r="B52" s="21"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="107"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" s="17" customFormat="1">
+      <c r="A53" s="21" t="str">
         <f>A14</f>
         <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="100"/>
-      <c r="J51"/>
-      <c r="K51"/>
-    </row>
-    <row r="52" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="101" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
-      <c r="J52"/>
-      <c r="K52"/>
-    </row>
-    <row r="53" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A53" s="21" t="str">
+      <c r="B53" s="21"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="107"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="102" t="s">
+        <v>331</v>
+      </c>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A55" s="21" t="str">
         <f>A15</f>
         <v>As a developer, I don't want to use drawline.</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="100"/>
-      <c r="J53"/>
-      <c r="K53"/>
-    </row>
-    <row r="54" spans="1:11" s="17" customFormat="1">
-      <c r="A54" s="21" t="str">
+      <c r="B55" s="21"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="107"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" s="17" customFormat="1">
+      <c r="A56" s="21" t="str">
         <f>A16</f>
         <v>As a player, I want to face a boss at the end of every level.</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="100"/>
-      <c r="J54"/>
-      <c r="K54"/>
-    </row>
-    <row r="55" spans="1:11" s="17" customFormat="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="103"/>
-      <c r="J55"/>
-      <c r="K55"/>
-    </row>
-    <row r="56" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="101" t="s">
-        <v>334</v>
-      </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="107"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
     <row r="57" spans="1:11" s="17" customFormat="1">
-      <c r="A57" s="21" t="str">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="104"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="103"/>
+      <c r="H58" s="104"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" s="17" customFormat="1">
+      <c r="A59" s="21" t="str">
         <f>A17</f>
         <v>As a player, I want to be able to install this game.</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="100"/>
-      <c r="J57"/>
-      <c r="K57"/>
-    </row>
-    <row r="58" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A58" s="93"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="106"/>
-      <c r="J58"/>
-      <c r="K58"/>
-    </row>
-    <row r="59" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A59" s="21" t="str">
+      <c r="B59" s="21"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="107"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A60" s="93"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="98"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A61" s="21" t="str">
         <f>A18</f>
         <v>As a developer, I want to be able to run the game at 60 fps.</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="100"/>
-      <c r="J59"/>
-      <c r="K59"/>
-    </row>
-    <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A60" s="21" t="str">
+      <c r="B61" s="21"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="107"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A62" s="21" t="str">
         <f>A19</f>
         <v>As a developer, I want my game to run in release mode.</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="100"/>
-      <c r="J60"/>
-      <c r="K60"/>
-    </row>
-    <row r="61" spans="1:11" s="17" customFormat="1">
-      <c r="A61" s="21" t="str">
+      <c r="B62" s="21"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="107"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" s="17" customFormat="1">
+      <c r="A63" s="21" t="str">
         <f>A20</f>
         <v>As a player, I want tooltips that display specific information.</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="100"/>
-      <c r="J61"/>
-      <c r="K61"/>
-    </row>
-    <row r="62" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="104" t="s">
-        <v>336</v>
-      </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="106"/>
-      <c r="J62"/>
-      <c r="K62"/>
-    </row>
-    <row r="63" spans="1:11" s="17" customFormat="1">
-      <c r="A63" s="21" t="str">
+      <c r="B63" s="21"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="107"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A64" s="93"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="98"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" s="17" customFormat="1">
+      <c r="A65" s="21" t="str">
         <f>A22</f>
         <v>As a developer, I want my game to meet TRC Requirements.</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="100"/>
-      <c r="J63"/>
-      <c r="K63"/>
-    </row>
-    <row r="64" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="125"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="126" t="s">
-        <v>337</v>
-      </c>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="128"/>
-      <c r="J64"/>
-      <c r="K64"/>
-    </row>
-    <row r="65" spans="1:11" s="17" customFormat="1">
-      <c r="B65"/>
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="1:11" s="17" customFormat="1">
-      <c r="B66"/>
-      <c r="C66"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="107"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A66" s="95"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="128"/>
+      <c r="J66"/>
+      <c r="K66"/>
     </row>
     <row r="67" spans="1:11" s="17" customFormat="1">
-      <c r="A67" s="19"/>
       <c r="B67"/>
+      <c r="C67"/>
     </row>
     <row r="68" spans="1:11" s="17" customFormat="1">
-      <c r="A68" s="19"/>
       <c r="B68"/>
-    </row>
-    <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:11" s="17" customFormat="1">
       <c r="A69" s="19"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
+    <row r="70" spans="1:11" s="17" customFormat="1">
       <c r="A70" s="19"/>
       <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-    </row>
-    <row r="71" spans="1:11" s="17" customFormat="1">
+    </row>
+    <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="19"/>
       <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-    </row>
-    <row r="72" spans="1:11" s="17" customFormat="1">
+    </row>
+    <row r="72" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
       <c r="A72" s="19"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -9723,10 +9733,57 @@
       <c r="J88"/>
       <c r="K88"/>
     </row>
+    <row r="89" spans="1:11" s="17" customFormat="1">
+      <c r="A89" s="19"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" s="17" customFormat="1">
+      <c r="A90" s="19"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
@@ -9741,27 +9798,6 @@
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
   </mergeCells>
   <conditionalFormatting sqref="A29">
     <cfRule type="dataBar" priority="1">

--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="350">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -1057,6 +1057,33 @@
   </si>
   <si>
     <t>is the second map remade with more detail and a different tile set?</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>does alt + tab pause game?</t>
+  </si>
+  <si>
+    <t>does the game save/load in binary?</t>
+  </si>
+  <si>
+    <t>does the game have 3 save slots?</t>
+  </si>
+  <si>
+    <t>is saving available from an in game menu?</t>
+  </si>
+  <si>
+    <t>does the main menu include an option to show a series of screens that tell the player what his/her main objectives are, and how to use the controls?</t>
+  </si>
+  <si>
+    <t>does menu options include a credits option?</t>
+  </si>
+  <si>
+    <t>does the game have music in all portions?</t>
+  </si>
+  <si>
+    <t>do all actions have a sound effect associated with them?</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1486,7 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1631,7 +1658,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1652,40 +1712,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1697,13 +1730,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2952,14 +2985,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2968,48 +3001,48 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
@@ -3018,48 +3051,48 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="107"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="s">
@@ -3068,36 +3101,36 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25" t="s">
@@ -3106,24 +3139,24 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="107"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
@@ -3132,48 +3165,48 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="107"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="104"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="104"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="106"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="21" t="s">
@@ -3182,72 +3215,72 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="107"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="106"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="106"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="21" t="s">
@@ -3256,96 +3289,96 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="107"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="103"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="104"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="106"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="102" t="s">
+      <c r="C53" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="104"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="106"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="106"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
@@ -3354,48 +3387,48 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="107"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="103"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="104"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="106"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="104"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="106"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="104"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="106"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
@@ -3404,48 +3437,48 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="107"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="103"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="102" t="s">
+      <c r="C60" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="104"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="106"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="102" t="s">
+      <c r="C61" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="104"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="106"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="102" t="s">
+      <c r="C62" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="104"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="106"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="21" t="s">
@@ -3454,24 +3487,24 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="105"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="107"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="103"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="102" t="s">
+      <c r="C64" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="104"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="106"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" customHeight="1">
       <c r="A65" s="21" t="s">
@@ -3480,48 +3513,48 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="107"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="103"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="102" t="s">
+      <c r="C66" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="106"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="102" t="s">
+      <c r="C67" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="104"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="106"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="106"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="21" t="s">
@@ -3530,48 +3563,48 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="105"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="107"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="102" t="s">
+      <c r="C70" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="104"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="106"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="102" t="s">
+      <c r="C71" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="104"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="106"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="102" t="s">
+      <c r="C72" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="104"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="106"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="21" t="s">
@@ -3580,48 +3613,48 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="105"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="107"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="103"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="102" t="s">
+      <c r="C74" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="104"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="106"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="104"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="106"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="102" t="s">
+      <c r="C76" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="104"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="106"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="21" t="s">
@@ -3630,36 +3663,36 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="107"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="103"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="104"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="106"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="102" t="s">
+      <c r="C79" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="104"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="106"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="21" t="s">
@@ -3668,56 +3701,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="105"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="107"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="103"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="96" t="s">
+      <c r="C81" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="98"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="109"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="96" t="s">
+      <c r="C82" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="98"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="109"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="99" t="s">
+      <c r="C83" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="101"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -3730,50 +3802,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -4625,14 +4658,14 @@
       <c r="B33" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="124"/>
     </row>
     <row r="34" spans="1:8" s="40" customFormat="1">
       <c r="A34" s="69" t="s">
@@ -4641,134 +4674,134 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
     </row>
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="121"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
       <c r="A37" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="115"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1">
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="114" t="s">
+      <c r="C38" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="115" t="s">
+      <c r="E38" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="G38" s="115" t="s">
+      <c r="G38" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="H38" s="116" t="s">
+      <c r="H38" s="118" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="115" t="s">
+      <c r="D39" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="115" t="s">
+      <c r="E39" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="115" t="s">
+      <c r="G39" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="H39" s="116" t="s">
+      <c r="H39" s="118" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="115" t="s">
+      <c r="E40" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="F40" s="115" t="s">
+      <c r="F40" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="115" t="s">
+      <c r="G40" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="116" t="s">
+      <c r="H40" s="118" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="111" t="s">
+      <c r="C41" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="112" t="s">
+      <c r="G41" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="113" t="s">
+      <c r="H41" s="121" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4777,120 +4810,120 @@
         <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="115"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="115" t="s">
+      <c r="E43" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="115" t="s">
+      <c r="F43" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="115" t="s">
+      <c r="G43" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="116" t="s">
+      <c r="H43" s="118" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="116" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="H44" s="116" t="s">
+      <c r="H44" s="118" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="115" t="s">
+      <c r="F45" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="115" t="s">
+      <c r="G45" s="117" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="116" t="s">
+      <c r="H45" s="118" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="68"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="115" t="s">
+      <c r="E46" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="F46" s="115" t="s">
+      <c r="F46" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="G46" s="115" t="s">
+      <c r="G46" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="H46" s="116" t="s">
+      <c r="H46" s="118" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="112" t="s">
+      <c r="G47" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="113" t="s">
+      <c r="H47" s="121" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4899,32 +4932,32 @@
         <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="119"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="115"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="111" t="s">
+      <c r="C49" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="112" t="s">
+      <c r="E49" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="112" t="s">
+      <c r="F49" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="112" t="s">
+      <c r="G49" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="113" t="s">
+      <c r="H49" s="121" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4933,114 +4966,114 @@
         <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="119"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="115"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="114" t="s">
+      <c r="C51" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="116"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="118"/>
     </row>
     <row r="52" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
-      <c r="C52" s="114" t="s">
+      <c r="C52" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="116"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="118"/>
     </row>
     <row r="53" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="116"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="118"/>
     </row>
     <row r="54" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="114" t="s">
+      <c r="C54" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="116"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="118"/>
     </row>
     <row r="55" spans="1:8" s="40" customFormat="1">
       <c r="A55" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="115"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="114" t="s">
+      <c r="C56" s="116" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="115" t="s">
+      <c r="D56" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="115" t="s">
+      <c r="E56" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="115" t="s">
+      <c r="G56" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="H56" s="116" t="s">
+      <c r="H56" s="118" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
-      <c r="C57" s="114" t="s">
+      <c r="C57" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="115" t="s">
+      <c r="D57" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="115" t="s">
+      <c r="E57" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="F57" s="115" t="s">
+      <c r="F57" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="115" t="s">
+      <c r="G57" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="116" t="s">
+      <c r="H57" s="118" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5049,142 +5082,142 @@
         <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="119"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
-      <c r="C59" s="114" t="s">
+      <c r="C59" s="116" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="115" t="s">
+      <c r="D59" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="115" t="s">
+      <c r="F59" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="G59" s="115" t="s">
+      <c r="G59" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="H59" s="116" t="s">
+      <c r="H59" s="118" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
-      <c r="C60" s="114" t="s">
+      <c r="C60" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="D60" s="115" t="s">
+      <c r="D60" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="115" t="s">
+      <c r="E60" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="G60" s="115" t="s">
+      <c r="G60" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="116" t="s">
+      <c r="H60" s="118" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="68"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="115" t="s">
+      <c r="D61" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="115" t="s">
+      <c r="E61" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="F61" s="115" t="s">
+      <c r="F61" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="115" t="s">
+      <c r="G61" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="116" t="s">
+      <c r="H61" s="118" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="115" t="s">
+      <c r="D62" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="115" t="s">
+      <c r="E62" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="G62" s="115" t="s">
+      <c r="G62" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="H62" s="116" t="s">
+      <c r="H62" s="118" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
-      <c r="C63" s="114" t="s">
+      <c r="C63" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="115" t="s">
+      <c r="D63" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="115" t="s">
+      <c r="E63" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="115" t="s">
+      <c r="F63" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="G63" s="115" t="s">
+      <c r="G63" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="H63" s="116" t="s">
+      <c r="H63" s="118" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="111" t="s">
+      <c r="C64" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="112" t="s">
+      <c r="D64" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="112" t="s">
+      <c r="E64" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="112" t="s">
+      <c r="F64" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="112" t="s">
+      <c r="G64" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="113" t="s">
+      <c r="H64" s="121" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5193,76 +5226,76 @@
         <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="119"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="115"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="68"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="114" t="s">
+      <c r="C66" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="115" t="s">
+      <c r="D66" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="115" t="s">
+      <c r="E66" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="115" t="s">
+      <c r="F66" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="G66" s="115" t="s">
+      <c r="G66" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="H66" s="116" t="s">
+      <c r="H66" s="118" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="115" t="s">
+      <c r="D67" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="115" t="s">
+      <c r="E67" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="115" t="s">
+      <c r="F67" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="G67" s="115" t="s">
+      <c r="G67" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="H67" s="116" t="s">
+      <c r="H67" s="118" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="111" t="s">
+      <c r="C68" s="119" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="112" t="s">
+      <c r="D68" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="112" t="s">
+      <c r="E68" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="112" t="s">
+      <c r="F68" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="112" t="s">
+      <c r="G68" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="113" t="s">
+      <c r="H68" s="121" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5271,132 +5304,132 @@
         <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="119"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="115"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1">
       <c r="A70" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="119"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="115"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="114" t="s">
+      <c r="C71" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="115" t="s">
+      <c r="D71" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="E71" s="115" t="s">
+      <c r="E71" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="F71" s="115" t="s">
+      <c r="F71" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="G71" s="115" t="s">
+      <c r="G71" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="H71" s="116" t="s">
+      <c r="H71" s="118" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="114" t="s">
+      <c r="C72" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="115" t="s">
+      <c r="D72" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="115" t="s">
+      <c r="E72" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="115" t="s">
+      <c r="F72" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="115" t="s">
+      <c r="G72" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="H72" s="116" t="s">
+      <c r="H72" s="118" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="68"/>
       <c r="B73" s="68"/>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="115" t="s">
+      <c r="D73" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="E73" s="115" t="s">
+      <c r="E73" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="115" t="s">
+      <c r="F73" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="G73" s="115" t="s">
+      <c r="G73" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="H73" s="116" t="s">
+      <c r="H73" s="118" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
-      <c r="C74" s="114" t="s">
+      <c r="C74" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="115" t="s">
+      <c r="D74" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="115" t="s">
+      <c r="E74" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="F74" s="115" t="s">
+      <c r="F74" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="115" t="s">
+      <c r="G74" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="116" t="s">
+      <c r="H74" s="118" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="111" t="s">
+      <c r="C75" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="112" t="s">
+      <c r="D75" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="112" t="s">
+      <c r="E75" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="112" t="s">
+      <c r="F75" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="112" t="s">
+      <c r="G75" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="H75" s="113" t="s">
+      <c r="H75" s="121" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5405,54 +5438,54 @@
         <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="119"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="115"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="114" t="s">
+      <c r="C77" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="115" t="s">
+      <c r="D77" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="E77" s="115" t="s">
+      <c r="E77" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="115" t="s">
+      <c r="G77" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="H77" s="116" t="s">
+      <c r="H77" s="118" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="111" t="s">
+      <c r="C78" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="112" t="s">
+      <c r="D78" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="112" t="s">
+      <c r="E78" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="112" t="s">
+      <c r="F78" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="112" t="s">
+      <c r="G78" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="113" t="s">
+      <c r="H78" s="121" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5461,120 +5494,120 @@
         <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="119"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="114"/>
+      <c r="G79" s="114"/>
+      <c r="H79" s="115"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
-      <c r="C80" s="114" t="s">
+      <c r="C80" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="115" t="s">
+      <c r="D80" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="E80" s="115" t="s">
+      <c r="E80" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="F80" s="115" t="s">
+      <c r="F80" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="G80" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="H80" s="116" t="s">
+      <c r="H80" s="118" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A81" s="68"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="114" t="s">
+      <c r="C81" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="115" t="s">
+      <c r="D81" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="115" t="s">
+      <c r="E81" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="F81" s="115" t="s">
+      <c r="F81" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="115" t="s">
+      <c r="G81" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="H81" s="116" t="s">
+      <c r="H81" s="118" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
-      <c r="C82" s="114" t="s">
+      <c r="C82" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="115" t="s">
+      <c r="D82" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="115" t="s">
+      <c r="E82" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="F82" s="115" t="s">
+      <c r="F82" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="G82" s="115" t="s">
+      <c r="G82" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="116" t="s">
+      <c r="H82" s="118" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
-      <c r="C83" s="114" t="s">
+      <c r="C83" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="115" t="s">
+      <c r="D83" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="115" t="s">
+      <c r="E83" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="115" t="s">
+      <c r="F83" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="115" t="s">
+      <c r="G83" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="H83" s="116" t="s">
+      <c r="H83" s="118" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="111" t="s">
+      <c r="C84" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="112" t="s">
+      <c r="D84" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="112" t="s">
+      <c r="E84" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="112" t="s">
+      <c r="F84" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="G84" s="112" t="s">
+      <c r="G84" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="113" t="s">
+      <c r="H84" s="121" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5583,98 +5616,98 @@
         <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="118"/>
-      <c r="E85" s="118"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="119"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="115"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="115" t="s">
+      <c r="D86" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="115" t="s">
+      <c r="E86" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="115" t="s">
+      <c r="F86" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="G86" s="115" t="s">
+      <c r="G86" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="H86" s="116" t="s">
+      <c r="H86" s="118" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="68"/>
       <c r="B87" s="68"/>
-      <c r="C87" s="114" t="s">
+      <c r="C87" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="115" t="s">
+      <c r="D87" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="115" t="s">
+      <c r="E87" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="115" t="s">
+      <c r="F87" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="G87" s="115" t="s">
+      <c r="G87" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="H87" s="116" t="s">
+      <c r="H87" s="118" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="68"/>
       <c r="B88" s="68"/>
-      <c r="C88" s="114" t="s">
+      <c r="C88" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="115" t="s">
+      <c r="D88" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="115" t="s">
+      <c r="E88" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="115" t="s">
+      <c r="F88" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="G88" s="115" t="s">
+      <c r="G88" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="116" t="s">
+      <c r="H88" s="118" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="111" t="s">
+      <c r="C89" s="119" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="112" t="s">
+      <c r="D89" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="112" t="s">
+      <c r="E89" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="112" t="s">
+      <c r="F89" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="112" t="s">
+      <c r="G89" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="H89" s="113" t="s">
+      <c r="H89" s="121" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5683,110 +5716,110 @@
         <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="117"/>
-      <c r="D90" s="118"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="119"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="115"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1">
       <c r="A91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="119"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="115"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="68"/>
       <c r="B92" s="68"/>
-      <c r="C92" s="114" t="s">
+      <c r="C92" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="D92" s="115" t="s">
+      <c r="D92" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="115" t="s">
+      <c r="E92" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="115" t="s">
+      <c r="F92" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="G92" s="115" t="s">
+      <c r="G92" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="H92" s="116" t="s">
+      <c r="H92" s="118" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="68"/>
       <c r="B93" s="68"/>
-      <c r="C93" s="114" t="s">
+      <c r="C93" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="D93" s="115" t="s">
+      <c r="D93" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="115" t="s">
+      <c r="E93" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="G93" s="115" t="s">
+      <c r="G93" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="H93" s="116" t="s">
+      <c r="H93" s="118" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="68"/>
       <c r="B94" s="68"/>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="115" t="s">
+      <c r="D94" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="E94" s="115" t="s">
+      <c r="E94" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="F94" s="115" t="s">
+      <c r="F94" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="G94" s="115" t="s">
+      <c r="G94" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="H94" s="116" t="s">
+      <c r="H94" s="118" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="111" t="s">
+      <c r="C95" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="112" t="s">
+      <c r="D95" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="112" t="s">
+      <c r="E95" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="112" t="s">
+      <c r="F95" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="112" t="s">
+      <c r="G95" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="113" t="s">
+      <c r="H95" s="121" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5795,142 +5828,142 @@
         <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="117"/>
-      <c r="D96" s="118"/>
-      <c r="E96" s="118"/>
-      <c r="F96" s="118"/>
-      <c r="G96" s="118"/>
-      <c r="H96" s="119"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="114"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="115"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="68"/>
       <c r="B97" s="68"/>
-      <c r="C97" s="114" t="s">
+      <c r="C97" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="115" t="s">
+      <c r="D97" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="115" t="s">
+      <c r="E97" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="115" t="s">
+      <c r="F97" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="G97" s="115" t="s">
+      <c r="G97" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="H97" s="116" t="s">
+      <c r="H97" s="118" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="114" t="s">
+      <c r="C98" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="115" t="s">
+      <c r="D98" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="E98" s="115" t="s">
+      <c r="E98" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="F98" s="115" t="s">
+      <c r="F98" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="G98" s="115" t="s">
+      <c r="G98" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="H98" s="116" t="s">
+      <c r="H98" s="118" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="68"/>
       <c r="B99" s="68"/>
-      <c r="C99" s="114" t="s">
+      <c r="C99" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="115" t="s">
+      <c r="D99" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="E99" s="115" t="s">
+      <c r="E99" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="F99" s="115" t="s">
+      <c r="F99" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="G99" s="115" t="s">
+      <c r="G99" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="H99" s="116" t="s">
+      <c r="H99" s="118" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="68"/>
       <c r="B100" s="68"/>
-      <c r="C100" s="114" t="s">
+      <c r="C100" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="115" t="s">
+      <c r="D100" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E100" s="115" t="s">
+      <c r="E100" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="F100" s="115" t="s">
+      <c r="F100" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="G100" s="115" t="s">
+      <c r="G100" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="H100" s="116" t="s">
+      <c r="H100" s="118" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="68"/>
       <c r="B101" s="68"/>
-      <c r="C101" s="114" t="s">
+      <c r="C101" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="D101" s="115" t="s">
+      <c r="D101" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="115" t="s">
+      <c r="E101" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="F101" s="115" t="s">
+      <c r="F101" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="G101" s="115" t="s">
+      <c r="G101" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="H101" s="116" t="s">
+      <c r="H101" s="118" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="111" t="s">
+      <c r="C102" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="112" t="s">
+      <c r="D102" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="112" t="s">
+      <c r="E102" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="112" t="s">
+      <c r="F102" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="G102" s="112" t="s">
+      <c r="G102" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="113" t="s">
+      <c r="H102" s="121" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5939,76 +5972,76 @@
         <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="118"/>
-      <c r="F103" s="118"/>
-      <c r="G103" s="118"/>
-      <c r="H103" s="119"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="114"/>
+      <c r="F103" s="114"/>
+      <c r="G103" s="114"/>
+      <c r="H103" s="115"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="68"/>
       <c r="B104" s="68"/>
-      <c r="C104" s="114" t="s">
+      <c r="C104" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="D104" s="115" t="s">
+      <c r="D104" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="E104" s="115" t="s">
+      <c r="E104" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="F104" s="115" t="s">
+      <c r="F104" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="115" t="s">
+      <c r="G104" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="116" t="s">
+      <c r="H104" s="118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="68"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="114" t="s">
+      <c r="C105" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="115" t="s">
+      <c r="D105" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="115" t="s">
+      <c r="E105" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="F105" s="115" t="s">
+      <c r="F105" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="G105" s="115" t="s">
+      <c r="G105" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="H105" s="116" t="s">
+      <c r="H105" s="118" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="111" t="s">
+      <c r="C106" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="112" t="s">
+      <c r="D106" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="112" t="s">
+      <c r="E106" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="112" t="s">
+      <c r="F106" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="112" t="s">
+      <c r="G106" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="H106" s="113" t="s">
+      <c r="H106" s="121" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6017,98 +6050,98 @@
         <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="118"/>
-      <c r="E107" s="118"/>
-      <c r="F107" s="118"/>
-      <c r="G107" s="118"/>
-      <c r="H107" s="119"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="114"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="114"/>
+      <c r="G107" s="114"/>
+      <c r="H107" s="115"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="68"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="114" t="s">
+      <c r="C108" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="115" t="s">
+      <c r="D108" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="115" t="s">
+      <c r="E108" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="F108" s="115" t="s">
+      <c r="F108" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="G108" s="115" t="s">
+      <c r="G108" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="H108" s="116" t="s">
+      <c r="H108" s="118" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="68"/>
       <c r="B109" s="68"/>
-      <c r="C109" s="114" t="s">
+      <c r="C109" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="115" t="s">
+      <c r="D109" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="115" t="s">
+      <c r="E109" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="115" t="s">
+      <c r="F109" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="115" t="s">
+      <c r="G109" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="H109" s="116" t="s">
+      <c r="H109" s="118" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A110" s="68"/>
       <c r="B110" s="68"/>
-      <c r="C110" s="114" t="s">
+      <c r="C110" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="D110" s="115" t="s">
+      <c r="D110" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="E110" s="115" t="s">
+      <c r="E110" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="F110" s="115" t="s">
+      <c r="F110" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="G110" s="115" t="s">
+      <c r="G110" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="H110" s="116" t="s">
+      <c r="H110" s="118" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="111" t="s">
+      <c r="C111" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="112" t="s">
+      <c r="D111" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="112" t="s">
+      <c r="E111" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="112" t="s">
+      <c r="F111" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="112" t="s">
+      <c r="G111" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="113" t="s">
+      <c r="H111" s="121" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6117,120 +6150,120 @@
         <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="117"/>
-      <c r="D112" s="118"/>
-      <c r="E112" s="118"/>
-      <c r="F112" s="118"/>
-      <c r="G112" s="118"/>
-      <c r="H112" s="119"/>
+      <c r="C112" s="113"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="114"/>
+      <c r="H112" s="115"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="68"/>
       <c r="B113" s="68"/>
-      <c r="C113" s="114" t="s">
+      <c r="C113" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="115" t="s">
+      <c r="D113" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="E113" s="115" t="s">
+      <c r="E113" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="F113" s="115" t="s">
+      <c r="F113" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="115" t="s">
+      <c r="G113" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="H113" s="116" t="s">
+      <c r="H113" s="118" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="68"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="114" t="s">
+      <c r="C114" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="D114" s="115" t="s">
+      <c r="D114" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="115" t="s">
+      <c r="E114" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="115" t="s">
+      <c r="F114" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="G114" s="115" t="s">
+      <c r="G114" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="H114" s="116" t="s">
+      <c r="H114" s="118" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="68"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="114" t="s">
+      <c r="C115" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="115" t="s">
+      <c r="D115" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="E115" s="115" t="s">
+      <c r="E115" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="F115" s="115" t="s">
+      <c r="F115" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="G115" s="115" t="s">
+      <c r="G115" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="H115" s="116" t="s">
+      <c r="H115" s="118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="68"/>
       <c r="B116" s="68"/>
-      <c r="C116" s="114" t="s">
+      <c r="C116" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="115" t="s">
+      <c r="D116" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="E116" s="115" t="s">
+      <c r="E116" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="F116" s="115" t="s">
+      <c r="F116" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="G116" s="115" t="s">
+      <c r="G116" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="H116" s="116" t="s">
+      <c r="H116" s="118" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="111" t="s">
+      <c r="C117" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="112" t="s">
+      <c r="D117" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="112" t="s">
+      <c r="E117" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="112" t="s">
+      <c r="F117" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="G117" s="112" t="s">
+      <c r="G117" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="H117" s="113" t="s">
+      <c r="H117" s="121" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6239,54 +6272,54 @@
         <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="117"/>
-      <c r="D118" s="118"/>
-      <c r="E118" s="118"/>
-      <c r="F118" s="118"/>
-      <c r="G118" s="118"/>
-      <c r="H118" s="119"/>
+      <c r="C118" s="113"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="114"/>
+      <c r="G118" s="114"/>
+      <c r="H118" s="115"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="68"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="114" t="s">
+      <c r="C119" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="D119" s="115" t="s">
+      <c r="D119" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="E119" s="115" t="s">
+      <c r="E119" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="F119" s="115" t="s">
+      <c r="F119" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="G119" s="115" t="s">
+      <c r="G119" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="H119" s="116" t="s">
+      <c r="H119" s="118" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="111" t="s">
+      <c r="C120" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="112" t="s">
+      <c r="D120" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="112" t="s">
+      <c r="E120" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="112" t="s">
+      <c r="F120" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="112" t="s">
+      <c r="G120" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="113" t="s">
+      <c r="H120" s="121" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6295,32 +6328,32 @@
         <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="117"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="118"/>
-      <c r="F121" s="118"/>
-      <c r="G121" s="118"/>
-      <c r="H121" s="119"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="114"/>
+      <c r="G121" s="114"/>
+      <c r="H121" s="115"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A122" s="68"/>
       <c r="B122" s="68"/>
-      <c r="C122" s="114" t="s">
+      <c r="C122" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="D122" s="115" t="s">
+      <c r="D122" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="E122" s="115" t="s">
+      <c r="E122" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="F122" s="115" t="s">
+      <c r="F122" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="G122" s="115" t="s">
+      <c r="G122" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="H122" s="116" t="s">
+      <c r="H122" s="118" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6329,32 +6362,32 @@
         <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="117"/>
-      <c r="D123" s="118"/>
-      <c r="E123" s="118"/>
-      <c r="F123" s="118"/>
-      <c r="G123" s="118"/>
-      <c r="H123" s="119"/>
+      <c r="C123" s="113"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="114"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="115"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="68"/>
       <c r="B124" s="68"/>
-      <c r="C124" s="114" t="s">
+      <c r="C124" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="D124" s="115" t="s">
+      <c r="D124" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="E124" s="115" t="s">
+      <c r="E124" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="115" t="s">
+      <c r="F124" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="G124" s="115" t="s">
+      <c r="G124" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="H124" s="116" t="s">
+      <c r="H124" s="118" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6363,120 +6396,120 @@
         <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="118"/>
-      <c r="F125" s="118"/>
-      <c r="G125" s="118"/>
-      <c r="H125" s="119"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
+      <c r="G125" s="114"/>
+      <c r="H125" s="115"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A126" s="68"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="114" t="s">
+      <c r="C126" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="115" t="s">
+      <c r="D126" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="E126" s="115" t="s">
+      <c r="E126" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="G126" s="115" t="s">
+      <c r="G126" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="H126" s="116" t="s">
+      <c r="H126" s="118" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A127" s="68"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="114" t="s">
+      <c r="C127" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="D127" s="115" t="s">
+      <c r="D127" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="115" t="s">
+      <c r="E127" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="F127" s="115" t="s">
+      <c r="F127" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="G127" s="115" t="s">
+      <c r="G127" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="H127" s="116" t="s">
+      <c r="H127" s="118" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A128" s="68"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="114" t="s">
+      <c r="C128" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="D128" s="115" t="s">
+      <c r="D128" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="115" t="s">
+      <c r="E128" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="F128" s="115" t="s">
+      <c r="F128" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="G128" s="115" t="s">
+      <c r="G128" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="H128" s="116" t="s">
+      <c r="H128" s="118" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="68"/>
       <c r="B129" s="68"/>
-      <c r="C129" s="114" t="s">
+      <c r="C129" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="115" t="s">
+      <c r="D129" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="E129" s="115" t="s">
+      <c r="E129" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="F129" s="115" t="s">
+      <c r="F129" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="G129" s="115" t="s">
+      <c r="G129" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="H129" s="116" t="s">
+      <c r="H129" s="118" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="111" t="s">
+      <c r="C130" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="112" t="s">
+      <c r="D130" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="112" t="s">
+      <c r="E130" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="112" t="s">
+      <c r="F130" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="112" t="s">
+      <c r="G130" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="H130" s="113" t="s">
+      <c r="H130" s="121" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6485,98 +6518,98 @@
         <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="117"/>
-      <c r="D131" s="118"/>
-      <c r="E131" s="118"/>
-      <c r="F131" s="118"/>
-      <c r="G131" s="118"/>
-      <c r="H131" s="119"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
+      <c r="G131" s="114"/>
+      <c r="H131" s="115"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="68"/>
       <c r="B132" s="68"/>
-      <c r="C132" s="114" t="s">
+      <c r="C132" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="115" t="s">
+      <c r="D132" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="115" t="s">
+      <c r="E132" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="F132" s="115" t="s">
+      <c r="F132" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="G132" s="115" t="s">
+      <c r="G132" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="H132" s="116" t="s">
+      <c r="H132" s="118" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A133" s="68"/>
       <c r="B133" s="68"/>
-      <c r="C133" s="114" t="s">
+      <c r="C133" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="115" t="s">
+      <c r="D133" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="115" t="s">
+      <c r="E133" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="F133" s="115" t="s">
+      <c r="F133" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="G133" s="115" t="s">
+      <c r="G133" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="H133" s="116" t="s">
+      <c r="H133" s="118" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A134" s="68"/>
       <c r="B134" s="68"/>
-      <c r="C134" s="114" t="s">
+      <c r="C134" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="D134" s="115" t="s">
+      <c r="D134" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E134" s="115" t="s">
+      <c r="E134" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="F134" s="115" t="s">
+      <c r="F134" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="G134" s="115" t="s">
+      <c r="G134" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="H134" s="116" t="s">
+      <c r="H134" s="118" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="111" t="s">
+      <c r="C135" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="112" t="s">
+      <c r="D135" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="112" t="s">
+      <c r="E135" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="112" t="s">
+      <c r="F135" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="112" t="s">
+      <c r="G135" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="113" t="s">
+      <c r="H135" s="121" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6585,121 +6618,169 @@
         <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="118"/>
-      <c r="E136" s="118"/>
-      <c r="F136" s="118"/>
-      <c r="G136" s="118"/>
-      <c r="H136" s="119"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="114"/>
+      <c r="E136" s="114"/>
+      <c r="F136" s="114"/>
+      <c r="G136" s="114"/>
+      <c r="H136" s="115"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A137" s="68"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="114" t="s">
+      <c r="C137" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="115" t="s">
+      <c r="D137" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="E137" s="115" t="s">
+      <c r="E137" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="F137" s="115" t="s">
+      <c r="F137" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="G137" s="115" t="s">
+      <c r="G137" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="H137" s="116" t="s">
+      <c r="H137" s="118" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="68"/>
       <c r="B138" s="68"/>
-      <c r="C138" s="114" t="s">
+      <c r="C138" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="115" t="s">
+      <c r="D138" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="E138" s="115" t="s">
+      <c r="E138" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="F138" s="115" t="s">
+      <c r="F138" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="115" t="s">
+      <c r="G138" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H138" s="116" t="s">
+      <c r="H138" s="118" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A139" s="68"/>
       <c r="B139" s="68"/>
-      <c r="C139" s="114" t="s">
+      <c r="C139" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="D139" s="115" t="s">
+      <c r="D139" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="E139" s="115" t="s">
+      <c r="E139" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="F139" s="115" t="s">
+      <c r="F139" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="G139" s="115" t="s">
+      <c r="G139" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H139" s="116" t="s">
+      <c r="H139" s="118" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="111" t="s">
+      <c r="C140" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="D140" s="112" t="s">
+      <c r="D140" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="112" t="s">
+      <c r="E140" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="F140" s="112" t="s">
+      <c r="F140" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="G140" s="112" t="s">
+      <c r="G140" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="113" t="s">
+      <c r="H140" s="121" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C90:H90"/>
     <mergeCell ref="C91:H91"/>
@@ -6724,72 +6805,24 @@
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6800,7 +6833,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6809,7 +6842,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -7540,14 +7573,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="str">
@@ -7555,48 +7588,48 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1">
       <c r="A35" s="21" t="str">
@@ -7604,12 +7637,12 @@
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="107"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="str">
@@ -7617,96 +7650,96 @@
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="107"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="104" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="125" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="127"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="127"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="127"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="125" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="125"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="127"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="127"/>
     </row>
     <row r="43" spans="1:8" ht="13.5" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="125"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="127"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="25" t="str">
@@ -7714,60 +7747,60 @@
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="107"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="106"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="106"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="106"/>
     </row>
     <row r="48" spans="1:8" ht="13.5" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="104"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="25" t="str">
@@ -7775,48 +7808,48 @@
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="107"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="104"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="106"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="21" t="str">
@@ -7824,24 +7857,24 @@
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="107"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="106"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="21" t="str">
@@ -7849,24 +7882,24 @@
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="107"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="103"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="104"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="106"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="25" t="str">
@@ -7874,60 +7907,60 @@
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="107"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="103"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="104"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="106"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="102" t="s">
+      <c r="C59" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="104"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="106"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="102" t="s">
+      <c r="C60" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="104"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="106"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="102" t="s">
+      <c r="C61" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="104"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="106"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="21" t="str">
@@ -7935,48 +7968,48 @@
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="107"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="103"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="104"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="106"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="102" t="s">
+      <c r="C64" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="104"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="106"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="102" t="s">
+      <c r="C65" s="104" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="104"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="106"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1">
       <c r="A66" s="21" t="str">
@@ -7984,12 +8017,12 @@
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="107"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="103"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="21" t="str">
@@ -7997,24 +8030,24 @@
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="107"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="103"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="106"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" thickBot="1">
       <c r="A69" s="21" t="str">
@@ -8022,12 +8055,12 @@
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="107"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="21" t="str">
@@ -8035,60 +8068,60 @@
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="107"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="103"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="102" t="s">
+      <c r="C71" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="104"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="106"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="102" t="s">
+      <c r="C72" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="104"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="106"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="102" t="s">
+      <c r="C73" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="104"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="106"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="102" t="s">
+      <c r="C74" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="104"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="106"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="21" t="str">
@@ -8096,36 +8129,36 @@
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="107"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="103"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="102" t="s">
+      <c r="C76" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="104"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="106"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" thickBot="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="102" t="s">
+      <c r="C77" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="104"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="106"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1">
       <c r="A78" s="21" t="str">
@@ -8133,12 +8166,12 @@
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="107"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="21" t="str">
@@ -8146,48 +8179,48 @@
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="105"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="107"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="103"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="102" t="s">
+      <c r="C80" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="104"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="106"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="102" t="s">
+      <c r="C81" s="104" t="s">
         <v>288</v>
       </c>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="104"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="106"/>
     </row>
     <row r="82" spans="1:8" ht="13.5" thickBot="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="102" t="s">
+      <c r="C82" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="104"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="106"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="21" t="str">
@@ -8195,12 +8228,12 @@
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="107"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="103"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="21" t="str">
@@ -8208,48 +8241,48 @@
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="105"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="107"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="103"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="102" t="s">
+      <c r="C85" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="104"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="106"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="102" t="s">
+      <c r="C86" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="104"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="106"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="102" t="s">
+      <c r="C87" s="104" t="s">
         <v>292</v>
       </c>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="104"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="106"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="21" t="str">
@@ -8257,36 +8290,36 @@
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
-      <c r="F88" s="106"/>
-      <c r="G88" s="106"/>
-      <c r="H88" s="107"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="103"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="104" t="s">
         <v>293</v>
       </c>
-      <c r="D89" s="103"/>
-      <c r="E89" s="103"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="104"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="106"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="102" t="s">
+      <c r="C90" s="104" t="s">
         <v>294</v>
       </c>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="104"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="106"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
@@ -8294,36 +8327,36 @@
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="107"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="103"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="102" t="s">
+      <c r="C92" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="D92" s="103"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="104"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="106"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="102" t="s">
+      <c r="C93" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="103"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="103"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="104"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="106"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="21" t="str">
@@ -8331,36 +8364,36 @@
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="106"/>
-      <c r="G94" s="106"/>
-      <c r="H94" s="107"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="103"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="D95" s="103"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="103"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="104"/>
+      <c r="D95" s="105"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="106"/>
     </row>
     <row r="96" spans="1:8" ht="13.5" thickBot="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="102" t="s">
+      <c r="C96" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="D96" s="103"/>
-      <c r="E96" s="103"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="104"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="106"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="21" t="str">
@@ -8368,51 +8401,106 @@
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="106"/>
-      <c r="E97" s="106"/>
-      <c r="F97" s="106"/>
-      <c r="G97" s="106"/>
-      <c r="H97" s="107"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="102"/>
+      <c r="H97" s="103"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="96" t="s">
+      <c r="C98" s="107" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="97"/>
-      <c r="H98" s="98"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="108"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="109"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="96" t="s">
+      <c r="C99" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="98"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="109"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="99" t="s">
+      <c r="C100" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="100"/>
-      <c r="G100" s="100"/>
-      <c r="H100" s="101"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="111"/>
+      <c r="G100" s="111"/>
+      <c r="H100" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C60:H60"/>
@@ -8429,61 +8517,6 @@
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">
@@ -8522,10 +8555,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8595,300 +8628,502 @@
         <v>303</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="27"/>
+      <c r="J3" s="3">
+        <v>12</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="64" t="s">
         <v>304</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>12</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="5">
+        <v>12</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="64" t="s">
         <v>305</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="5">
+        <v>8</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="64" t="s">
         <v>306</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="64" t="s">
         <v>307</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="5">
+        <v>8</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="63" t="s">
         <v>308</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>312</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>12</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="5">
+        <v>12</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="5">
+        <v>8</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="28"/>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>316</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="61"/>
+      <c r="J16" s="5">
+        <v>12</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
         <v>317</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
         <v>318</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="61"/>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
         <v>319</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="61"/>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
         <v>328</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="61"/>
+      <c r="J20" s="5">
+        <v>8</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
         <v>337</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="61"/>
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>320</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="2">
+        <v>12</v>
+      </c>
+      <c r="K22" s="62" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="55" t="s">
@@ -8932,15 +9167,15 @@
     <row r="26" spans="1:11" ht="13.5" thickBot="1">
       <c r="C26" s="9">
         <f>SUMIF(K3:K22,C25,J3:J22)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9">
         <f>SUMIF(K3:K22,D25,J3:J22)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E26" s="9">
         <f>SUMIF(K3:K22,E25,J3:J22)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F26" s="9">
         <f>SUMIF(K3:K22,F25,J3:J22)</f>
@@ -8956,7 +9191,7 @@
       </c>
       <c r="J26" s="1">
         <f>SUM(J3:J22)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1"/>
@@ -8967,14 +9202,14 @@
       <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="25" t="str">
@@ -8982,36 +9217,36 @@
         <v>As a developer, I want the game to generate pathing data faster.</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="str">
@@ -9019,36 +9254,36 @@
         <v>As a player, I want pathing to be more efficient and natural looking.</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
     </row>
     <row r="34" spans="1:11" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106"/>
     </row>
     <row r="35" spans="1:11" ht="13.5" thickBot="1">
       <c r="A35" s="25" t="str">
@@ -9056,12 +9291,12 @@
         <v>As a player, I want balanced unit stats.</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="107"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
     </row>
     <row r="36" spans="1:11" ht="13.5" thickBot="1">
       <c r="A36" s="25" t="str">
@@ -9069,12 +9304,12 @@
         <v>As a player, I want balanced unit ability durations and cooldowns.</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="107"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="25" t="str">
@@ -9082,38 +9317,38 @@
         <v>As a player, I want to see unit ability durations and cooldown times.</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="107"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
       <c r="J38"/>
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="104"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
       <c r="J39"/>
       <c r="K39"/>
     </row>
@@ -9123,26 +9358,26 @@
         <v>As a player, I want the button image for the ability to show the ability.</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="107"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="106"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
@@ -9152,26 +9387,26 @@
         <v>As a player, I want inventory items to have unique images.</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="107"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="103"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="106"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
@@ -9181,40 +9416,40 @@
         <v>As a player, I want to be able to create different profiles and save to them.</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="107"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" s="17" customFormat="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="106"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="106"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
@@ -9224,12 +9459,12 @@
         <v>As a player, I want all of the units to have appropriate animation.</v>
       </c>
       <c r="B47" s="21"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="107"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="103"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
@@ -9239,54 +9474,54 @@
         <v>As a player, I want visually interesting maps.</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="107"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="103"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
     <row r="49" spans="1:11" s="17" customFormat="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
     <row r="50" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="104" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
     <row r="51" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="106"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
@@ -9296,12 +9531,12 @@
         <v>As a player, I want maps with interesting layouts.</v>
       </c>
       <c r="B52" s="21"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="107"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="103"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
@@ -9311,26 +9546,26 @@
         <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="107"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="103"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
     <row r="54" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="106"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
@@ -9340,12 +9575,12 @@
         <v>As a developer, I don't want to use drawline.</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="107"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="103"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
@@ -9355,40 +9590,40 @@
         <v>As a player, I want to face a boss at the end of every level.</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="107"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="103"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
     <row r="57" spans="1:11" s="17" customFormat="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="104"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="106"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
     <row r="58" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="104"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="106"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
@@ -9398,26 +9633,26 @@
         <v>As a player, I want to be able to install this game.</v>
       </c>
       <c r="B59" s="21"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="107"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="103"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
       <c r="A60" s="93"/>
       <c r="B60" s="93"/>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="98"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="109"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
@@ -9427,12 +9662,12 @@
         <v>As a developer, I want to be able to run the game at 60 fps.</v>
       </c>
       <c r="B61" s="21"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="107"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="103"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
@@ -9442,12 +9677,12 @@
         <v>As a developer, I want my game to run in release mode.</v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="107"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="103"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
@@ -9457,26 +9692,26 @@
         <v>As a player, I want tooltips that display specific information.</v>
       </c>
       <c r="B63" s="21"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="107"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="103"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="A64" s="93"/>
       <c r="B64" s="93"/>
-      <c r="C64" s="96" t="s">
+      <c r="C64" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="98"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="109"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
@@ -9486,132 +9721,158 @@
         <v>As a developer, I want my game to meet TRC Requirements.</v>
       </c>
       <c r="B65" s="21"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="107"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="103"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
     <row r="66" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="95"/>
       <c r="B66" s="95"/>
-      <c r="C66" s="126" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="128"/>
+      <c r="C66" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="109"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" s="17" customFormat="1">
-      <c r="B67"/>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:11" s="17" customFormat="1">
-      <c r="B68"/>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:11" s="17" customFormat="1">
-      <c r="A69" s="19"/>
-      <c r="B69"/>
-    </row>
-    <row r="70" spans="1:11" s="17" customFormat="1">
-      <c r="A70" s="19"/>
-      <c r="B70"/>
+    <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A67" s="95"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="109"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A68" s="95"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="107" t="s">
+        <v>346</v>
+      </c>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="109"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A69" s="95"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="109"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A70" s="95"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="109"/>
+      <c r="J70"/>
+      <c r="K70"/>
     </row>
     <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71"/>
-    </row>
-    <row r="72" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="107" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="109"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A72" s="95"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="107" t="s">
+        <v>342</v>
+      </c>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="109"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" s="17" customFormat="1">
-      <c r="A73" s="19"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
+    <row r="73" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A73" s="95"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="109"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" s="17" customFormat="1">
-      <c r="A74" s="19"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
+    <row r="74" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A74" s="97"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="130"/>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" s="17" customFormat="1">
-      <c r="A75" s="19"/>
+    <row r="75" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="B75"/>
       <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
     <row r="76" spans="1:11" s="17" customFormat="1">
       <c r="A76" s="19"/>
       <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="J76"/>
-      <c r="K76"/>
     </row>
     <row r="77" spans="1:11" s="17" customFormat="1">
       <c r="A77" s="19"/>
       <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="J77"/>
-      <c r="K77"/>
     </row>
     <row r="78" spans="1:11" s="17" customFormat="1">
       <c r="A78" s="19"/>
       <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="J78"/>
-      <c r="K78"/>
     </row>
     <row r="79" spans="1:11" s="17" customFormat="1">
       <c r="A79" s="19"/>
@@ -9622,10 +9883,8 @@
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-    </row>
-    <row r="80" spans="1:11" s="17" customFormat="1">
+    </row>
+    <row r="80" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="19"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -9634,10 +9893,9 @@
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-    </row>
-    <row r="81" spans="1:11" s="17" customFormat="1">
+      <c r="J80" s="96"/>
+    </row>
+    <row r="81" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
       <c r="A81" s="19"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -9757,33 +10015,126 @@
       <c r="J90"/>
       <c r="K90"/>
     </row>
+    <row r="91" spans="1:11" s="17" customFormat="1">
+      <c r="A91" s="19"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" s="17" customFormat="1">
+      <c r="A92" s="19"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" s="17" customFormat="1">
+      <c r="A93" s="19"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11" s="17" customFormat="1">
+      <c r="A94" s="19"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11" s="17" customFormat="1">
+      <c r="A95" s="19"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11" s="17" customFormat="1">
+      <c r="A96" s="19"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" s="17" customFormat="1">
+      <c r="A97" s="19"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" s="17" customFormat="1">
+      <c r="A98" s="19"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" s="17" customFormat="1">
+      <c r="A99" s="19"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
+  <mergeCells count="47">
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
@@ -9798,6 +10149,29 @@
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
   </mergeCells>
   <conditionalFormatting sqref="A29">
     <cfRule type="dataBar" priority="1">

--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="5"/>
@@ -29,7 +29,7 @@
     <definedName name="value_in_hours" localSheetId="1">#REF!</definedName>
     <definedName name="value_in_hours">Directions!$D$2:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144315"/>
 </workbook>
 </file>
 
@@ -1089,11 +1089,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1145,8 +1146,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1189,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1475,7 +1488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1485,8 +1498,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1655,9 +1669,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1667,33 +1678,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1712,13 +1715,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,13 +1760,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1797,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Accent3" xfId="6" builtinId="37"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1784,11 +1815,16 @@
       <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Directions"/>
@@ -1856,34 +1892,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1920,6 +1956,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1954,6 +1991,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2035,7 +2073,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2044,7 +2082,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2053,7 +2091,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -2129,7 +2167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2139,7 +2177,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="95.5703125" style="19" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
@@ -2149,7 +2187,7 @@
     <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" thickBot="1">
+    <row r="1" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
@@ -2163,7 +2201,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
@@ -2177,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>93</v>
       </c>
@@ -2191,7 +2229,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
@@ -2205,7 +2243,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1">
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" s="12">
         <v>5</v>
@@ -2217,7 +2255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>60</v>
       </c>
@@ -2229,7 +2267,7 @@
       </c>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
@@ -2241,7 +2279,7 @@
       </c>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
@@ -2253,7 +2291,7 @@
       </c>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1">
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -2265,79 +2303,79 @@
       </c>
       <c r="F9" s="33"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1"/>
-    <row r="12" spans="1:6" ht="18.75" thickBot="1">
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25.5">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="25.5">
+    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="25.5">
+    <row r="24" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="13.5" thickBot="1">
+    <row r="27" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>92</v>
       </c>
@@ -2352,7 +2390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2362,7 +2400,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="40" customWidth="1"/>
@@ -2370,12 +2408,12 @@
     <col min="4" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:3" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>103</v>
       </c>
@@ -2383,8 +2421,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="4" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>104</v>
       </c>
@@ -2395,7 +2433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.5" thickTop="1">
+    <row r="5" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>117</v>
       </c>
@@ -2406,7 +2444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>114</v>
       </c>
@@ -2417,7 +2455,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
         <v>116</v>
       </c>
@@ -2428,47 +2466,47 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="46"/>
       <c r="C8" s="58"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="47"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
     </row>
-    <row r="10" spans="1:3" ht="13.5" thickBot="1">
+    <row r="10" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
     </row>
-    <row r="11" spans="1:3" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="12" spans="1:3" ht="19.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:3" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="50"/>
     </row>
-    <row r="13" spans="1:3" ht="13.5" thickTop="1">
+    <row r="13" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="43"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="13.5" thickBot="1">
+    <row r="15" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B15" s="49"/>
     </row>
-    <row r="16" spans="1:3" ht="13.5" thickTop="1"/>
+    <row r="16" spans="1:3" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
@@ -2479,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
@@ -2489,7 +2527,7 @@
       <selection activeCell="C25" sqref="C25:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="100.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -2503,7 +2541,7 @@
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>111</v>
       </c>
@@ -2514,7 +2552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1">
+    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2551,7 +2589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
@@ -2566,7 +2604,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2619,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2634,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2661,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
@@ -2638,7 +2676,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>22</v>
       </c>
@@ -2665,7 +2703,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +2730,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2757,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +2784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2773,7 +2811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2838,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2827,7 +2865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="25.5">
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2881,7 +2919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.25" thickBot="1">
+    <row r="17" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -2908,17 +2946,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" thickBot="1">
+    <row r="19" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" thickBot="1">
+    <row r="20" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="15" t="str">
         <f t="shared" ref="C20:H20" si="0">C2</f>
         <v>Charles Stoll</v>
@@ -2947,7 +2985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5" thickBot="1">
+    <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="9">
         <f>SUMIF(K3:K17,C20,J3:J17)</f>
         <v>10</v>
@@ -2977,783 +3015,816 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="23" spans="1:11" ht="36.75" thickBot="1">
+    <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="106"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
-    </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1">
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="106"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="103"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" thickBot="1">
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="116"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="106"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="106"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="106"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="103"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="C41" s="117"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="106"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="106"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="116"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="106"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="116"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="106"/>
-    </row>
-    <row r="46" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="116"/>
+    </row>
+    <row r="46" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="106"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="103"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="C47" s="117"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="116"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="116"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="106"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="106"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="106"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="116"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="106"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="116"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="103"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="106"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="106"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="116"/>
+    </row>
+    <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="106"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="103"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="106"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="116"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="106"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="104" t="s">
+      <c r="C62" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="106"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="116"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C63" s="117"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
+    </row>
+    <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="106"/>
-    </row>
-    <row r="65" spans="1:8" ht="25.5" customHeight="1">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="116"/>
+    </row>
+    <row r="65" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="104" t="s">
+      <c r="C66" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="106"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="116"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="106"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
+      <c r="G67" s="115"/>
+      <c r="H67" s="116"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="106"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="D68" s="115"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="116"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="101"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="103"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="106"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="D70" s="115"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="116"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="106"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D71" s="115"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="116"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="106"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="D72" s="115"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="116"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="101"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="103"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="C73" s="117"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="119"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="106"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="116"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="106"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D75" s="115"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="115"/>
+      <c r="H75" s="116"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
-    </row>
-    <row r="77" spans="1:8" ht="25.5">
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="116"/>
+    </row>
+    <row r="77" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="101"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="103"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="C77" s="117"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="119"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="104" t="s">
+      <c r="C78" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="105"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="106"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D78" s="115"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="115"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="116"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="104" t="s">
+      <c r="C79" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="106"/>
-    </row>
-    <row r="80" spans="1:8" ht="25.5">
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="116"/>
+    </row>
+    <row r="80" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="101"/>
-      <c r="D80" s="102"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="103"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="C80" s="117"/>
+      <c r="D80" s="118"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="119"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="107" t="s">
+      <c r="C81" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
-      <c r="G81" s="108"/>
-      <c r="H81" s="109"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="110"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="107" t="s">
+      <c r="C82" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="108"/>
-      <c r="H82" s="109"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="110"/>
+    </row>
+    <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="110" t="s">
+      <c r="C83" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="111"/>
-      <c r="E83" s="111"/>
-      <c r="F83" s="111"/>
-      <c r="G83" s="111"/>
-      <c r="H83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
@@ -3766,54 +3837,21 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -3833,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3843,7 +3881,7 @@
       <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="114.85546875" style="66" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="40" customWidth="1"/>
@@ -3858,7 +3896,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>231</v>
       </c>
@@ -3869,7 +3907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1">
+    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
@@ -3906,7 +3944,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
         <v>230</v>
       </c>
@@ -3933,7 +3971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="80" t="s">
         <v>227</v>
       </c>
@@ -3960,7 +3998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="80" t="s">
         <v>222</v>
       </c>
@@ -3987,7 +4025,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="80" t="s">
         <v>217</v>
       </c>
@@ -4014,7 +4052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="80" t="s">
         <v>214</v>
       </c>
@@ -4041,7 +4079,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
         <v>209</v>
       </c>
@@ -4068,7 +4106,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>206</v>
       </c>
@@ -4095,7 +4133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
         <v>199</v>
       </c>
@@ -4122,7 +4160,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
         <v>195</v>
       </c>
@@ -4149,7 +4187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>194</v>
       </c>
@@ -4176,7 +4214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
         <v>188</v>
       </c>
@@ -4203,7 +4241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="68" t="s">
         <v>185</v>
       </c>
@@ -4230,7 +4268,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="68" t="s">
         <v>179</v>
       </c>
@@ -4257,7 +4295,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
         <v>174</v>
       </c>
@@ -4284,7 +4322,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
         <v>173</v>
       </c>
@@ -4311,7 +4349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="77" t="s">
         <v>168</v>
       </c>
@@ -4338,7 +4376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="77" t="s">
         <v>161</v>
       </c>
@@ -4365,7 +4403,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="77" t="s">
         <v>157</v>
       </c>
@@ -4392,7 +4430,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="77" t="s">
         <v>152</v>
       </c>
@@ -4419,7 +4457,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="77" t="s">
         <v>146</v>
       </c>
@@ -4446,7 +4484,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="77" t="s">
         <v>143</v>
       </c>
@@ -4473,7 +4511,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="77" t="s">
         <v>142</v>
       </c>
@@ -4500,7 +4538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="77" t="s">
         <v>139</v>
       </c>
@@ -4527,7 +4565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="77" t="s">
         <v>133</v>
       </c>
@@ -4554,7 +4592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1">
+    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78" t="s">
         <v>128</v>
       </c>
@@ -4581,17 +4619,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.75" thickBot="1">
+    <row r="29" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18.75" thickBot="1">
+    <row r="30" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="75" t="str">
         <f t="shared" ref="C30:H30" si="0">C2</f>
         <v>Charles Stoll</v>
@@ -4620,7 +4658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5" thickBot="1">
+    <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="73">
         <f>SUMIF(K3:K27,C30,J3:J27)</f>
         <v>42</v>
@@ -4650,2071 +4688,2155 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="33" spans="1:8" s="40" customFormat="1" ht="36.75" thickBot="1">
+    <row r="32" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" s="40" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="71" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="124"/>
-    </row>
-    <row r="34" spans="1:8" s="40" customFormat="1">
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="134"/>
+    </row>
+    <row r="34" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="69" t="s">
         <v>230</v>
       </c>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
-    </row>
-    <row r="35" spans="1:8" s="40" customFormat="1">
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="131"/>
+    </row>
+    <row r="35" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
-    </row>
-    <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+    </row>
+    <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-    </row>
-    <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
+    </row>
+    <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="115"/>
-    </row>
-    <row r="38" spans="1:8" s="40" customFormat="1">
+      <c r="C37" s="129"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="131"/>
+    </row>
+    <row r="38" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="F38" s="117" t="s">
+      <c r="F38" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="H38" s="118" t="s">
+      <c r="H38" s="128" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="116" t="s">
+      <c r="C39" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="117" t="s">
+      <c r="D39" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="117" t="s">
+      <c r="E39" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="117" t="s">
+      <c r="F39" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="117" t="s">
+      <c r="G39" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="H39" s="118" t="s">
+      <c r="H39" s="128" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="116" t="s">
+      <c r="C40" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="117" t="s">
+      <c r="E40" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="F40" s="117" t="s">
+      <c r="F40" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="G40" s="117" t="s">
+      <c r="G40" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="118" t="s">
+      <c r="H40" s="128" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="120" t="s">
+      <c r="E41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="120" t="s">
+      <c r="F41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="121" t="s">
+      <c r="H41" s="125" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="40" customFormat="1">
+    <row r="42" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="69" t="s">
         <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="115"/>
-    </row>
-    <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C42" s="129"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="131"/>
+    </row>
+    <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="116" t="s">
+      <c r="C43" s="126" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="117" t="s">
+      <c r="D43" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="117" t="s">
+      <c r="E43" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="117" t="s">
+      <c r="F43" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="118" t="s">
+      <c r="H43" s="128" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="D44" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="117" t="s">
+      <c r="E44" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="117" t="s">
+      <c r="F44" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="G44" s="117" t="s">
+      <c r="G44" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="H44" s="118" t="s">
+      <c r="H44" s="128" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="116" t="s">
+      <c r="C45" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="117" t="s">
+      <c r="E45" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="117" t="s">
+      <c r="F45" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="117" t="s">
+      <c r="G45" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="118" t="s">
+      <c r="H45" s="128" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="68"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="117" t="s">
+      <c r="D46" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="117" t="s">
+      <c r="E46" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="F46" s="117" t="s">
+      <c r="F46" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="G46" s="117" t="s">
+      <c r="G46" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="H46" s="118" t="s">
+      <c r="H46" s="128" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="120" t="s">
+      <c r="D47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="120" t="s">
+      <c r="E47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="120" t="s">
+      <c r="F47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="120" t="s">
+      <c r="G47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="121" t="s">
+      <c r="H47" s="125" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="40" customFormat="1">
+    <row r="48" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="70" t="s">
         <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="115"/>
-    </row>
-    <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C48" s="129"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="131"/>
+    </row>
+    <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="120" t="s">
+      <c r="E49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="120" t="s">
+      <c r="F49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="120" t="s">
+      <c r="G49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="121" t="s">
+      <c r="H49" s="125" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="40" customFormat="1">
+    <row r="50" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="69" t="s">
         <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="115"/>
-    </row>
-    <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C50" s="129"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="131"/>
+    </row>
+    <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="116" t="s">
+      <c r="C51" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="118"/>
-    </row>
-    <row r="52" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="128"/>
+    </row>
+    <row r="52" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="118"/>
-    </row>
-    <row r="53" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="128"/>
+    </row>
+    <row r="53" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
-      <c r="C53" s="116" t="s">
+      <c r="C53" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="118"/>
-    </row>
-    <row r="54" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="128"/>
+    </row>
+    <row r="54" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="116" t="s">
+      <c r="C54" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="118"/>
-    </row>
-    <row r="55" spans="1:8" s="40" customFormat="1">
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="128"/>
+    </row>
+    <row r="55" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="69" t="s">
         <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="115"/>
-    </row>
-    <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="131"/>
+    </row>
+    <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="117" t="s">
+      <c r="D56" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="E56" s="117" t="s">
+      <c r="E56" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="117" t="s">
+      <c r="F56" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="117" t="s">
+      <c r="G56" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="H56" s="118" t="s">
+      <c r="H56" s="128" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="117" t="s">
+      <c r="D57" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="117" t="s">
+      <c r="E57" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="F57" s="117" t="s">
+      <c r="F57" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="G57" s="117" t="s">
+      <c r="G57" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="118" t="s">
+      <c r="H57" s="128" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="40" customFormat="1">
+    <row r="58" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="69" t="s">
         <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="115"/>
-    </row>
-    <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C58" s="129"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="131"/>
+    </row>
+    <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
-      <c r="C59" s="116" t="s">
+      <c r="C59" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="117" t="s">
+      <c r="D59" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="117" t="s">
+      <c r="E59" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="117" t="s">
+      <c r="F59" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="G59" s="117" t="s">
+      <c r="G59" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="H59" s="118" t="s">
+      <c r="H59" s="128" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+    <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
-      <c r="C60" s="116" t="s">
+      <c r="C60" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="D60" s="117" t="s">
+      <c r="D60" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="E60" s="117" t="s">
+      <c r="E60" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="117" t="s">
+      <c r="F60" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="G60" s="117" t="s">
+      <c r="G60" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="118" t="s">
+      <c r="H60" s="128" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+    <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="68"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="116" t="s">
+      <c r="C61" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="117" t="s">
+      <c r="D61" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="117" t="s">
+      <c r="E61" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="F61" s="117" t="s">
+      <c r="F61" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="117" t="s">
+      <c r="G61" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="118" t="s">
+      <c r="H61" s="128" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+    <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="116" t="s">
+      <c r="C62" s="126" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="117" t="s">
+      <c r="D62" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="E62" s="117" t="s">
+      <c r="E62" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="117" t="s">
+      <c r="F62" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="G62" s="117" t="s">
+      <c r="G62" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="H62" s="118" t="s">
+      <c r="H62" s="128" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+    <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
-      <c r="C63" s="116" t="s">
+      <c r="C63" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="117" t="s">
+      <c r="D63" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="117" t="s">
+      <c r="E63" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="117" t="s">
+      <c r="F63" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="G63" s="117" t="s">
+      <c r="G63" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="H63" s="118" t="s">
+      <c r="H63" s="128" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="119" t="s">
+      <c r="C64" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="120" t="s">
+      <c r="D64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="120" t="s">
+      <c r="E64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="120" t="s">
+      <c r="F64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="120" t="s">
+      <c r="G64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="121" t="s">
+      <c r="H64" s="125" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="40" customFormat="1">
+    <row r="65" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="69" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="115"/>
-    </row>
-    <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C65" s="129"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="131"/>
+    </row>
+    <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="68"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="116" t="s">
+      <c r="C66" s="126" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="117" t="s">
+      <c r="D66" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="117" t="s">
+      <c r="E66" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="117" t="s">
+      <c r="F66" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="G66" s="117" t="s">
+      <c r="G66" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="H66" s="118" t="s">
+      <c r="H66" s="128" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
-      <c r="C67" s="116" t="s">
+      <c r="C67" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="117" t="s">
+      <c r="D67" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="117" t="s">
+      <c r="E67" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="117" t="s">
+      <c r="F67" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="G67" s="117" t="s">
+      <c r="G67" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="H67" s="118" t="s">
+      <c r="H67" s="128" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="119" t="s">
+      <c r="C68" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="120" t="s">
+      <c r="D68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="120" t="s">
+      <c r="E68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="120" t="s">
+      <c r="G68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="121" t="s">
+      <c r="H68" s="125" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
+    <row r="69" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="69" t="s">
         <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="115"/>
-    </row>
-    <row r="70" spans="1:8" s="40" customFormat="1">
+      <c r="C69" s="129"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="131"/>
+    </row>
+    <row r="70" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="115"/>
-    </row>
-    <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C70" s="129"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="131"/>
+    </row>
+    <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="116" t="s">
+      <c r="C71" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="117" t="s">
+      <c r="D71" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="E71" s="117" t="s">
+      <c r="E71" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="F71" s="117" t="s">
+      <c r="F71" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="G71" s="117" t="s">
+      <c r="G71" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="H71" s="118" t="s">
+      <c r="H71" s="128" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="117" t="s">
+      <c r="D72" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="117" t="s">
+      <c r="E72" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="117" t="s">
+      <c r="F72" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="117" t="s">
+      <c r="G72" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="H72" s="118" t="s">
+      <c r="H72" s="128" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="68"/>
       <c r="B73" s="68"/>
-      <c r="C73" s="116" t="s">
+      <c r="C73" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="117" t="s">
+      <c r="D73" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="E73" s="117" t="s">
+      <c r="E73" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="117" t="s">
+      <c r="F73" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="G73" s="117" t="s">
+      <c r="G73" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="H73" s="118" t="s">
+      <c r="H73" s="128" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
-      <c r="C74" s="116" t="s">
+      <c r="C74" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="117" t="s">
+      <c r="D74" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="117" t="s">
+      <c r="E74" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="F74" s="117" t="s">
+      <c r="F74" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="117" t="s">
+      <c r="G74" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="118" t="s">
+      <c r="H74" s="128" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="119" t="s">
+      <c r="C75" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="120" t="s">
+      <c r="D75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="120" t="s">
+      <c r="E75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="120" t="s">
+      <c r="F75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="120" t="s">
+      <c r="G75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H75" s="121" t="s">
+      <c r="H75" s="125" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="40" customFormat="1">
+    <row r="76" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="69" t="s">
         <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="115"/>
-    </row>
-    <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C76" s="129"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="131"/>
+    </row>
+    <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="116" t="s">
+      <c r="C77" s="126" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="117" t="s">
+      <c r="D77" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="E77" s="117" t="s">
+      <c r="E77" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="F77" s="117" t="s">
+      <c r="F77" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="117" t="s">
+      <c r="G77" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="H77" s="118" t="s">
+      <c r="H77" s="128" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="119" t="s">
+      <c r="C78" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="120" t="s">
+      <c r="E78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="120" t="s">
+      <c r="F78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="120" t="s">
+      <c r="G78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="121" t="s">
+      <c r="H78" s="125" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="40" customFormat="1">
+    <row r="79" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="69" t="s">
         <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="115"/>
-    </row>
-    <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C79" s="129"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="130"/>
+      <c r="G79" s="130"/>
+      <c r="H79" s="131"/>
+    </row>
+    <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
-      <c r="C80" s="116" t="s">
+      <c r="C80" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="117" t="s">
+      <c r="D80" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="E80" s="117" t="s">
+      <c r="E80" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="F80" s="117" t="s">
+      <c r="F80" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="G80" s="117" t="s">
+      <c r="G80" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="H80" s="118" t="s">
+      <c r="H80" s="128" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="68"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="116" t="s">
+      <c r="C81" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="117" t="s">
+      <c r="D81" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="117" t="s">
+      <c r="E81" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="F81" s="117" t="s">
+      <c r="F81" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="117" t="s">
+      <c r="G81" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="H81" s="118" t="s">
+      <c r="H81" s="128" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
-      <c r="C82" s="116" t="s">
+      <c r="C82" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="117" t="s">
+      <c r="E82" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="F82" s="117" t="s">
+      <c r="F82" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="G82" s="117" t="s">
+      <c r="G82" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="118" t="s">
+      <c r="H82" s="128" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
-      <c r="C83" s="116" t="s">
+      <c r="C83" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="D83" s="117" t="s">
+      <c r="D83" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="117" t="s">
+      <c r="E83" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="117" t="s">
+      <c r="F83" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="117" t="s">
+      <c r="G83" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="H83" s="118" t="s">
+      <c r="H83" s="128" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="119" t="s">
+      <c r="C84" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="120" t="s">
+      <c r="D84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="120" t="s">
+      <c r="E84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="120" t="s">
+      <c r="F84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="G84" s="120" t="s">
+      <c r="G84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="121" t="s">
+      <c r="H84" s="125" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="40" customFormat="1">
+    <row r="85" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="69" t="s">
         <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="113"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-      <c r="H85" s="115"/>
-    </row>
-    <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C85" s="129"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="131"/>
+    </row>
+    <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="116" t="s">
+      <c r="C86" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="117" t="s">
+      <c r="D86" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="E86" s="117" t="s">
+      <c r="E86" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="117" t="s">
+      <c r="F86" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="G86" s="117" t="s">
+      <c r="G86" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="H86" s="118" t="s">
+      <c r="H86" s="128" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="68"/>
       <c r="B87" s="68"/>
-      <c r="C87" s="116" t="s">
+      <c r="C87" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="117" t="s">
+      <c r="D87" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="117" t="s">
+      <c r="E87" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="F87" s="117" t="s">
+      <c r="F87" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="G87" s="117" t="s">
+      <c r="G87" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="H87" s="118" t="s">
+      <c r="H87" s="128" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="68"/>
       <c r="B88" s="68"/>
-      <c r="C88" s="116" t="s">
+      <c r="C88" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="117" t="s">
+      <c r="D88" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="117" t="s">
+      <c r="E88" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="117" t="s">
+      <c r="F88" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="G88" s="117" t="s">
+      <c r="G88" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="118" t="s">
+      <c r="H88" s="128" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="119" t="s">
+      <c r="C89" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="120" t="s">
+      <c r="D89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="120" t="s">
+      <c r="E89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="120" t="s">
+      <c r="F89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="120" t="s">
+      <c r="G89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="H89" s="121" t="s">
+      <c r="H89" s="125" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
+    <row r="90" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="69" t="s">
         <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="115"/>
-    </row>
-    <row r="91" spans="1:8" s="40" customFormat="1">
+      <c r="C90" s="129"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="131"/>
+    </row>
+    <row r="91" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="114"/>
-      <c r="H91" s="115"/>
-    </row>
-    <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C91" s="129"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="130"/>
+      <c r="G91" s="130"/>
+      <c r="H91" s="131"/>
+    </row>
+    <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="68"/>
       <c r="B92" s="68"/>
-      <c r="C92" s="116" t="s">
+      <c r="C92" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="D92" s="117" t="s">
+      <c r="D92" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="117" t="s">
+      <c r="E92" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="117" t="s">
+      <c r="F92" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="G92" s="117" t="s">
+      <c r="G92" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="H92" s="118" t="s">
+      <c r="H92" s="128" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="68"/>
       <c r="B93" s="68"/>
-      <c r="C93" s="116" t="s">
+      <c r="C93" s="126" t="s">
         <v>171</v>
       </c>
-      <c r="D93" s="117" t="s">
+      <c r="D93" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="117" t="s">
+      <c r="E93" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F93" s="117" t="s">
+      <c r="F93" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="G93" s="117" t="s">
+      <c r="G93" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="H93" s="118" t="s">
+      <c r="H93" s="128" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="68"/>
       <c r="B94" s="68"/>
-      <c r="C94" s="116" t="s">
+      <c r="C94" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="117" t="s">
+      <c r="D94" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="E94" s="117" t="s">
+      <c r="E94" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F94" s="117" t="s">
+      <c r="F94" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="G94" s="117" t="s">
+      <c r="G94" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="H94" s="118" t="s">
+      <c r="H94" s="128" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="119" t="s">
+      <c r="C95" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="120" t="s">
+      <c r="D95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="120" t="s">
+      <c r="E95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="120" t="s">
+      <c r="F95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="120" t="s">
+      <c r="G95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="121" t="s">
+      <c r="H95" s="125" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="40" customFormat="1">
+    <row r="96" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="69" t="s">
         <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="115"/>
-    </row>
-    <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C96" s="129"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="130"/>
+      <c r="G96" s="130"/>
+      <c r="H96" s="131"/>
+    </row>
+    <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="68"/>
       <c r="B97" s="68"/>
-      <c r="C97" s="116" t="s">
+      <c r="C97" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="117" t="s">
+      <c r="D97" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="117" t="s">
+      <c r="E97" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="117" t="s">
+      <c r="F97" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="G97" s="117" t="s">
+      <c r="G97" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="H97" s="118" t="s">
+      <c r="H97" s="128" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="116" t="s">
+      <c r="C98" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="117" t="s">
+      <c r="D98" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="E98" s="117" t="s">
+      <c r="E98" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="F98" s="117" t="s">
+      <c r="F98" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="G98" s="117" t="s">
+      <c r="G98" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="H98" s="118" t="s">
+      <c r="H98" s="128" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="68"/>
       <c r="B99" s="68"/>
-      <c r="C99" s="116" t="s">
+      <c r="C99" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="117" t="s">
+      <c r="D99" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="E99" s="117" t="s">
+      <c r="E99" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="F99" s="117" t="s">
+      <c r="F99" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="G99" s="117" t="s">
+      <c r="G99" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="H99" s="118" t="s">
+      <c r="H99" s="128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="68"/>
       <c r="B100" s="68"/>
-      <c r="C100" s="116" t="s">
+      <c r="C100" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="D100" s="117" t="s">
+      <c r="D100" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="E100" s="117" t="s">
+      <c r="E100" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="F100" s="117" t="s">
+      <c r="F100" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="G100" s="117" t="s">
+      <c r="G100" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="H100" s="118" t="s">
+      <c r="H100" s="128" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+    <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="68"/>
       <c r="B101" s="68"/>
-      <c r="C101" s="116" t="s">
+      <c r="C101" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="D101" s="117" t="s">
+      <c r="D101" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="117" t="s">
+      <c r="E101" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="F101" s="117" t="s">
+      <c r="F101" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="G101" s="117" t="s">
+      <c r="G101" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="H101" s="118" t="s">
+      <c r="H101" s="128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="119" t="s">
+      <c r="C102" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="120" t="s">
+      <c r="D102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="120" t="s">
+      <c r="E102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="120" t="s">
+      <c r="F102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G102" s="120" t="s">
+      <c r="G102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="121" t="s">
+      <c r="H102" s="125" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="40" customFormat="1">
+    <row r="103" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="69" t="s">
         <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
-      <c r="G103" s="114"/>
-      <c r="H103" s="115"/>
-    </row>
-    <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C103" s="129"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="130"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="131"/>
+    </row>
+    <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="68"/>
       <c r="B104" s="68"/>
-      <c r="C104" s="116" t="s">
+      <c r="C104" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="D104" s="117" t="s">
+      <c r="D104" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="E104" s="117" t="s">
+      <c r="E104" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="F104" s="117" t="s">
+      <c r="F104" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="G104" s="117" t="s">
+      <c r="G104" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="H104" s="118" t="s">
+      <c r="H104" s="128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="68"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="116" t="s">
+      <c r="C105" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="117" t="s">
+      <c r="D105" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="117" t="s">
+      <c r="E105" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="F105" s="117" t="s">
+      <c r="F105" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="G105" s="117" t="s">
+      <c r="G105" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="H105" s="118" t="s">
+      <c r="H105" s="128" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="119" t="s">
+      <c r="C106" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="120" t="s">
+      <c r="D106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="120" t="s">
+      <c r="E106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="120" t="s">
+      <c r="F106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="120" t="s">
+      <c r="G106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="H106" s="121" t="s">
+      <c r="H106" s="125" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="40" customFormat="1">
+    <row r="107" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="69" t="s">
         <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="114"/>
-      <c r="H107" s="115"/>
-    </row>
-    <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C107" s="129"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="130"/>
+      <c r="G107" s="130"/>
+      <c r="H107" s="131"/>
+    </row>
+    <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="68"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="116" t="s">
+      <c r="C108" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="117" t="s">
+      <c r="D108" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="117" t="s">
+      <c r="E108" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="F108" s="117" t="s">
+      <c r="F108" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="G108" s="117" t="s">
+      <c r="G108" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="H108" s="118" t="s">
+      <c r="H108" s="128" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="68"/>
       <c r="B109" s="68"/>
-      <c r="C109" s="116" t="s">
+      <c r="C109" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="117" t="s">
+      <c r="D109" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="E109" s="117" t="s">
+      <c r="E109" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="F109" s="117" t="s">
+      <c r="F109" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="G109" s="117" t="s">
+      <c r="G109" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="H109" s="118" t="s">
+      <c r="H109" s="128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="68"/>
       <c r="B110" s="68"/>
-      <c r="C110" s="116" t="s">
+      <c r="C110" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="D110" s="117" t="s">
+      <c r="D110" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="E110" s="117" t="s">
+      <c r="E110" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="F110" s="117" t="s">
+      <c r="F110" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="G110" s="117" t="s">
+      <c r="G110" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H110" s="118" t="s">
+      <c r="H110" s="128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="119" t="s">
+      <c r="C111" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="120" t="s">
+      <c r="D111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="120" t="s">
+      <c r="E111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="120" t="s">
+      <c r="F111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="120" t="s">
+      <c r="G111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="121" t="s">
+      <c r="H111" s="125" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="40" customFormat="1">
+    <row r="112" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="69" t="s">
         <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="114"/>
-      <c r="H112" s="115"/>
-    </row>
-    <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C112" s="129"/>
+      <c r="D112" s="130"/>
+      <c r="E112" s="130"/>
+      <c r="F112" s="130"/>
+      <c r="G112" s="130"/>
+      <c r="H112" s="131"/>
+    </row>
+    <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="68"/>
       <c r="B113" s="68"/>
-      <c r="C113" s="116" t="s">
+      <c r="C113" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="117" t="s">
+      <c r="D113" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="E113" s="117" t="s">
+      <c r="E113" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="F113" s="117" t="s">
+      <c r="F113" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="117" t="s">
+      <c r="G113" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="H113" s="118" t="s">
+      <c r="H113" s="128" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="68"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="116" t="s">
+      <c r="C114" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="D114" s="117" t="s">
+      <c r="D114" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="117" t="s">
+      <c r="F114" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="G114" s="117" t="s">
+      <c r="G114" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="H114" s="118" t="s">
+      <c r="H114" s="128" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="68"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="116" t="s">
+      <c r="C115" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="D115" s="117" t="s">
+      <c r="D115" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="E115" s="117" t="s">
+      <c r="E115" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="F115" s="117" t="s">
+      <c r="F115" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="G115" s="117" t="s">
+      <c r="G115" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="H115" s="118" t="s">
+      <c r="H115" s="128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="68"/>
       <c r="B116" s="68"/>
-      <c r="C116" s="116" t="s">
+      <c r="C116" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="D116" s="117" t="s">
+      <c r="D116" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="E116" s="117" t="s">
+      <c r="E116" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="F116" s="117" t="s">
+      <c r="F116" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="G116" s="117" t="s">
+      <c r="G116" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="H116" s="118" t="s">
+      <c r="H116" s="128" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="119" t="s">
+      <c r="C117" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="120" t="s">
+      <c r="D117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="120" t="s">
+      <c r="E117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="120" t="s">
+      <c r="F117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="G117" s="120" t="s">
+      <c r="G117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H117" s="121" t="s">
+      <c r="H117" s="125" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="40" customFormat="1">
+    <row r="118" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="69" t="s">
         <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="113"/>
-      <c r="D118" s="114"/>
-      <c r="E118" s="114"/>
-      <c r="F118" s="114"/>
-      <c r="G118" s="114"/>
-      <c r="H118" s="115"/>
-    </row>
-    <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C118" s="129"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="130"/>
+      <c r="G118" s="130"/>
+      <c r="H118" s="131"/>
+    </row>
+    <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="68"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="116" t="s">
+      <c r="C119" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="D119" s="117" t="s">
+      <c r="D119" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="E119" s="117" t="s">
+      <c r="E119" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="F119" s="117" t="s">
+      <c r="F119" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="G119" s="117" t="s">
+      <c r="G119" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="H119" s="118" t="s">
+      <c r="H119" s="128" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="119" t="s">
+      <c r="C120" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="120" t="s">
+      <c r="D120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="120" t="s">
+      <c r="E120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="120" t="s">
+      <c r="F120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="120" t="s">
+      <c r="G120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="121" t="s">
+      <c r="H120" s="125" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="40" customFormat="1">
+    <row r="121" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="69" t="s">
         <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
-      <c r="F121" s="114"/>
-      <c r="G121" s="114"/>
-      <c r="H121" s="115"/>
-    </row>
-    <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
+      <c r="C121" s="129"/>
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="130"/>
+      <c r="H121" s="131"/>
+    </row>
+    <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
       <c r="B122" s="68"/>
-      <c r="C122" s="116" t="s">
+      <c r="C122" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="D122" s="117" t="s">
+      <c r="D122" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="E122" s="117" t="s">
+      <c r="E122" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="F122" s="117" t="s">
+      <c r="F122" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="G122" s="117" t="s">
+      <c r="G122" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="H122" s="118" t="s">
+      <c r="H122" s="128" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
+    <row r="123" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="69" t="s">
         <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="113"/>
-      <c r="D123" s="114"/>
-      <c r="E123" s="114"/>
-      <c r="F123" s="114"/>
-      <c r="G123" s="114"/>
-      <c r="H123" s="115"/>
-    </row>
-    <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C123" s="129"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="130"/>
+      <c r="G123" s="130"/>
+      <c r="H123" s="131"/>
+    </row>
+    <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
       <c r="B124" s="68"/>
-      <c r="C124" s="116" t="s">
+      <c r="C124" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="D124" s="117" t="s">
+      <c r="D124" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="E124" s="117" t="s">
+      <c r="E124" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="117" t="s">
+      <c r="F124" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="G124" s="117" t="s">
+      <c r="G124" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="H124" s="118" t="s">
+      <c r="H124" s="128" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="40" customFormat="1">
+    <row r="125" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="69" t="s">
         <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="114"/>
-      <c r="E125" s="114"/>
-      <c r="F125" s="114"/>
-      <c r="G125" s="114"/>
-      <c r="H125" s="115"/>
-    </row>
-    <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C125" s="129"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="130"/>
+      <c r="F125" s="130"/>
+      <c r="G125" s="130"/>
+      <c r="H125" s="131"/>
+    </row>
+    <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="68"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="116" t="s">
+      <c r="C126" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="117" t="s">
+      <c r="D126" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="E126" s="117" t="s">
+      <c r="E126" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="F126" s="117" t="s">
+      <c r="F126" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="G126" s="117" t="s">
+      <c r="G126" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="H126" s="118" t="s">
+      <c r="H126" s="128" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="68"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="116" t="s">
+      <c r="C127" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="D127" s="117" t="s">
+      <c r="D127" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="117" t="s">
+      <c r="E127" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="F127" s="117" t="s">
+      <c r="F127" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="G127" s="117" t="s">
+      <c r="G127" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="H127" s="118" t="s">
+      <c r="H127" s="128" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="68"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="116" t="s">
+      <c r="C128" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="D128" s="117" t="s">
+      <c r="D128" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="117" t="s">
+      <c r="E128" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="F128" s="117" t="s">
+      <c r="F128" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="G128" s="117" t="s">
+      <c r="G128" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="H128" s="118" t="s">
+      <c r="H128" s="128" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="68"/>
       <c r="B129" s="68"/>
-      <c r="C129" s="116" t="s">
+      <c r="C129" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="117" t="s">
+      <c r="D129" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="E129" s="117" t="s">
+      <c r="E129" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="F129" s="117" t="s">
+      <c r="F129" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="G129" s="117" t="s">
+      <c r="G129" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="H129" s="118" t="s">
+      <c r="H129" s="128" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="119" t="s">
+      <c r="C130" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="120" t="s">
+      <c r="D130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="120" t="s">
+      <c r="E130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="120" t="s">
+      <c r="F130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="120" t="s">
+      <c r="G130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="H130" s="121" t="s">
+      <c r="H130" s="125" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="40" customFormat="1">
+    <row r="131" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="69" t="s">
         <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="114"/>
-      <c r="E131" s="114"/>
-      <c r="F131" s="114"/>
-      <c r="G131" s="114"/>
-      <c r="H131" s="115"/>
-    </row>
-    <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C131" s="129"/>
+      <c r="D131" s="130"/>
+      <c r="E131" s="130"/>
+      <c r="F131" s="130"/>
+      <c r="G131" s="130"/>
+      <c r="H131" s="131"/>
+    </row>
+    <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68"/>
       <c r="B132" s="68"/>
-      <c r="C132" s="116" t="s">
+      <c r="C132" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="117" t="s">
+      <c r="D132" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="E132" s="117" t="s">
+      <c r="E132" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="F132" s="117" t="s">
+      <c r="F132" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="G132" s="117" t="s">
+      <c r="G132" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="H132" s="118" t="s">
+      <c r="H132" s="128" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="68"/>
       <c r="B133" s="68"/>
-      <c r="C133" s="116" t="s">
+      <c r="C133" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="117" t="s">
+      <c r="D133" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="E133" s="117" t="s">
+      <c r="E133" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="F133" s="117" t="s">
+      <c r="F133" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="G133" s="117" t="s">
+      <c r="G133" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="H133" s="118" t="s">
+      <c r="H133" s="128" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="68"/>
       <c r="B134" s="68"/>
-      <c r="C134" s="116" t="s">
+      <c r="C134" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="D134" s="117" t="s">
+      <c r="D134" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="E134" s="117" t="s">
+      <c r="E134" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="F134" s="117" t="s">
+      <c r="F134" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="G134" s="117" t="s">
+      <c r="G134" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="H134" s="118" t="s">
+      <c r="H134" s="128" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="119" t="s">
+      <c r="C135" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="120" t="s">
+      <c r="D135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="120" t="s">
+      <c r="E135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="120" t="s">
+      <c r="F135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="120" t="s">
+      <c r="G135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="121" t="s">
+      <c r="H135" s="125" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="40" customFormat="1">
+    <row r="136" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="69" t="s">
         <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="113"/>
-      <c r="D136" s="114"/>
-      <c r="E136" s="114"/>
-      <c r="F136" s="114"/>
-      <c r="G136" s="114"/>
-      <c r="H136" s="115"/>
-    </row>
-    <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C136" s="129"/>
+      <c r="D136" s="130"/>
+      <c r="E136" s="130"/>
+      <c r="F136" s="130"/>
+      <c r="G136" s="130"/>
+      <c r="H136" s="131"/>
+    </row>
+    <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="68"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="116" t="s">
+      <c r="C137" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="117" t="s">
+      <c r="D137" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="E137" s="117" t="s">
+      <c r="E137" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="F137" s="117" t="s">
+      <c r="F137" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="G137" s="117" t="s">
+      <c r="G137" s="127" t="s">
         <v>127</v>
       </c>
-      <c r="H137" s="118" t="s">
+      <c r="H137" s="128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="68"/>
       <c r="B138" s="68"/>
-      <c r="C138" s="116" t="s">
+      <c r="C138" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="117" t="s">
+      <c r="D138" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="E138" s="117" t="s">
+      <c r="E138" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="F138" s="117" t="s">
+      <c r="F138" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="117" t="s">
+      <c r="G138" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="H138" s="118" t="s">
+      <c r="H138" s="128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
+    <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="68"/>
       <c r="B139" s="68"/>
-      <c r="C139" s="116" t="s">
+      <c r="C139" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="D139" s="117" t="s">
+      <c r="D139" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="E139" s="117" t="s">
+      <c r="E139" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="F139" s="117" t="s">
+      <c r="F139" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="G139" s="117" t="s">
+      <c r="G139" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="H139" s="118" t="s">
+      <c r="H139" s="128" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="119" t="s">
+      <c r="C140" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D140" s="120" t="s">
+      <c r="D140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="120" t="s">
+      <c r="E140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="F140" s="120" t="s">
+      <c r="F140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="G140" s="120" t="s">
+      <c r="G140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="121" t="s">
+      <c r="H140" s="125" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="C135:H135"/>
@@ -6739,114 +6861,30 @@
     <mergeCell ref="C55:H55"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -6854,18 +6892,18 @@
   <conditionalFormatting sqref="A37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J27 C3:H27">
-      <formula1>value_in_hours</formula1>
+      <formula1>'S2 Allocation'!value_in_hours</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K27">
-      <formula1>student_names</formula1>
+      <formula1>'S2 Allocation'!student_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6875,7 +6913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -6885,7 +6923,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="100.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -6899,7 +6937,7 @@
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>111</v>
       </c>
@@ -6910,7 +6948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1">
+    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
@@ -6946,7 +6984,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>232</v>
       </c>
@@ -6971,7 +7009,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>233</v>
       </c>
@@ -6996,7 +7034,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>234</v>
       </c>
@@ -7021,7 +7059,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>235</v>
       </c>
@@ -7046,7 +7084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>236</v>
       </c>
@@ -7071,7 +7109,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>237</v>
       </c>
@@ -7096,7 +7134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>238</v>
       </c>
@@ -7121,7 +7159,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>239</v>
       </c>
@@ -7146,7 +7184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>240</v>
       </c>
@@ -7171,7 +7209,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>241</v>
       </c>
@@ -7196,7 +7234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>242</v>
       </c>
@@ -7221,7 +7259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>243</v>
       </c>
@@ -7246,7 +7284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>244</v>
       </c>
@@ -7271,7 +7309,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>245</v>
       </c>
@@ -7296,7 +7334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>246</v>
       </c>
@@ -7321,7 +7359,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>247</v>
       </c>
@@ -7346,7 +7384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>248</v>
       </c>
@@ -7371,7 +7409,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>249</v>
       </c>
@@ -7396,7 +7434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>250</v>
       </c>
@@ -7421,7 +7459,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>251</v>
       </c>
@@ -7446,7 +7484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>252</v>
       </c>
@@ -7471,7 +7509,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5" thickBot="1">
+    <row r="24" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
@@ -7496,17 +7534,17 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.75" thickBot="1">
+    <row r="26" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18.75" thickBot="1">
+    <row r="27" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="15" t="str">
         <f t="shared" ref="C27:H27" si="0">C2</f>
         <v>Ben Bair</v>
@@ -7535,7 +7573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5" thickBot="1">
+    <row r="28" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="9">
         <f>SUMIF(K3:K24,C27,J3:J24)</f>
         <v>40</v>
@@ -7565,905 +7603,924 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="30" spans="1:11" ht="36.75" thickBot="1">
+    <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="str">
         <f>A3</f>
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="str">
         <f>A4</f>
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="str">
         <f>A5</f>
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="127"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="137"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="127"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="137"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="127"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="137"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="127"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="137"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="127"/>
-    </row>
-    <row r="43" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="137"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="125" t="s">
+      <c r="C43" s="135" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="127"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="137"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="str">
         <f>A6</f>
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="106"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="116"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="106"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="114" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="106"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="116"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="114" t="s">
         <v>266</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="116"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="str">
         <f>A7</f>
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="114" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="106"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="106"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="str">
         <f>A8</f>
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C53" s="117"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="106"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="116"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>A9</f>
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="103"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="104" t="s">
+      <c r="C56" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="106"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="str">
         <f>A10</f>
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="117"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="119"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="106"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="114" t="s">
         <v>274</v>
       </c>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="106"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="116"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="104" t="s">
+      <c r="C60" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="106"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="116"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="104" t="s">
+      <c r="C61" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="106"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="str">
         <f>A11</f>
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="104" t="s">
+      <c r="C63" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="106"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="116"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="106"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="116"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="114" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="106"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="str">
         <f>A12</f>
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="103"/>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+      <c r="C66" s="117"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="str">
         <f>A13</f>
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="103"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C67" s="117"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="104" t="s">
+      <c r="C68" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="106"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D68" s="115"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="116"/>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="str">
         <f>A14</f>
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="103"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="str">
         <f>A15</f>
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="103"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="C70" s="117"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="104" t="s">
+      <c r="C71" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="106"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="D71" s="115"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="116"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="106"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="D72" s="115"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="116"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="104" t="s">
+      <c r="C73" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="105"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="106"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="116"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="106"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="116"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="str">
         <f>A16</f>
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="103"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="117"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="119"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="116"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="104" t="s">
+      <c r="C77" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="106"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="116"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="str">
         <f>A17</f>
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="103"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="119"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="str">
         <f>A18</f>
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="103"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="C79" s="117"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="119"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="104" t="s">
+      <c r="C80" s="114" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="106"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="D80" s="115"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="116"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="104" t="s">
+      <c r="C81" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="106"/>
-    </row>
-    <row r="82" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D81" s="115"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="115"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="116"/>
+    </row>
+    <row r="82" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="104" t="s">
+      <c r="C82" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="106"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D82" s="115"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="115"/>
+      <c r="G82" s="115"/>
+      <c r="H82" s="116"/>
+    </row>
+    <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="str">
         <f>A19</f>
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="103"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="C83" s="117"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="119"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="str">
         <f>A20</f>
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="102"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
-      <c r="G84" s="102"/>
-      <c r="H84" s="103"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="117"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="119"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="104" t="s">
+      <c r="C85" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="D85" s="105"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="106"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="D85" s="115"/>
+      <c r="E85" s="115"/>
+      <c r="F85" s="115"/>
+      <c r="G85" s="115"/>
+      <c r="H85" s="116"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="104" t="s">
+      <c r="C86" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="D86" s="105"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="106"/>
-    </row>
-    <row r="87" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="116"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="104" t="s">
+      <c r="C87" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="106"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="115"/>
+      <c r="G87" s="115"/>
+      <c r="H87" s="116"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="str">
         <f>A21</f>
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="102"/>
-      <c r="E88" s="102"/>
-      <c r="F88" s="102"/>
-      <c r="G88" s="102"/>
-      <c r="H88" s="103"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="C88" s="117"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="119"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="104" t="s">
+      <c r="C89" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="D89" s="105"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="106"/>
-    </row>
-    <row r="90" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D89" s="115"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="115"/>
+      <c r="H89" s="116"/>
+    </row>
+    <row r="90" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="104" t="s">
+      <c r="C90" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="106"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="D90" s="115"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="116"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>A22</f>
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="103"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="C91" s="117"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="119"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="104" t="s">
+      <c r="C92" s="114" t="s">
         <v>295</v>
       </c>
-      <c r="D92" s="105"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="106"/>
-    </row>
-    <row r="93" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D92" s="115"/>
+      <c r="E92" s="115"/>
+      <c r="F92" s="115"/>
+      <c r="G92" s="115"/>
+      <c r="H92" s="116"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="104" t="s">
+      <c r="C93" s="114" t="s">
         <v>296</v>
       </c>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="106"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="115"/>
+      <c r="G93" s="115"/>
+      <c r="H93" s="116"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="str">
         <f>A23</f>
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="103"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="C94" s="117"/>
+      <c r="D94" s="118"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="118"/>
+      <c r="H94" s="119"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="104" t="s">
+      <c r="C95" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="D95" s="105"/>
-      <c r="E95" s="105"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="106"/>
-    </row>
-    <row r="96" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D95" s="115"/>
+      <c r="E95" s="115"/>
+      <c r="F95" s="115"/>
+      <c r="G95" s="115"/>
+      <c r="H95" s="116"/>
+    </row>
+    <row r="96" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="104" t="s">
+      <c r="C96" s="114" t="s">
         <v>298</v>
       </c>
-      <c r="D96" s="105"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="106"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="115"/>
+      <c r="G96" s="115"/>
+      <c r="H96" s="116"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="str">
         <f>A24</f>
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="103"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="C97" s="117"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="119"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="107" t="s">
+      <c r="C98" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="108"/>
-      <c r="E98" s="108"/>
-      <c r="F98" s="108"/>
-      <c r="G98" s="108"/>
-      <c r="H98" s="109"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="D98" s="109"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="109"/>
+      <c r="H98" s="110"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="107" t="s">
+      <c r="C99" s="108" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="108"/>
-      <c r="E99" s="108"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="108"/>
-      <c r="H99" s="109"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D99" s="109"/>
+      <c r="E99" s="109"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="109"/>
+      <c r="H99" s="110"/>
+    </row>
+    <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="110" t="s">
+      <c r="C100" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="111"/>
-      <c r="E100" s="111"/>
-      <c r="F100" s="111"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="112"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
@@ -8480,49 +8537,30 @@
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -8530,8 +8568,8 @@
   <conditionalFormatting sqref="A35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -8541,7 +8579,7 @@
       <formula1>value_in_hours</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K24">
-      <formula1>student_names</formula1>
+      <formula1>'S3 Allocation'!student_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8551,17 +8589,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="100.7109375" style="19" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
@@ -8575,7 +8613,7 @@
     <col min="11" max="11" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1">
+    <row r="1" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>111</v>
       </c>
@@ -8586,7 +8624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -8623,32 +8661,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="99">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="99">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="3">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="99">
         <v>12</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="99" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="107">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
         <v>304</v>
       </c>
@@ -8673,7 +8714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>305</v>
       </c>
@@ -8698,7 +8739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
         <v>306</v>
       </c>
@@ -8723,7 +8764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
         <v>307</v>
       </c>
@@ -8748,7 +8789,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>308</v>
       </c>
@@ -8773,7 +8814,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>309</v>
       </c>
@@ -8798,7 +8839,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>310</v>
       </c>
@@ -8823,7 +8864,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>311</v>
       </c>
@@ -8850,57 +8891,63 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="102">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="102">
         <v>12</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="5">
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102">
         <v>12</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="103" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
+      <c r="L12" s="107">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="K13" s="61" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102">
+        <v>4</v>
+      </c>
+      <c r="D13" s="102">
+        <v>4</v>
+      </c>
+      <c r="E13" s="102">
+        <v>4</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102">
+        <v>4</v>
+      </c>
+      <c r="K13" s="103" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="107">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>314</v>
       </c>
@@ -8925,7 +8972,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>315</v>
       </c>
@@ -8950,7 +8997,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>316</v>
       </c>
@@ -8975,7 +9022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>317</v>
       </c>
@@ -9000,32 +9047,35 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102">
         <v>2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="102">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="102">
         <v>2</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="5">
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102">
         <v>2</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="103" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>319</v>
       </c>
@@ -9050,7 +9100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>328</v>
       </c>
@@ -9075,67 +9125,73 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="5">
-        <v>4</v>
-      </c>
-      <c r="K21" s="61" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102">
+        <v>4</v>
+      </c>
+      <c r="D21" s="102">
+        <v>4</v>
+      </c>
+      <c r="E21" s="102">
+        <v>4</v>
+      </c>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102">
+        <v>4</v>
+      </c>
+      <c r="K21" s="103" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A22" s="7" t="s">
+      <c r="L21" s="107">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="2">
+      <c r="B22" s="101"/>
+      <c r="C22" s="105">
         <v>12</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="105">
         <v>12</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="105">
         <v>12</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="2">
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="105">
         <v>12</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="106" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+      <c r="L22" s="107">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" thickBot="1">
+    <row r="24" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" thickBot="1">
+    <row r="25" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="15" t="str">
         <f t="shared" ref="C25:H25" si="0">C2</f>
         <v>Charles Stoll</v>
@@ -9164,7 +9220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" thickBot="1">
+    <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="9">
         <f>SUMIF(K3:K22,C25,J3:J22)</f>
         <v>46</v>
@@ -9194,687 +9250,687 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="28" spans="1:11" ht="36.75" thickBot="1">
+    <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="str">
         <f>A3</f>
         <v>As a developer, I want the game to generate pathing data faster.</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" thickBot="1">
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="116"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="str">
         <f>A4</f>
         <v>As a player, I want pathing to be more efficient and natural looking.</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="114" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-    </row>
-    <row r="34" spans="1:11" ht="13.5" thickBot="1">
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="114" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:11" ht="13.5" thickBot="1">
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="str">
         <f>A5</f>
         <v>As a player, I want balanced unit stats.</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="103"/>
-    </row>
-    <row r="36" spans="1:11" ht="13.5" thickBot="1">
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="str">
         <f>A6</f>
         <v>As a player, I want balanced unit ability durations and cooldowns.</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="str">
         <f>A7</f>
         <v>As a player, I want to see unit ability durations and cooldown times.</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
-    </row>
-    <row r="38" spans="1:11" s="17" customFormat="1">
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
+    </row>
+    <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="114" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="106"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
       <c r="J38"/>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="39" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="114" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="106"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" s="17" customFormat="1">
+    <row r="40" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="str">
         <f>A8</f>
         <v>As a player, I want the button image for the ability to show the ability.</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="41" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="104" t="s">
+      <c r="C41" s="114" t="s">
         <v>327</v>
       </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="106"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="116"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" s="17" customFormat="1">
+    <row r="42" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="str">
         <f>A9</f>
         <v>As a player, I want inventory items to have unique images.</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="43" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="114" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="106"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="116"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" s="17" customFormat="1">
+    <row r="44" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="str">
         <f>A10</f>
         <v>As a player, I want to be able to create different profiles and save to them.</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" s="17" customFormat="1">
+    <row r="45" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="104" t="s">
+      <c r="C45" s="114" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="106"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="116"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="46" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="106"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="47" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="str">
         <f>A11</f>
         <v>As a player, I want all of the units to have appropriate animation.</v>
       </c>
       <c r="B47" s="21"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="103"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" s="17" customFormat="1">
+    <row r="48" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="str">
         <f>A12</f>
         <v>As a player, I want visually interesting maps.</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:11" s="17" customFormat="1">
+    <row r="49" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="114" t="s">
         <v>339</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="116"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="50" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="104" t="s">
+      <c r="C50" s="114" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="51" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="104" t="s">
+      <c r="C51" s="114" t="s">
         <v>338</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="106"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="52" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="str">
         <f>A13</f>
         <v>As a player, I want maps with interesting layouts.</v>
       </c>
       <c r="B52" s="21"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="119"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" s="17" customFormat="1">
+    <row r="53" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="str">
         <f>A14</f>
         <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="54" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="104" t="s">
+      <c r="C54" s="114" t="s">
         <v>331</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="106"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="116"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="55" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="str">
         <f>A15</f>
         <v>As a developer, I don't want to use drawline.</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="103"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" s="17" customFormat="1">
+    <row r="56" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="str">
         <f>A16</f>
         <v>As a player, I want to face a boss at the end of every level.</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="119"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" s="17" customFormat="1">
+    <row r="57" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="104" t="s">
+      <c r="C57" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="106"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="116"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="58" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="106"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" s="17" customFormat="1">
+    <row r="59" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="str">
         <f>A17</f>
         <v>As a player, I want to be able to install this game.</v>
       </c>
       <c r="B59" s="21"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="103"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93"/>
       <c r="B60" s="93"/>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="110"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="61" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="str">
         <f>A18</f>
         <v>As a developer, I want to be able to run the game at 60 fps.</v>
       </c>
       <c r="B61" s="21"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="119"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1">
+    <row r="62" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="str">
         <f>A19</f>
         <v>As a developer, I want my game to run in release mode.</v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" s="17" customFormat="1">
+    <row r="63" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="str">
         <f>A20</f>
         <v>As a player, I want tooltips that display specific information.</v>
       </c>
       <c r="B63" s="21"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="64" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
       <c r="B64" s="93"/>
-      <c r="C64" s="107" t="s">
+      <c r="C64" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="110"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" s="17" customFormat="1">
+    <row r="65" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="str">
         <f>A22</f>
         <v>As a developer, I want my game to meet TRC Requirements.</v>
       </c>
       <c r="B65" s="21"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="95"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="107" t="s">
+    <row r="66" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="94"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="109"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="110"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="95"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="107" t="s">
+    <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="94"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="109"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="110"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A68" s="95"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="107" t="s">
+    <row r="68" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="94"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="110"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="95"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="107" t="s">
+    <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="94"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="109"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="110"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="95"/>
-      <c r="B70" s="95"/>
-      <c r="C70" s="107" t="s">
+    <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="94"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="108" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="108"/>
-      <c r="E70" s="108"/>
-      <c r="F70" s="108"/>
-      <c r="G70" s="108"/>
-      <c r="H70" s="109"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="110"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="95"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="107" t="s">
+    <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="94"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="108" t="s">
         <v>349</v>
       </c>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
-      <c r="F71" s="108"/>
-      <c r="G71" s="108"/>
-      <c r="H71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="110"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="95"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="107" t="s">
+    <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="109"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="110"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="95"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="107" t="s">
+    <row r="73" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="94"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="D73" s="108"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="110"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="97"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="128" t="s">
+    <row r="74" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="138" t="s">
         <v>336</v>
       </c>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="129"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="130"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="140"/>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="75" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75"/>
       <c r="C75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11" s="17" customFormat="1">
+    <row r="76" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:11" s="17" customFormat="1">
+    <row r="77" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:11" s="17" customFormat="1">
+    <row r="78" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:11" s="17" customFormat="1">
+    <row r="79" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -9884,7 +9940,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1">
+    <row r="80" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -9893,9 +9949,9 @@
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="J80" s="96"/>
-    </row>
-    <row r="81" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1">
+      <c r="J80" s="95"/>
+    </row>
+    <row r="81" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -9907,7 +9963,7 @@
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" s="17" customFormat="1">
+    <row r="82" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -9919,7 +9975,7 @@
       <c r="J82"/>
       <c r="K82"/>
     </row>
-    <row r="83" spans="1:11" s="17" customFormat="1">
+    <row r="83" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -9931,7 +9987,7 @@
       <c r="J83"/>
       <c r="K83"/>
     </row>
-    <row r="84" spans="1:11" s="17" customFormat="1">
+    <row r="84" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -9943,7 +9999,7 @@
       <c r="J84"/>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" s="17" customFormat="1">
+    <row r="85" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -9955,7 +10011,7 @@
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" s="17" customFormat="1">
+    <row r="86" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -9967,7 +10023,7 @@
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11" s="17" customFormat="1">
+    <row r="87" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -9979,7 +10035,7 @@
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" s="17" customFormat="1">
+    <row r="88" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -9991,7 +10047,7 @@
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:11" s="17" customFormat="1">
+    <row r="89" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -10003,7 +10059,7 @@
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="1:11" s="17" customFormat="1">
+    <row r="90" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -10015,7 +10071,7 @@
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="1:11" s="17" customFormat="1">
+    <row r="91" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -10027,7 +10083,7 @@
       <c r="J91"/>
       <c r="K91"/>
     </row>
-    <row r="92" spans="1:11" s="17" customFormat="1">
+    <row r="92" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -10039,7 +10095,7 @@
       <c r="J92"/>
       <c r="K92"/>
     </row>
-    <row r="93" spans="1:11" s="17" customFormat="1">
+    <row r="93" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -10051,7 +10107,7 @@
       <c r="J93"/>
       <c r="K93"/>
     </row>
-    <row r="94" spans="1:11" s="17" customFormat="1">
+    <row r="94" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -10063,7 +10119,7 @@
       <c r="J94"/>
       <c r="K94"/>
     </row>
-    <row r="95" spans="1:11" s="17" customFormat="1">
+    <row r="95" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -10075,7 +10131,7 @@
       <c r="J95"/>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" s="17" customFormat="1">
+    <row r="96" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -10087,7 +10143,7 @@
       <c r="J96"/>
       <c r="K96"/>
     </row>
-    <row r="97" spans="1:11" s="17" customFormat="1">
+    <row r="97" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -10099,7 +10155,7 @@
       <c r="J97"/>
       <c r="K97"/>
     </row>
-    <row r="98" spans="1:11" s="17" customFormat="1">
+    <row r="98" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -10111,7 +10167,7 @@
       <c r="J98"/>
       <c r="K98"/>
     </row>
-    <row r="99" spans="1:11" s="17" customFormat="1">
+    <row r="99" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -10125,15 +10181,28 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -10150,34 +10219,21 @@
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
   </mergeCells>
   <conditionalFormatting sqref="A29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -10187,7 +10243,7 @@
       <formula1>value_in_hours</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K22">
-      <formula1>student_names</formula1>
+      <formula1>'S4 Allocation'!student_names</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -1697,6 +1697,33 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
     <xf numFmtId="43" fontId="9" fillId="7" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1715,40 +1742,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1760,13 +1760,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3023,14 +3023,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
@@ -3039,12 +3039,12 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="113"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -3089,12 +3089,12 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="119"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="113"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -3139,12 +3139,12 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="113"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -3177,12 +3177,12 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="113"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -3203,12 +3203,12 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="113"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -3253,12 +3253,12 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="119"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="113"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
@@ -3327,12 +3327,12 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="119"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="113"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
@@ -3425,12 +3425,12 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="117"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="113"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
@@ -3475,12 +3475,12 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="119"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="113"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
@@ -3525,12 +3525,12 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="119"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="113"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
@@ -3551,12 +3551,12 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="117"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="119"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="113"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -3601,12 +3601,12 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="117"/>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="119"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="113"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
@@ -3651,12 +3651,12 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="119"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="113"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
@@ -3701,12 +3701,12 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="117"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="119"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="113"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
@@ -3739,56 +3739,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="117"/>
-      <c r="D80" s="118"/>
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="119"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="113"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="108" t="s">
+      <c r="C81" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="109"/>
-      <c r="H81" s="110"/>
+      <c r="D81" s="118"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="119"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="108" t="s">
+      <c r="C82" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="110"/>
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118"/>
+      <c r="H82" s="119"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="111" t="s">
+      <c r="C83" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="112"/>
-      <c r="E83" s="112"/>
-      <c r="F83" s="112"/>
-      <c r="G83" s="112"/>
-      <c r="H83" s="113"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -3801,50 +3840,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -4712,12 +4712,12 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="131"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68"/>
@@ -4734,26 +4734,26 @@
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="125"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="131"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="131"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="68"/>
@@ -4824,22 +4824,22 @@
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="124" t="s">
+      <c r="E41" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="124" t="s">
+      <c r="F41" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="124" t="s">
+      <c r="G41" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="125" t="s">
+      <c r="H41" s="131" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4848,12 +4848,12 @@
         <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="131"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68"/>
@@ -4946,22 +4946,22 @@
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="123" t="s">
+      <c r="C47" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="124" t="s">
+      <c r="D47" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="124" t="s">
+      <c r="E47" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="124" t="s">
+      <c r="F47" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="124" t="s">
+      <c r="G47" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="125" t="s">
+      <c r="H47" s="131" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4970,32 +4970,32 @@
         <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="131"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="125"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="123" t="s">
+      <c r="C49" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="124" t="s">
+      <c r="D49" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="124" t="s">
+      <c r="E49" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="124" t="s">
+      <c r="F49" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="124" t="s">
+      <c r="G49" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="131" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5004,12 +5004,12 @@
         <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="131"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="125"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68"/>
@@ -5064,12 +5064,12 @@
         <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="131"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="125"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68"/>
@@ -5120,12 +5120,12 @@
         <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="131"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="125"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="68"/>
@@ -5240,22 +5240,22 @@
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="123" t="s">
+      <c r="C64" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="124" t="s">
+      <c r="D64" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="124" t="s">
+      <c r="E64" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="124" t="s">
+      <c r="F64" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="124" t="s">
+      <c r="G64" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="125" t="s">
+      <c r="H64" s="131" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5264,12 +5264,12 @@
         <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="131"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="125"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="68"/>
@@ -5318,22 +5318,22 @@
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="123" t="s">
+      <c r="C68" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="124" t="s">
+      <c r="D68" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="124" t="s">
+      <c r="E68" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="124" t="s">
+      <c r="F68" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="124" t="s">
+      <c r="G68" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="125" t="s">
+      <c r="H68" s="131" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5342,24 +5342,24 @@
         <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="131"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="125"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="129"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="131"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="125"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68"/>
@@ -5452,22 +5452,22 @@
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="123" t="s">
+      <c r="C75" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="124" t="s">
+      <c r="D75" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="124" t="s">
+      <c r="E75" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="124" t="s">
+      <c r="F75" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="124" t="s">
+      <c r="G75" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="H75" s="125" t="s">
+      <c r="H75" s="131" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
         <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="131"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="68"/>
@@ -5508,22 +5508,22 @@
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="123" t="s">
+      <c r="C78" s="129" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="124" t="s">
+      <c r="D78" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="124" t="s">
+      <c r="E78" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="124" t="s">
+      <c r="F78" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="124" t="s">
+      <c r="G78" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="125" t="s">
+      <c r="H78" s="131" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5532,12 +5532,12 @@
         <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="130"/>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130"/>
-      <c r="G79" s="130"/>
-      <c r="H79" s="131"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="125"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="68"/>
@@ -5630,22 +5630,22 @@
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="123" t="s">
+      <c r="C84" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="124" t="s">
+      <c r="D84" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="124" t="s">
+      <c r="E84" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="124" t="s">
+      <c r="F84" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="G84" s="124" t="s">
+      <c r="G84" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="125" t="s">
+      <c r="H84" s="131" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5654,12 +5654,12 @@
         <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="130"/>
-      <c r="E85" s="130"/>
-      <c r="F85" s="130"/>
-      <c r="G85" s="130"/>
-      <c r="H85" s="131"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="125"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="68"/>
@@ -5730,22 +5730,22 @@
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="123" t="s">
+      <c r="C89" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="124" t="s">
+      <c r="D89" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="124" t="s">
+      <c r="E89" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="124" t="s">
+      <c r="F89" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="124" t="s">
+      <c r="G89" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="H89" s="125" t="s">
+      <c r="H89" s="131" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5754,24 +5754,24 @@
         <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="130"/>
-      <c r="F90" s="130"/>
-      <c r="G90" s="130"/>
-      <c r="H90" s="131"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="125"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="129"/>
-      <c r="D91" s="130"/>
-      <c r="E91" s="130"/>
-      <c r="F91" s="130"/>
-      <c r="G91" s="130"/>
-      <c r="H91" s="131"/>
+      <c r="C91" s="123"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="125"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="68"/>
@@ -5842,22 +5842,22 @@
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="123" t="s">
+      <c r="C95" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="124" t="s">
+      <c r="D95" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="124" t="s">
+      <c r="E95" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="124" t="s">
+      <c r="F95" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="124" t="s">
+      <c r="G95" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="125" t="s">
+      <c r="H95" s="131" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
         <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="129"/>
-      <c r="D96" s="130"/>
-      <c r="E96" s="130"/>
-      <c r="F96" s="130"/>
-      <c r="G96" s="130"/>
-      <c r="H96" s="131"/>
+      <c r="C96" s="123"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="125"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="68"/>
@@ -5986,22 +5986,22 @@
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="123" t="s">
+      <c r="C102" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="124" t="s">
+      <c r="E102" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="124" t="s">
+      <c r="F102" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="G102" s="124" t="s">
+      <c r="G102" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="125" t="s">
+      <c r="H102" s="131" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6010,12 +6010,12 @@
         <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="129"/>
-      <c r="D103" s="130"/>
-      <c r="E103" s="130"/>
-      <c r="F103" s="130"/>
-      <c r="G103" s="130"/>
-      <c r="H103" s="131"/>
+      <c r="C103" s="123"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="124"/>
+      <c r="F103" s="124"/>
+      <c r="G103" s="124"/>
+      <c r="H103" s="125"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="68"/>
@@ -6064,22 +6064,22 @@
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="123" t="s">
+      <c r="C106" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="124" t="s">
+      <c r="D106" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="124" t="s">
+      <c r="E106" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="124" t="s">
+      <c r="F106" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="124" t="s">
+      <c r="G106" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="H106" s="125" t="s">
+      <c r="H106" s="131" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6088,12 +6088,12 @@
         <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="129"/>
-      <c r="D107" s="130"/>
-      <c r="E107" s="130"/>
-      <c r="F107" s="130"/>
-      <c r="G107" s="130"/>
-      <c r="H107" s="131"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="124"/>
+      <c r="G107" s="124"/>
+      <c r="H107" s="125"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="68"/>
@@ -6164,22 +6164,22 @@
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="123" t="s">
+      <c r="C111" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="124" t="s">
+      <c r="D111" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="124" t="s">
+      <c r="E111" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="124" t="s">
+      <c r="F111" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="124" t="s">
+      <c r="G111" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="125" t="s">
+      <c r="H111" s="131" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6188,12 +6188,12 @@
         <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="129"/>
-      <c r="D112" s="130"/>
-      <c r="E112" s="130"/>
-      <c r="F112" s="130"/>
-      <c r="G112" s="130"/>
-      <c r="H112" s="131"/>
+      <c r="C112" s="123"/>
+      <c r="D112" s="124"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="124"/>
+      <c r="G112" s="124"/>
+      <c r="H112" s="125"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="68"/>
@@ -6286,22 +6286,22 @@
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="123" t="s">
+      <c r="C117" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="124" t="s">
+      <c r="D117" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="124" t="s">
+      <c r="E117" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="124" t="s">
+      <c r="F117" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="G117" s="124" t="s">
+      <c r="G117" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="H117" s="125" t="s">
+      <c r="H117" s="131" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6310,12 +6310,12 @@
         <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="130"/>
-      <c r="E118" s="130"/>
-      <c r="F118" s="130"/>
-      <c r="G118" s="130"/>
-      <c r="H118" s="131"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
+      <c r="F118" s="124"/>
+      <c r="G118" s="124"/>
+      <c r="H118" s="125"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="68"/>
@@ -6342,22 +6342,22 @@
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="123" t="s">
+      <c r="C120" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="124" t="s">
+      <c r="D120" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="124" t="s">
+      <c r="E120" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="124" t="s">
+      <c r="F120" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="124" t="s">
+      <c r="G120" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="125" t="s">
+      <c r="H120" s="131" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6366,12 +6366,12 @@
         <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="129"/>
-      <c r="D121" s="130"/>
-      <c r="E121" s="130"/>
-      <c r="F121" s="130"/>
-      <c r="G121" s="130"/>
-      <c r="H121" s="131"/>
+      <c r="C121" s="123"/>
+      <c r="D121" s="124"/>
+      <c r="E121" s="124"/>
+      <c r="F121" s="124"/>
+      <c r="G121" s="124"/>
+      <c r="H121" s="125"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
@@ -6400,12 +6400,12 @@
         <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="129"/>
-      <c r="D123" s="130"/>
-      <c r="E123" s="130"/>
-      <c r="F123" s="130"/>
-      <c r="G123" s="130"/>
-      <c r="H123" s="131"/>
+      <c r="C123" s="123"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="124"/>
+      <c r="G123" s="124"/>
+      <c r="H123" s="125"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
@@ -6434,12 +6434,12 @@
         <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="129"/>
-      <c r="D125" s="130"/>
-      <c r="E125" s="130"/>
-      <c r="F125" s="130"/>
-      <c r="G125" s="130"/>
-      <c r="H125" s="131"/>
+      <c r="C125" s="123"/>
+      <c r="D125" s="124"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="124"/>
+      <c r="G125" s="124"/>
+      <c r="H125" s="125"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="68"/>
@@ -6532,22 +6532,22 @@
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="123" t="s">
+      <c r="C130" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="124" t="s">
+      <c r="D130" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="124" t="s">
+      <c r="E130" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="124" t="s">
+      <c r="F130" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="124" t="s">
+      <c r="G130" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="H130" s="125" t="s">
+      <c r="H130" s="131" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6556,12 +6556,12 @@
         <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="130"/>
-      <c r="E131" s="130"/>
-      <c r="F131" s="130"/>
-      <c r="G131" s="130"/>
-      <c r="H131" s="131"/>
+      <c r="C131" s="123"/>
+      <c r="D131" s="124"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="124"/>
+      <c r="G131" s="124"/>
+      <c r="H131" s="125"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68"/>
@@ -6632,22 +6632,22 @@
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="123" t="s">
+      <c r="C135" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="124" t="s">
+      <c r="D135" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="124" t="s">
+      <c r="E135" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="124" t="s">
+      <c r="F135" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="124" t="s">
+      <c r="G135" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="125" t="s">
+      <c r="H135" s="131" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6656,12 +6656,12 @@
         <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="130"/>
-      <c r="E136" s="130"/>
-      <c r="F136" s="130"/>
-      <c r="G136" s="130"/>
-      <c r="H136" s="131"/>
+      <c r="C136" s="123"/>
+      <c r="D136" s="124"/>
+      <c r="E136" s="124"/>
+      <c r="F136" s="124"/>
+      <c r="G136" s="124"/>
+      <c r="H136" s="125"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="68"/>
@@ -6732,45 +6732,93 @@
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="123" t="s">
+      <c r="C140" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="D140" s="124" t="s">
+      <c r="D140" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="124" t="s">
+      <c r="E140" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="F140" s="124" t="s">
+      <c r="F140" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="G140" s="124" t="s">
+      <c r="G140" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="125" t="s">
+      <c r="H140" s="131" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C90:H90"/>
     <mergeCell ref="C91:H91"/>
@@ -6795,72 +6843,24 @@
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6871,7 +6871,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6880,7 +6880,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -7611,14 +7611,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="str">
@@ -7626,12 +7626,12 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="119"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="113"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -7675,12 +7675,12 @@
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="113"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="str">
@@ -7688,12 +7688,12 @@
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="113"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
@@ -7785,12 +7785,12 @@
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="113"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
@@ -7846,12 +7846,12 @@
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="119"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="113"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
@@ -7895,12 +7895,12 @@
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="119"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="113"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -7920,12 +7920,12 @@
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="113"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -7945,12 +7945,12 @@
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="119"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="113"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
@@ -8006,12 +8006,12 @@
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="119"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="113"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -8055,12 +8055,12 @@
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="119"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="113"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="str">
@@ -8068,12 +8068,12 @@
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="117"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="119"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="113"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -8093,12 +8093,12 @@
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="119"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="113"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="str">
@@ -8106,12 +8106,12 @@
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="119"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="113"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
@@ -8167,12 +8167,12 @@
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="119"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="113"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
@@ -8204,12 +8204,12 @@
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="119"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
+      <c r="G78" s="112"/>
+      <c r="H78" s="113"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="str">
@@ -8217,12 +8217,12 @@
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="119"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
+      <c r="G79" s="112"/>
+      <c r="H79" s="113"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
@@ -8266,12 +8266,12 @@
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="119"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="113"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="str">
@@ -8279,12 +8279,12 @@
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="119"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="112"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="112"/>
+      <c r="H84" s="113"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -8328,12 +8328,12 @@
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="118"/>
-      <c r="G88" s="118"/>
-      <c r="H88" s="119"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="113"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
@@ -8365,12 +8365,12 @@
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="119"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="113"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
@@ -8402,12 +8402,12 @@
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="117"/>
-      <c r="D94" s="118"/>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="118"/>
-      <c r="H94" s="119"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112"/>
+      <c r="G94" s="112"/>
+      <c r="H94" s="113"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -8439,51 +8439,106 @@
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="117"/>
-      <c r="D97" s="118"/>
-      <c r="E97" s="118"/>
-      <c r="F97" s="118"/>
-      <c r="G97" s="118"/>
-      <c r="H97" s="119"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="112"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="112"/>
+      <c r="G97" s="112"/>
+      <c r="H97" s="113"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="108" t="s">
+      <c r="C98" s="117" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="109"/>
-      <c r="E98" s="109"/>
-      <c r="F98" s="109"/>
-      <c r="G98" s="109"/>
-      <c r="H98" s="110"/>
+      <c r="D98" s="118"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="118"/>
+      <c r="G98" s="118"/>
+      <c r="H98" s="119"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="108" t="s">
+      <c r="C99" s="117" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="109"/>
-      <c r="E99" s="109"/>
-      <c r="F99" s="109"/>
-      <c r="G99" s="109"/>
-      <c r="H99" s="110"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="118"/>
+      <c r="G99" s="118"/>
+      <c r="H99" s="119"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="111" t="s">
+      <c r="C100" s="120" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="113"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
+      <c r="G100" s="121"/>
+      <c r="H100" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C60:H60"/>
@@ -8500,61 +8555,6 @@
     <mergeCell ref="C71:H71"/>
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">
@@ -8596,7 +8596,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8686,7 +8686,7 @@
         <v>117</v>
       </c>
       <c r="L3" s="107">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -9258,14 +9258,14 @@
       <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="str">
@@ -9273,12 +9273,12 @@
         <v>As a developer, I want the game to generate pathing data faster.</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="113"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -9310,12 +9310,12 @@
         <v>As a player, I want pathing to be more efficient and natural looking.</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="113"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -9347,12 +9347,12 @@
         <v>As a player, I want balanced unit stats.</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="119"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="113"/>
     </row>
     <row r="36" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="str">
@@ -9360,12 +9360,12 @@
         <v>As a player, I want balanced unit ability durations and cooldowns.</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="119"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="113"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="str">
@@ -9373,12 +9373,12 @@
         <v>As a player, I want to see unit ability durations and cooldown times.</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="113"/>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -9414,12 +9414,12 @@
         <v>As a player, I want the button image for the ability to show the ability.</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="119"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="113"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
@@ -9443,12 +9443,12 @@
         <v>As a player, I want inventory items to have unique images.</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="113"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
@@ -9472,12 +9472,12 @@
         <v>As a player, I want to be able to create different profiles and save to them.</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="113"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
@@ -9515,12 +9515,12 @@
         <v>As a player, I want all of the units to have appropriate animation.</v>
       </c>
       <c r="B47" s="21"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="119"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="113"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
@@ -9530,12 +9530,12 @@
         <v>As a player, I want visually interesting maps.</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="119"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="113"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
@@ -9587,12 +9587,12 @@
         <v>As a player, I want maps with interesting layouts.</v>
       </c>
       <c r="B52" s="21"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="119"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="113"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
@@ -9602,12 +9602,12 @@
         <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="119"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="113"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
@@ -9631,12 +9631,12 @@
         <v>As a developer, I don't want to use drawline.</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="113"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
@@ -9646,12 +9646,12 @@
         <v>As a player, I want to face a boss at the end of every level.</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="119"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="113"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
@@ -9689,26 +9689,26 @@
         <v>As a player, I want to be able to install this game.</v>
       </c>
       <c r="B59" s="21"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="119"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="113"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93"/>
       <c r="B60" s="93"/>
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="110"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="119"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
@@ -9718,12 +9718,12 @@
         <v>As a developer, I want to be able to run the game at 60 fps.</v>
       </c>
       <c r="B61" s="21"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="119"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="112"/>
+      <c r="H61" s="113"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
@@ -9733,12 +9733,12 @@
         <v>As a developer, I want my game to run in release mode.</v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="119"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="113"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
@@ -9748,26 +9748,26 @@
         <v>As a player, I want tooltips that display specific information.</v>
       </c>
       <c r="B63" s="21"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="119"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="113"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
       <c r="B64" s="93"/>
-      <c r="C64" s="108" t="s">
+      <c r="C64" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="110"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="119"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
@@ -9777,124 +9777,124 @@
         <v>As a developer, I want my game to meet TRC Requirements.</v>
       </c>
       <c r="B65" s="21"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="119"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="113"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
     <row r="66" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="94"/>
       <c r="B66" s="94"/>
-      <c r="C66" s="108" t="s">
+      <c r="C66" s="117" t="s">
         <v>344</v>
       </c>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="110"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
     <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="94"/>
       <c r="B67" s="94"/>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="110"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
     <row r="68" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="94"/>
       <c r="B68" s="94"/>
-      <c r="C68" s="108" t="s">
+      <c r="C68" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="110"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="119"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
     <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="94"/>
       <c r="B69" s="94"/>
-      <c r="C69" s="108" t="s">
+      <c r="C69" s="117" t="s">
         <v>347</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="110"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="94"/>
       <c r="B70" s="94"/>
-      <c r="C70" s="108" t="s">
+      <c r="C70" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="110"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
     <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="94"/>
       <c r="B71" s="94"/>
-      <c r="C71" s="108" t="s">
+      <c r="C71" s="117" t="s">
         <v>349</v>
       </c>
-      <c r="D71" s="109"/>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="110"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="119"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
     <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="94"/>
       <c r="B72" s="94"/>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="117" t="s">
         <v>342</v>
       </c>
-      <c r="D72" s="109"/>
-      <c r="E72" s="109"/>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="110"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="118"/>
+      <c r="H72" s="119"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
     <row r="73" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="94"/>
       <c r="B73" s="94"/>
-      <c r="C73" s="108" t="s">
+      <c r="C73" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="110"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="119"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
@@ -10181,28 +10181,15 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -10219,15 +10206,28 @@
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
   </mergeCells>
   <conditionalFormatting sqref="A29">
     <cfRule type="dataBar" priority="1">

--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -1697,33 +1697,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
     <xf numFmtId="43" fontId="9" fillId="7" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1742,13 +1715,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1760,13 +1760,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3023,14 +3023,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
@@ -3039,12 +3039,12 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
@@ -3089,12 +3089,12 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -3139,12 +3139,12 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -3177,12 +3177,12 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -3203,12 +3203,12 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="113"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -3253,12 +3253,12 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
@@ -3327,12 +3327,12 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="113"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
@@ -3425,12 +3425,12 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="113"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
@@ -3475,12 +3475,12 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="113"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
@@ -3525,12 +3525,12 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="111"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="113"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
@@ -3551,12 +3551,12 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="111"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="113"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -3601,12 +3601,12 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="111"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="113"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
@@ -3651,12 +3651,12 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="111"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="113"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="118"/>
+      <c r="H73" s="119"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
@@ -3701,12 +3701,12 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="111"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="113"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="119"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
@@ -3739,59 +3739,92 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="111"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="112"/>
-      <c r="G80" s="112"/>
-      <c r="H80" s="113"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="118"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="119"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="117" t="s">
+      <c r="C81" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="118"/>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="119"/>
+      <c r="D81" s="109"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="109"/>
+      <c r="G81" s="109"/>
+      <c r="H81" s="110"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="117" t="s">
+      <c r="C82" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="118"/>
-      <c r="E82" s="118"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="119"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="110"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="120" t="s">
+      <c r="C83" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="122"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
@@ -3804,47 +3837,14 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -4712,12 +4712,12 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="123"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="131"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="68"/>
@@ -4734,26 +4734,26 @@
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="129" t="s">
+      <c r="C36" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="131"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="125"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="131"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="68"/>
@@ -4824,22 +4824,22 @@
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="130" t="s">
+      <c r="E41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="130" t="s">
+      <c r="F41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="130" t="s">
+      <c r="G41" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="H41" s="131" t="s">
+      <c r="H41" s="125" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4848,12 +4848,12 @@
         <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="131"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68"/>
@@ -4946,22 +4946,22 @@
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="129" t="s">
+      <c r="C47" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="130" t="s">
+      <c r="E47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="130" t="s">
+      <c r="F47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="130" t="s">
+      <c r="G47" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="H47" s="131" t="s">
+      <c r="H47" s="125" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4970,32 +4970,32 @@
         <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="125"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="131"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="D49" s="130" t="s">
+      <c r="D49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="130" t="s">
+      <c r="E49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="F49" s="130" t="s">
+      <c r="F49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="130" t="s">
+      <c r="G49" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="H49" s="131" t="s">
+      <c r="H49" s="125" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5004,12 +5004,12 @@
         <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="125"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="131"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="68"/>
@@ -5064,12 +5064,12 @@
         <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="125"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="131"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="68"/>
@@ -5120,12 +5120,12 @@
         <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="125"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="131"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="68"/>
@@ -5240,22 +5240,22 @@
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="130" t="s">
+      <c r="D64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="130" t="s">
+      <c r="E64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="130" t="s">
+      <c r="F64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="130" t="s">
+      <c r="G64" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="H64" s="131" t="s">
+      <c r="H64" s="125" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5264,12 +5264,12 @@
         <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="125"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="131"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="68"/>
@@ -5318,22 +5318,22 @@
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="129" t="s">
+      <c r="C68" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="130" t="s">
+      <c r="D68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="130" t="s">
+      <c r="E68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="130" t="s">
+      <c r="F68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="G68" s="130" t="s">
+      <c r="G68" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="131" t="s">
+      <c r="H68" s="125" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5342,24 +5342,24 @@
         <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="125"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="131"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="69" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="125"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="131"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68"/>
@@ -5452,22 +5452,22 @@
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="129" t="s">
+      <c r="C75" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="130" t="s">
+      <c r="D75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="E75" s="130" t="s">
+      <c r="E75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="130" t="s">
+      <c r="F75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="130" t="s">
+      <c r="G75" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H75" s="131" t="s">
+      <c r="H75" s="125" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
         <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
+      <c r="G76" s="130"/>
+      <c r="H76" s="131"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="68"/>
@@ -5508,22 +5508,22 @@
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="129" t="s">
+      <c r="C78" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="130" t="s">
+      <c r="D78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="130" t="s">
+      <c r="E78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="130" t="s">
+      <c r="F78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="G78" s="130" t="s">
+      <c r="G78" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="H78" s="131" t="s">
+      <c r="H78" s="125" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5532,12 +5532,12 @@
         <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="124"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="125"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="130"/>
+      <c r="G79" s="130"/>
+      <c r="H79" s="131"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="68"/>
@@ -5630,22 +5630,22 @@
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="129" t="s">
+      <c r="C84" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="130" t="s">
+      <c r="D84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="130" t="s">
+      <c r="E84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="F84" s="130" t="s">
+      <c r="F84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="G84" s="130" t="s">
+      <c r="G84" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="131" t="s">
+      <c r="H84" s="125" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5654,12 +5654,12 @@
         <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="124"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="125"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="131"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="68"/>
@@ -5730,22 +5730,22 @@
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="129" t="s">
+      <c r="C89" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="130" t="s">
+      <c r="D89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="E89" s="130" t="s">
+      <c r="E89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="130" t="s">
+      <c r="F89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="130" t="s">
+      <c r="G89" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="H89" s="131" t="s">
+      <c r="H89" s="125" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5754,24 +5754,24 @@
         <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="124"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="124"/>
-      <c r="H90" s="125"/>
+      <c r="C90" s="129"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="131"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="123"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="124"/>
-      <c r="H91" s="125"/>
+      <c r="C91" s="129"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="130"/>
+      <c r="G91" s="130"/>
+      <c r="H91" s="131"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="68"/>
@@ -5842,22 +5842,22 @@
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="129" t="s">
+      <c r="C95" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="D95" s="130" t="s">
+      <c r="D95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="130" t="s">
+      <c r="E95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="F95" s="130" t="s">
+      <c r="F95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="130" t="s">
+      <c r="G95" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="131" t="s">
+      <c r="H95" s="125" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
         <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="123"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="124"/>
-      <c r="H96" s="125"/>
+      <c r="C96" s="129"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="130"/>
+      <c r="G96" s="130"/>
+      <c r="H96" s="131"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="68"/>
@@ -5986,22 +5986,22 @@
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="129" t="s">
+      <c r="C102" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="130" t="s">
+      <c r="D102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="E102" s="130" t="s">
+      <c r="E102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="130" t="s">
+      <c r="F102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="G102" s="130" t="s">
+      <c r="G102" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="131" t="s">
+      <c r="H102" s="125" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6010,12 +6010,12 @@
         <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="123"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="124"/>
-      <c r="G103" s="124"/>
-      <c r="H103" s="125"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="130"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="131"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="68"/>
@@ -6064,22 +6064,22 @@
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="129" t="s">
+      <c r="C106" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="130" t="s">
+      <c r="D106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="130" t="s">
+      <c r="E106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="F106" s="130" t="s">
+      <c r="F106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="130" t="s">
+      <c r="G106" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="H106" s="131" t="s">
+      <c r="H106" s="125" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6088,12 +6088,12 @@
         <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="123"/>
-      <c r="D107" s="124"/>
-      <c r="E107" s="124"/>
-      <c r="F107" s="124"/>
-      <c r="G107" s="124"/>
-      <c r="H107" s="125"/>
+      <c r="C107" s="129"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="130"/>
+      <c r="G107" s="130"/>
+      <c r="H107" s="131"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="68"/>
@@ -6164,22 +6164,22 @@
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="129" t="s">
+      <c r="C111" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="130" t="s">
+      <c r="D111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="130" t="s">
+      <c r="E111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="130" t="s">
+      <c r="F111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="130" t="s">
+      <c r="G111" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="H111" s="131" t="s">
+      <c r="H111" s="125" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6188,12 +6188,12 @@
         <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="123"/>
-      <c r="D112" s="124"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="124"/>
-      <c r="G112" s="124"/>
-      <c r="H112" s="125"/>
+      <c r="C112" s="129"/>
+      <c r="D112" s="130"/>
+      <c r="E112" s="130"/>
+      <c r="F112" s="130"/>
+      <c r="G112" s="130"/>
+      <c r="H112" s="131"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="68"/>
@@ -6286,22 +6286,22 @@
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="129" t="s">
+      <c r="C117" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="130" t="s">
+      <c r="D117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E117" s="130" t="s">
+      <c r="E117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="F117" s="130" t="s">
+      <c r="F117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="G117" s="130" t="s">
+      <c r="G117" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H117" s="131" t="s">
+      <c r="H117" s="125" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6310,12 +6310,12 @@
         <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="123"/>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="124"/>
-      <c r="G118" s="124"/>
-      <c r="H118" s="125"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="130"/>
+      <c r="G118" s="130"/>
+      <c r="H118" s="131"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="68"/>
@@ -6342,22 +6342,22 @@
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="129" t="s">
+      <c r="C120" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="130" t="s">
+      <c r="D120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="130" t="s">
+      <c r="E120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="130" t="s">
+      <c r="F120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="G120" s="130" t="s">
+      <c r="G120" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H120" s="131" t="s">
+      <c r="H120" s="125" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6366,12 +6366,12 @@
         <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="123"/>
-      <c r="D121" s="124"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="124"/>
-      <c r="G121" s="124"/>
-      <c r="H121" s="125"/>
+      <c r="C121" s="129"/>
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="130"/>
+      <c r="H121" s="131"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="68"/>
@@ -6400,12 +6400,12 @@
         <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="123"/>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="124"/>
-      <c r="G123" s="124"/>
-      <c r="H123" s="125"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="130"/>
+      <c r="G123" s="130"/>
+      <c r="H123" s="131"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="68"/>
@@ -6434,12 +6434,12 @@
         <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="123"/>
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="124"/>
-      <c r="G125" s="124"/>
-      <c r="H125" s="125"/>
+      <c r="C125" s="129"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="130"/>
+      <c r="F125" s="130"/>
+      <c r="G125" s="130"/>
+      <c r="H125" s="131"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="68"/>
@@ -6532,22 +6532,22 @@
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="129" t="s">
+      <c r="C130" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="D130" s="130" t="s">
+      <c r="D130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="130" t="s">
+      <c r="E130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="130" t="s">
+      <c r="F130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="G130" s="130" t="s">
+      <c r="G130" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="H130" s="131" t="s">
+      <c r="H130" s="125" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6556,12 +6556,12 @@
         <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="123"/>
-      <c r="D131" s="124"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="124"/>
-      <c r="G131" s="124"/>
-      <c r="H131" s="125"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="130"/>
+      <c r="E131" s="130"/>
+      <c r="F131" s="130"/>
+      <c r="G131" s="130"/>
+      <c r="H131" s="131"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="68"/>
@@ -6632,22 +6632,22 @@
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="129" t="s">
+      <c r="C135" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="130" t="s">
+      <c r="D135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="130" t="s">
+      <c r="E135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="F135" s="130" t="s">
+      <c r="F135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="130" t="s">
+      <c r="G135" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="131" t="s">
+      <c r="H135" s="125" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6656,12 +6656,12 @@
         <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="123"/>
-      <c r="D136" s="124"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="124"/>
-      <c r="G136" s="124"/>
-      <c r="H136" s="125"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="130"/>
+      <c r="E136" s="130"/>
+      <c r="F136" s="130"/>
+      <c r="G136" s="130"/>
+      <c r="H136" s="131"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="68"/>
@@ -6732,27 +6732,111 @@
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="129" t="s">
+      <c r="C140" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="D140" s="130" t="s">
+      <c r="D140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="E140" s="130" t="s">
+      <c r="E140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="F140" s="130" t="s">
+      <c r="F140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="G140" s="130" t="s">
+      <c r="G140" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="H140" s="131" t="s">
+      <c r="H140" s="125" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="C135:H135"/>
@@ -6777,90 +6861,6 @@
     <mergeCell ref="C55:H55"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6871,7 +6871,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -6880,7 +6880,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -7611,14 +7611,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="str">
@@ -7626,12 +7626,12 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -7675,12 +7675,12 @@
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="str">
@@ -7688,12 +7688,12 @@
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
@@ -7785,12 +7785,12 @@
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
@@ -7846,12 +7846,12 @@
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="113"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
@@ -7895,12 +7895,12 @@
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="113"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -7920,12 +7920,12 @@
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="113"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -7945,12 +7945,12 @@
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="113"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="119"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
@@ -8006,12 +8006,12 @@
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="113"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
@@ -8055,12 +8055,12 @@
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="113"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="119"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="str">
@@ -8068,12 +8068,12 @@
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="113"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -8093,12 +8093,12 @@
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="113"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="119"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="str">
@@ -8106,12 +8106,12 @@
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="111"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="113"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="119"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
@@ -8167,12 +8167,12 @@
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="112"/>
-      <c r="F75" s="112"/>
-      <c r="G75" s="112"/>
-      <c r="H75" s="113"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="119"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
@@ -8204,12 +8204,12 @@
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112"/>
-      <c r="G78" s="112"/>
-      <c r="H78" s="113"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="119"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="str">
@@ -8217,12 +8217,12 @@
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="112"/>
-      <c r="G79" s="112"/>
-      <c r="H79" s="113"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="119"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
@@ -8266,12 +8266,12 @@
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="111"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="112"/>
-      <c r="F83" s="112"/>
-      <c r="G83" s="112"/>
-      <c r="H83" s="113"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="119"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="str">
@@ -8279,12 +8279,12 @@
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="112"/>
-      <c r="F84" s="112"/>
-      <c r="G84" s="112"/>
-      <c r="H84" s="113"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="119"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
@@ -8328,12 +8328,12 @@
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="111"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112"/>
-      <c r="H88" s="113"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="119"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
@@ -8365,12 +8365,12 @@
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="112"/>
-      <c r="G91" s="112"/>
-      <c r="H91" s="113"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="118"/>
+      <c r="G91" s="118"/>
+      <c r="H91" s="119"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
@@ -8402,12 +8402,12 @@
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="113"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="118"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="118"/>
+      <c r="H94" s="119"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -8439,69 +8439,88 @@
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="111"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="112"/>
-      <c r="F97" s="112"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="113"/>
+      <c r="C97" s="117"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="119"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="117" t="s">
+      <c r="C98" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="118"/>
-      <c r="E98" s="118"/>
-      <c r="F98" s="118"/>
-      <c r="G98" s="118"/>
-      <c r="H98" s="119"/>
+      <c r="D98" s="109"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="109"/>
+      <c r="G98" s="109"/>
+      <c r="H98" s="110"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="117" t="s">
+      <c r="C99" s="108" t="s">
         <v>300</v>
       </c>
-      <c r="D99" s="118"/>
-      <c r="E99" s="118"/>
-      <c r="F99" s="118"/>
-      <c r="G99" s="118"/>
-      <c r="H99" s="119"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="109"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="109"/>
+      <c r="H99" s="110"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="120" t="s">
+      <c r="C100" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
-      <c r="G100" s="121"/>
-      <c r="H100" s="122"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="112"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
@@ -8518,43 +8537,24 @@
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">
@@ -8596,7 +8596,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8686,7 +8686,7 @@
         <v>117</v>
       </c>
       <c r="L3" s="107">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -8916,7 +8916,7 @@
         <v>117</v>
       </c>
       <c r="L12" s="107">
-        <v>0.35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
         <v>117</v>
       </c>
       <c r="L13" s="107">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -9072,7 +9072,7 @@
         <v>117</v>
       </c>
       <c r="L18" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -9150,7 +9150,7 @@
         <v>117</v>
       </c>
       <c r="L21" s="107">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9178,7 +9178,7 @@
         <v>117</v>
       </c>
       <c r="L22" s="107">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9258,14 +9258,14 @@
       <c r="B28" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="str">
@@ -9273,12 +9273,12 @@
         <v>As a developer, I want the game to generate pathing data faster.</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="113"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
@@ -9310,12 +9310,12 @@
         <v>As a player, I want pathing to be more efficient and natural looking.</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -9347,12 +9347,12 @@
         <v>As a player, I want balanced unit stats.</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="119"/>
     </row>
     <row r="36" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="str">
@@ -9360,12 +9360,12 @@
         <v>As a player, I want balanced unit ability durations and cooldowns.</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="str">
@@ -9373,12 +9373,12 @@
         <v>As a player, I want to see unit ability durations and cooldown times.</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="113"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
@@ -9414,12 +9414,12 @@
         <v>As a player, I want the button image for the ability to show the ability.</v>
       </c>
       <c r="B40" s="21"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
@@ -9443,12 +9443,12 @@
         <v>As a player, I want inventory items to have unique images.</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="119"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
@@ -9472,12 +9472,12 @@
         <v>As a player, I want to be able to create different profiles and save to them.</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
@@ -9515,12 +9515,12 @@
         <v>As a player, I want all of the units to have appropriate animation.</v>
       </c>
       <c r="B47" s="21"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="113"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="119"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
@@ -9530,12 +9530,12 @@
         <v>As a player, I want visually interesting maps.</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="113"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="119"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
@@ -9587,12 +9587,12 @@
         <v>As a player, I want maps with interesting layouts.</v>
       </c>
       <c r="B52" s="21"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="113"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="119"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
@@ -9602,12 +9602,12 @@
         <v>As a player, I want to see an effect when a unit fires instead of a white line.</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="113"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="119"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
@@ -9631,12 +9631,12 @@
         <v>As a developer, I don't want to use drawline.</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="113"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
@@ -9646,12 +9646,12 @@
         <v>As a player, I want to face a boss at the end of every level.</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="113"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="119"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
@@ -9689,26 +9689,26 @@
         <v>As a player, I want to be able to install this game.</v>
       </c>
       <c r="B59" s="21"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="113"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="119"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93"/>
       <c r="B60" s="93"/>
-      <c r="C60" s="117" t="s">
+      <c r="C60" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="119"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="110"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
@@ -9718,12 +9718,12 @@
         <v>As a developer, I want to be able to run the game at 60 fps.</v>
       </c>
       <c r="B61" s="21"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="113"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="119"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
@@ -9733,12 +9733,12 @@
         <v>As a developer, I want my game to run in release mode.</v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="113"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="119"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
@@ -9748,26 +9748,26 @@
         <v>As a player, I want tooltips that display specific information.</v>
       </c>
       <c r="B63" s="21"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="113"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="119"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
       <c r="B64" s="93"/>
-      <c r="C64" s="117" t="s">
+      <c r="C64" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="119"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="110"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
@@ -9777,124 +9777,124 @@
         <v>As a developer, I want my game to meet TRC Requirements.</v>
       </c>
       <c r="B65" s="21"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="113"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="119"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
     <row r="66" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="94"/>
       <c r="B66" s="94"/>
-      <c r="C66" s="117" t="s">
+      <c r="C66" s="108" t="s">
         <v>344</v>
       </c>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="119"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="110"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
     <row r="67" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="94"/>
       <c r="B67" s="94"/>
-      <c r="C67" s="117" t="s">
+      <c r="C67" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="D67" s="118"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="119"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="110"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
     <row r="68" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="94"/>
       <c r="B68" s="94"/>
-      <c r="C68" s="117" t="s">
+      <c r="C68" s="108" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="118"/>
-      <c r="H68" s="119"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="110"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
     <row r="69" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="94"/>
       <c r="B69" s="94"/>
-      <c r="C69" s="117" t="s">
+      <c r="C69" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="D69" s="118"/>
-      <c r="E69" s="118"/>
-      <c r="F69" s="118"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="119"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="110"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="94"/>
       <c r="B70" s="94"/>
-      <c r="C70" s="117" t="s">
+      <c r="C70" s="108" t="s">
         <v>348</v>
       </c>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="118"/>
-      <c r="H70" s="119"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="110"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
     <row r="71" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="94"/>
       <c r="B71" s="94"/>
-      <c r="C71" s="117" t="s">
+      <c r="C71" s="108" t="s">
         <v>349</v>
       </c>
-      <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="119"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="110"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
     <row r="72" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="94"/>
       <c r="B72" s="94"/>
-      <c r="C72" s="117" t="s">
+      <c r="C72" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="119"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="109"/>
+      <c r="F72" s="109"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="110"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
     <row r="73" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="94"/>
       <c r="B73" s="94"/>
-      <c r="C73" s="117" t="s">
+      <c r="C73" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="119"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="110"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
@@ -10181,15 +10181,28 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -10206,28 +10219,15 @@
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
   </mergeCells>
   <conditionalFormatting sqref="A29">
     <cfRule type="dataBar" priority="1">

--- a/Sprint 1, 2, 3, 4 UserStories.xlsx
+++ b/Sprint 1, 2, 3, 4 UserStories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="value_in_hours">Directions!$D$2:$D$9</definedName>
   </definedNames>
   <calcPr calcId="144315"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -8596,7 +8597,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="A4" sqref="A4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9178,7 +9179,7 @@
         <v>117</v>
       </c>
       <c r="L22" s="107">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
